--- a/updates/results/PolicyCompareAzureSecurityCenter.xlsx
+++ b/updates/results/PolicyCompareAzureSecurityCenter.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="788">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="823">
   <si>
     <t>comparePolicyDefinition</t>
   </si>
@@ -107,6 +107,2301 @@
     <t>A maximum of 3 owners should be designated for your subscription</t>
   </si>
   <si>
+    <t>9d0b6ea4-93e2-4578-bf2f-6bb17d22b4bc</t>
+  </si>
+  <si>
+    <t>Periodically, newer versions are released for Java software either due to security flaws or to include additional functionality. Using the latest Java version for Function apps is recommended in order to take advantage of security fixes, if any, and/or new functionalities of the latest version. This policy only applies to Linux apps. This policy requires you to specify a Java version that meets your requirements.</t>
+  </si>
+  <si>
+    <t>Function apps that use Java should use a specified 'Java version'</t>
+  </si>
+  <si>
+    <t>8c122334-9d20-4eb8-89ea-ac9a705b74ae</t>
+  </si>
+  <si>
+    <t>Periodically, newer versions are released for HTTP either due to security flaws or to include additional functionality. Using the latest HTTP version for web apps to take advantage of security fixes, if any, and/or new functionalities of the newer version.</t>
+  </si>
+  <si>
+    <t>App Service apps should use latest 'HTTP Version'</t>
+  </si>
+  <si>
+    <t>501541f7-f7e7-4cd6-868c-4190fdad3ac9</t>
+  </si>
+  <si>
+    <t>Audits virtual machines to detect whether they are running a supported vulnerability assessment solution. A core component of every cyber risk and security program is the identification and analysis of vulnerabilities. Azure Security Center's standard pricing tier includes vulnerability scanning for your virtual machines at no extra cost. Additionally, Security Center can automatically deploy this tool for you.</t>
+  </si>
+  <si>
+    <t>A vulnerability assessment solution should be enabled on your virtual machines</t>
+  </si>
+  <si>
+    <t>6581d072-105e-4418-827f-bd446d56421b</t>
+  </si>
+  <si>
+    <t>Azure Defender for SQL provides functionality for surfacing and mitigating potential database vulnerabilities, detecting anomalous activities that could indicate threats to SQL databases, and discovering and classifying sensitive data.</t>
+  </si>
+  <si>
+    <t>Azure Defender for SQL servers on machines should be enabled</t>
+  </si>
+  <si>
+    <t>7261b898-8a84-4db8-9e04-18527132abb3</t>
+  </si>
+  <si>
+    <t>Periodically, newer versions are released for PHP software either due to security flaws or to include additional functionality. Using the latest PHP version for App Service apps is recommended in order to take advantage of security fixes, if any, and/or new functionalities of the latest version. This policy only applies to Linux apps. This policy requires you to specify a PHP version that meets your requirements.</t>
+  </si>
+  <si>
+    <t>App Service apps that use PHP should use a specified 'PHP version'</t>
+  </si>
+  <si>
+    <t>c3f317a7-a95c-4547-b7e7-11017ebdf2fe</t>
+  </si>
+  <si>
+    <t>Audit whether there are any missing system security updates and critical updates that should be installed to ensure that your Windows and Linux virtual machine scale sets are secure.</t>
+  </si>
+  <si>
+    <t>System updates on virtual machine scale sets should be installed</t>
+  </si>
+  <si>
+    <t>3c735d8a-a4ba-4a3a-b7cf-db7754cf57f4</t>
+  </si>
+  <si>
+    <t>Audit the OS vulnerabilities on your virtual machine scale sets to protect them from attacks.</t>
+  </si>
+  <si>
+    <t>Vulnerabilities in security configuration on your virtual machine scale sets should be remediated</t>
+  </si>
+  <si>
+    <t>e2c1c086-2d84-4019-bff3-c44ccd95113c</t>
+  </si>
+  <si>
+    <t>Function apps should use latest 'HTTP Version'</t>
+  </si>
+  <si>
+    <t>fb893a29-21bb-418c-a157-e99480ec364c</t>
+  </si>
+  <si>
+    <t>Upgrade your Kubernetes service cluster to a later Kubernetes version to protect against known vulnerabilities in your current Kubernetes version. Vulnerability CVE-2019-9946 has been patched in Kubernetes versions 1.11.9+, 1.12.7+, 1.13.5+, and 1.14.0+</t>
+  </si>
+  <si>
+    <t>Kubernetes Services should be upgraded to a non-vulnerable Kubernetes version</t>
+  </si>
+  <si>
+    <t>feedbf84-6b99-488c-acc2-71c829aa5ffc</t>
+  </si>
+  <si>
+    <t>Monitor vulnerability assessment scan results and recommendations for how to remediate database vulnerabilities.</t>
+  </si>
+  <si>
+    <t>SQL databases should have vulnerability findings resolved</t>
+  </si>
+  <si>
+    <t>c3d20c29-b36d-48fe-808b-99a87530ad99</t>
+  </si>
+  <si>
+    <t>Azure Defender for Resource Manager automatically monitors the resource management operations in your organization. Azure Defender detects threats and alerts you about suspicious activity. Learn more about the capabilities of Azure Defender for Resource Manager at https://aka.ms/defender-for-resource-manager . Enabling this Azure Defender plan results in charges. Learn about the pricing details per region on Security Center's pricing page: https://aka.ms/pricing-security-center .</t>
+  </si>
+  <si>
+    <t>Azure Defender for Resource Manager should be enabled</t>
+  </si>
+  <si>
+    <t>496223c3-ad65-4ecd-878a-bae78737e9ed</t>
+  </si>
+  <si>
+    <t>Periodically, newer versions are released for Java software either due to security flaws or to include additional functionality. Using the latest Java version for App Service apps is recommended in order to take advantage of security fixes, if any, and/or new functionalities of the latest version. This policy only applies to Linux apps. This policy requires you to specify a Java version that meets your requirements.</t>
+  </si>
+  <si>
+    <t>App Service apps that use Java should use a specified 'Java version'</t>
+  </si>
+  <si>
+    <t>7008174a-fd10-4ef0-817e-fc820a951d73</t>
+  </si>
+  <si>
+    <t>Periodically, newer versions are released for Python software either due to security flaws or to include additional functionality. Using the latest Python version for App Service apps is recommended in order to take advantage of security fixes, if any, and/or new functionalities of the latest version. This policy only applies to Linux apps. This policy requires you to specify a Python version that meets your requirements.</t>
+  </si>
+  <si>
+    <t>App Service apps that use Python should use a specified 'Python version'</t>
+  </si>
+  <si>
+    <t>7238174a-fd10-4ef0-817e-fc820a951d73</t>
+  </si>
+  <si>
+    <t>Periodically, newer versions are released for Python software either due to security flaws or to include additional functionality. Using the latest Python version for Function apps is recommended in order to take advantage of security fixes, if any, and/or new functionalities of the latest version. This policy only applies to Linux apps. This policy requires you to specify a Python version that meets your requirements.</t>
+  </si>
+  <si>
+    <t>Function apps that use Python should use a specified 'Python version'</t>
+  </si>
+  <si>
+    <t>2913021d-f2fd-4f3d-b958-22354e2bdbcb</t>
+  </si>
+  <si>
+    <t>Azure Defender for App Service leverages the scale of the cloud, and the visibility that Azure has as a cloud provider, to monitor for common web app attacks.</t>
+  </si>
+  <si>
+    <t>Azure Defender for App Service should be enabled</t>
+  </si>
+  <si>
+    <t>bed48b13-6647-468e-aa2f-1af1d3f4dd40</t>
+  </si>
+  <si>
+    <t>Windows Defender Exploit Guard uses the Azure Policy Guest Configuration agent. Exploit Guard has four components that are designed to lock down devices against a wide variety of attack vectors and block behaviors commonly used in malware attacks while enabling enterprises to balance their security risk and productivity requirements (Windows only).</t>
+  </si>
+  <si>
+    <t>Windows Defender Exploit Guard should be enabled on your machines</t>
+  </si>
+  <si>
+    <t>0049a6b3-a662-4f3e-8635-39cf44ace45a</t>
+  </si>
+  <si>
+    <t>Discover, track, and remediate potential vulnerabilities by configuring recurring SQL vulnerability assessment scans on your Synapse workspaces.</t>
+  </si>
+  <si>
+    <t>Vulnerability assessment should be enabled on your Synapse workspaces</t>
+  </si>
+  <si>
+    <t>4da35fc9-c9e7-4960-aec9-797fe7d9051d</t>
+  </si>
+  <si>
+    <t>Azure Defender for servers provides real-time threat protection for server workloads and generates hardening recommendations as well as alerts about suspicious activities.</t>
+  </si>
+  <si>
+    <t>Azure Defender for servers should be enabled</t>
+  </si>
+  <si>
+    <t>26a828e1-e88f-464e-bbb3-c134a282b9de</t>
+  </si>
+  <si>
+    <t>Audit the existence and health of an endpoint protection solution on your virtual machines scale sets, to protect them from threats and vulnerabilities.</t>
+  </si>
+  <si>
+    <t>Endpoint protection solution should be installed on virtual machine scale sets</t>
+  </si>
+  <si>
+    <t>e1e5fd5d-3e4c-4ce1-8661-7d1873ae6b15</t>
+  </si>
+  <si>
+    <t>Servers which do not satisfy the configured baseline will be monitored by Azure Security Center as recommendations</t>
+  </si>
+  <si>
+    <t>Vulnerabilities in security configuration on your machines should be remediated</t>
+  </si>
+  <si>
+    <t>af6cd1bd-1635-48cb-bde7-5b15693900b9</t>
+  </si>
+  <si>
+    <t>Servers without an installed Endpoint Protection agent will be monitored by Azure Security Center as recommendations</t>
+  </si>
+  <si>
+    <t>Monitor missing Endpoint Protection in Azure Security Center</t>
+  </si>
+  <si>
+    <t>0e6763cc-5078-4e64-889d-ff4d9a839047</t>
+  </si>
+  <si>
+    <t>Azure Defender for Key Vault provides an additional layer of protection and security intelligence by detecting unusual and potentially harmful attempts to access or exploit key vault accounts.</t>
+  </si>
+  <si>
+    <t>Azure Defender for Key Vault should be enabled</t>
+  </si>
+  <si>
+    <t>86b3d65f-7626-441e-b690-81a8b71cff60</t>
+  </si>
+  <si>
+    <t>Missing security system updates on your servers will be monitored by Azure Security Center as recommendations</t>
+  </si>
+  <si>
+    <t>System updates should be installed on your machines</t>
+  </si>
+  <si>
+    <t>7fe3b40f-802b-4cdd-8bd4-fd799c948cc2</t>
+  </si>
+  <si>
+    <t>Azure Defender for Azure SQL Database servers should be enabled</t>
+  </si>
+  <si>
+    <t>1c988dd6-ade4-430f-a608-2a3e5b0a6d38</t>
+  </si>
+  <si>
+    <t>Microsoft Defender for Containers provides hardening, vulnerability assessment and run-time protections for your Azure, hybrid, and multi-cloud Kubernetes environments.</t>
+  </si>
+  <si>
+    <t>Microsoft Defender for Containers should be enabled</t>
+  </si>
+  <si>
+    <t>0015ea4d-51ff-4ce3-8d8c-f3f8f0179a56</t>
+  </si>
+  <si>
+    <t>Audit virtual machines which do not have disaster recovery configured. To learn more about disaster recovery, visit https://aka.ms/asr-doc.</t>
+  </si>
+  <si>
+    <t>Audit virtual machines without disaster recovery configured</t>
+  </si>
+  <si>
+    <t>013e242c-8828-4970-87b3-ab247555486d</t>
+  </si>
+  <si>
+    <t>Ensure protection of your Azure Virtual Machines by enabling Azure Backup. Azure Backup is a secure and cost effective data protection solution for Azure.</t>
+  </si>
+  <si>
+    <t>Azure Backup should be enabled for Virtual Machines</t>
+  </si>
+  <si>
+    <t>1e66c121-a66a-4b1f-9b83-0fd99bf0fc2d</t>
+  </si>
+  <si>
+    <t>Deleting a key vault without soft delete enabled permanently deletes all secrets, keys, and certificates stored in the key vault. Accidental deletion of a key vault can lead to permanent data loss. Soft delete allows you to recover an accidentally deleted key vault for a configurable retention period.</t>
+  </si>
+  <si>
+    <t>Key vaults should have soft delete enabled</t>
+  </si>
+  <si>
+    <t>0b60c0b2-2dc2-4e1c-b5c9-abbed971de53</t>
+  </si>
+  <si>
+    <t>Malicious deletion of a key vault can lead to permanent data loss. You can prevent permanent data loss by enabling purge protection and soft delete. Purge protection protects you from insider attacks by enforcing a mandatory retention period for soft deleted key vaults. No one inside your organization or Microsoft will be able to purge your key vaults during the soft delete retention period. Keep in mind that key vaults created after September 1st 2019 have soft-delete enabled by default.</t>
+  </si>
+  <si>
+    <t>Key vaults should have deletion protection enabled</t>
+  </si>
+  <si>
+    <t>5752e6d6-1206-46d8-8ab1-ecc2f71a8112</t>
+  </si>
+  <si>
+    <t>To protect the privacy of information communicated over the Internet, your machines should use the latest version of the industry-standard cryptographic protocol, Transport Layer Security (TLS). TLS secures communications over a network by encrypting a connection between machines.</t>
+  </si>
+  <si>
+    <t>Windows machines should be configured to use secure communication protocols</t>
+  </si>
+  <si>
+    <t>4d24b6d4-5e53-4a4f-a7f4-618fa573ee4b</t>
+  </si>
+  <si>
+    <t>Enable FTPS enforcement for enhanced security.</t>
+  </si>
+  <si>
+    <t>App Service apps should require FTPS only</t>
+  </si>
+  <si>
+    <t>399b2637-a50f-4f95-96f8-3a145476eb15</t>
+  </si>
+  <si>
+    <t>Function apps should require FTPS only</t>
+  </si>
+  <si>
+    <t>0961003e-5a0a-4549-abde-af6a37f2724d</t>
+  </si>
+  <si>
+    <t>By default, a virtual machine's OS and data disks are encrypted-at-rest using platform-managed keys. Temp disks, data caches and data flowing between compute and storage aren't encrypted. Disregard this recommendation if: 1. using encryption-at-host, or 2. server-side encryption on Managed Disks meets your security requirements. Learn more in: Server-side encryption of Azure Disk Storage: https://aka.ms/disksse, Different disk encryption offerings: https://aka.ms/diskencryptioncomparison</t>
+  </si>
+  <si>
+    <t>Virtual machines should encrypt temp disks, caches, and data flows between Compute and Storage resources</t>
+  </si>
+  <si>
+    <t>1a5b4dca-0b6f-4cf5-907c-56316bc1bf3d</t>
+  </si>
+  <si>
+    <t>Use of HTTPS ensures authentication and protects data in transit from network layer eavesdropping attacks. This capability is currently generally available for Kubernetes Service (AKS), and in preview for Azure Arc enabled Kubernetes. For more info, visit https://aka.ms/kubepolicydoc</t>
+  </si>
+  <si>
+    <t>Kubernetes clusters should be accessible only over HTTPS</t>
+  </si>
+  <si>
+    <t>08a6b96f-576e-47a2-8511-119a212d344d</t>
+  </si>
+  <si>
+    <t>Ensure that devices ordered from Azure Edge Hardware Center have double encryption support enabled, to secure the data at rest on the device. This option adds a second layer of data encryption.</t>
+  </si>
+  <si>
+    <t>Azure Edge Hardware Center devices should have double encryption support enabled</t>
+  </si>
+  <si>
+    <t>d158790f-bfb0-486c-8631-2dc6b4e8e6af</t>
+  </si>
+  <si>
+    <t>Azure Database for PostgreSQL supports connecting your Azure Database for PostgreSQL server to client applications using Secure Sockets Layer (SSL). Enforcing SSL connections between your database server and your client applications helps protect against 'man in the middle' attacks by encrypting the data stream between the server and your application. This configuration enforces that SSL is always enabled for accessing your database server.</t>
+  </si>
+  <si>
+    <t>Enforce SSL connection should be enabled for PostgreSQL database servers</t>
+  </si>
+  <si>
+    <t>e802a67a-daf5-4436-9ea6-f6d821dd0c5d</t>
+  </si>
+  <si>
+    <t>Azure Database for MySQL supports connecting your Azure Database for MySQL server to client applications using Secure Sockets Layer (SSL). Enforcing SSL connections between your database server and your client applications helps protect against 'man in the middle' attacks by encrypting the data stream between the server and your application. This configuration enforces that SSL is always enabled for accessing your database server.</t>
+  </si>
+  <si>
+    <t>Enforce SSL connection should be enabled for MySQL database servers</t>
+  </si>
+  <si>
+    <t>6d555dd1-86f2-4f1c-8ed7-5abae7c6cbab</t>
+  </si>
+  <si>
+    <t>Use of HTTPS ensures server/service authentication and protects data in transit from network layer eavesdropping attacks.</t>
+  </si>
+  <si>
+    <t>Function apps should only be accessible over HTTPS</t>
+  </si>
+  <si>
+    <t>f0e6e85b-9b9f-4a4b-b67b-f730d42f1b0b</t>
+  </si>
+  <si>
+    <t>Periodically, newer versions are released for TLS either due to security flaws, include additional functionality, and enhance speed. Upgrade to the latest TLS version for App Service apps to take advantage of security fixes, if any, and/or new functionalities of the latest version.</t>
+  </si>
+  <si>
+    <t>App Service apps should use the latest TLS version</t>
+  </si>
+  <si>
+    <t>d9da03a1-f3c3-412a-9709-947156872263</t>
+  </si>
+  <si>
+    <t>Data can be tampered with during transmission between Azure HDInsight cluster nodes. Enabling encryption in transit addresses problems of misuse and tampering during this transmission.</t>
+  </si>
+  <si>
+    <t>Azure HDInsight clusters should use encryption in transit to encrypt communication between Azure HDInsight cluster nodes</t>
+  </si>
+  <si>
+    <t>1760f9d4-7206-436e-a28f-d9f3a5c8a227</t>
+  </si>
+  <si>
+    <t>Enabling Azure Batch disk encryption ensures that data is always encrypted at rest on your Azure Batch compute node. Learn more about disk encryption in Batch at https://docs.microsoft.com/azure/batch/disk-encryption.</t>
+  </si>
+  <si>
+    <t>Azure Batch pools should have disk encryption enabled</t>
+  </si>
+  <si>
+    <t>a4af4a39-4135-47fb-b175-47fbdf85311d</t>
+  </si>
+  <si>
+    <t>App Service apps should only be accessible over HTTPS</t>
+  </si>
+  <si>
+    <t>f9d614c5-c173-4d56-95a7-b4437057d193</t>
+  </si>
+  <si>
+    <t>Periodically, newer versions are released for TLS either due to security flaws, include additional functionality, and enhance speed. Upgrade to the latest TLS version for Function apps to take advantage of security fixes, if any, and/or new functionalities of the latest version.</t>
+  </si>
+  <si>
+    <t>Function apps should use the latest TLS version</t>
+  </si>
+  <si>
+    <t>fa298e57-9444-42ba-bf04-86e8470e32c7</t>
+  </si>
+  <si>
+    <t>Link storage account to Log Analytics workspace to protect saved-queries with storage account encryption. Customer-managed keys are commonly required to meet regulatory compliance and for more control over the access to your saved-queries in Azure Monitor. For more details on the above, see https://docs.microsoft.com/azure/azure-monitor/platform/customer-managed-keys?tabs=portal#customer-managed-key-for-saved-queries.</t>
+  </si>
+  <si>
+    <t>Saved-queries in Azure Monitor should be saved in customer storage account for logs encryption</t>
+  </si>
+  <si>
+    <t>ac01ad65-10e5-46df-bdd9-6b0cad13e1d2</t>
+  </si>
+  <si>
+    <t>Implementing Transparent Data Encryption (TDE) with your own key provides you with increased transparency and control over the TDE Protector, increased security with an HSM-backed external service, and promotion of separation of duties. This recommendation applies to organizations with a related compliance requirement.</t>
+  </si>
+  <si>
+    <t>SQL managed instances should use customer-managed keys to encrypt data at rest</t>
+  </si>
+  <si>
+    <t>2e94d99a-8a36-4563-bc77-810d8893b671</t>
+  </si>
+  <si>
+    <t>Use customer-managed keys to manage the encryption at rest of your backup data. By default, customer data is encrypted with service-managed keys, but customer-managed keys are commonly required to meet regulatory compliance standards. Customer-managed keys enable the data to be encrypted with an Azure Key Vault key created and owned by you. You have full control and responsibility for the key lifecycle, including rotation and management. Learn more at https://aka.ms/AB-CmkEncryption.</t>
+  </si>
+  <si>
+    <t>[Preview]: Azure Recovery Services vaults should use customer-managed keys for encrypting backup data</t>
+  </si>
+  <si>
+    <t>18adea5e-f416-4d0f-8aa8-d24321e3e274</t>
+  </si>
+  <si>
+    <t>Use customer-managed keys to manage the encryption at rest of your PostgreSQL servers. By default, the data is encrypted at rest with service-managed keys, but customer-managed keys are commonly required to meet regulatory compliance standards. Customer-managed keys enable the data to be encrypted with an Azure Key Vault key created and owned by you. You have full control and responsibility for the key lifecycle, including rotation and management.</t>
+  </si>
+  <si>
+    <t>PostgreSQL servers should use customer-managed keys to encrypt data at rest</t>
+  </si>
+  <si>
+    <t>f7d52b2d-e161-4dfa-a82b-55e564167385</t>
+  </si>
+  <si>
+    <t>Use customer-managed keys to control the encryption at rest of the data stored in Azure Synapse workspaces. Customer-managed keys deliver double encryption by adding a second layer of encryption on top of the default encryption with service-managed keys.</t>
+  </si>
+  <si>
+    <t>Azure Synapse workspaces should use customer-managed keys to encrypt data at rest</t>
+  </si>
+  <si>
+    <t>1f68a601-6e6d-4e42-babf-3f643a047ea2</t>
+  </si>
+  <si>
+    <t>Create Azure Monitor logs cluster with customer-managed keys encryption. By default, the log data is encrypted with service-managed keys, but customer-managed keys are commonly required to meet regulatory compliance. Customer-managed key in Azure Monitor gives you more control over the access to you data, see https://docs.microsoft.com/azure/azure-monitor/platform/customer-managed-keys.</t>
+  </si>
+  <si>
+    <t>Azure Monitor Logs clusters should be encrypted with customer-managed key</t>
+  </si>
+  <si>
+    <t>ca91455f-eace-4f96-be59-e6e2c35b4816</t>
+  </si>
+  <si>
+    <t>High security sensitive customers who are concerned of the risk associated with any particular encryption algorithm, implementation, or key being compromised can opt for additional layer of encryption using a different encryption algorithm/mode at the infrastructure layer using platform managed encryption keys. The disk encryption sets are required to use double encryption. Learn more at https://aka.ms/disks-doubleEncryption.</t>
+  </si>
+  <si>
+    <t>Managed disks should be double encrypted with both platform-managed and customer-managed keys</t>
+  </si>
+  <si>
+    <t>295fc8b1-dc9f-4f53-9c61-3f313ceab40a</t>
+  </si>
+  <si>
+    <t>Azure Service Bus supports the option of encrypting data at rest with either Microsoft-managed keys (default) or customer-managed keys. Choosing to encrypt data using customer-managed keys enables you to assign, rotate, disable, and revoke access to the keys that Service Bus will use to encrypt data in your namespace. Note that Service Bus only supports encryption with customer-managed keys for premium namespaces.</t>
+  </si>
+  <si>
+    <t>Service Bus Premium namespaces should use a customer-managed key for encryption</t>
+  </si>
+  <si>
+    <t>1f905d99-2ab7-462c-a6b0-f709acca6c8f</t>
+  </si>
+  <si>
+    <t>Use customer-managed keys to manage the encryption at rest of your Azure Cosmos DB. By default, the data is encrypted at rest with service-managed keys, but customer-managed keys are commonly required to meet regulatory compliance standards. Customer-managed keys enable the data to be encrypted with an Azure Key Vault key created and owned by you. You have full control and responsibility for the key lifecycle, including rotation and management. Learn more at https://aka.ms/cosmosdb-cmk.</t>
+  </si>
+  <si>
+    <t>Azure Cosmos DB accounts should use customer-managed keys to encrypt data at rest</t>
+  </si>
+  <si>
+    <t>41425d9f-d1a5-499a-9932-f8ed8453932c</t>
+  </si>
+  <si>
+    <t>To enhance data security, the data stored on the virtual machine (VM) host of your Azure Kubernetes Service nodes VMs should be encrypted at rest. This is a common requirement in many regulatory and industry compliance standards.</t>
+  </si>
+  <si>
+    <t>Temp disks and cache for agent node pools in Azure Kubernetes Service clusters should be encrypted at host</t>
+  </si>
+  <si>
+    <t>ba769a63-b8cc-4b2d-abf6-ac33c7204be8</t>
+  </si>
+  <si>
+    <t>Manage encryption at rest of Azure Machine Learning workspace data with customer-managed keys. By default, customer data is encrypted with service-managed keys, but customer-managed keys are commonly required to meet regulatory compliance standards. Customer-managed keys enable the data to be encrypted with an Azure Key Vault key created and owned by you. You have full control and responsibility for the key lifecycle, including rotation and management. Learn more at https://aka.ms/azureml-workspaces-cmk.</t>
+  </si>
+  <si>
+    <t>Azure Machine Learning workspaces should be encrypted with a customer-managed key</t>
+  </si>
+  <si>
+    <t>b5ec538c-daa0-4006-8596-35468b9148e8</t>
+  </si>
+  <si>
+    <t>Use customer-managed keys to manage the encryption at rest of your storage account encryption scopes. Customer-managed keys enable the data to be encrypted with an Azure key-vault key created and owned by you. You have full control and responsibility for the key lifecycle, including rotation and management. Learn more about storage account encryption scopes at https://aka.ms/encryption-scopes-overview.</t>
+  </si>
+  <si>
+    <t>Storage account encryption scopes should use customer-managed keys to encrypt data at rest</t>
+  </si>
+  <si>
+    <t>1fafeaf6-7927-4059-a50a-8eb2a7a6f2b5</t>
+  </si>
+  <si>
+    <t>Deploy into Integration Service Environment to manage encryption at rest of Logic Apps data using customer-managed keys. By default, customer data is encrypted with service-managed keys, but customer-managed keys are commonly required to meet regulatory compliance standards. Customer-managed keys enable the data to be encrypted with an Azure Key Vault key created and owned by you. You have full control and responsibility for the key lifecycle, including rotation and management.</t>
+  </si>
+  <si>
+    <t>Logic Apps Integration Service Environment should be encrypted with customer-managed keys</t>
+  </si>
+  <si>
+    <t>56a5ee18-2ae6-4810-86f7-18e39ce5629b</t>
+  </si>
+  <si>
+    <t>Use customer-managed keys to manage the encryption at rest of your Azure Automation Accounts. By default, customer data is encrypted with service-managed keys, but customer-managed keys are commonly required to meet regulatory compliance standards. Customer-managed keys enable the data to be encrypted with an Azure Key Vault key created and owned by you. You have full control and responsibility for the key lifecycle, including rotation and management. Learn more at https://aka.ms/automation-cmk.</t>
+  </si>
+  <si>
+    <t>Azure Automation accounts should use customer-managed keys to encrypt data at rest</t>
+  </si>
+  <si>
+    <t>4ec52d6d-beb7-40c4-9a9e-fe753254690e</t>
+  </si>
+  <si>
+    <t>Use customer-managed keys to manage the encryption at rest of your Azure Data Factory. By default, customer data is encrypted with service-managed keys, but customer-managed keys are commonly required to meet regulatory compliance standards. Customer-managed keys enable the data to be encrypted with an Azure Key Vault key created and owned by you. You have full control and responsibility for the key lifecycle, including rotation and management. Learn more at https://aka.ms/adf-cmk.</t>
+  </si>
+  <si>
+    <t>Azure data factories should be encrypted with a customer-managed key</t>
+  </si>
+  <si>
+    <t>702dd420-7fcc-42c5-afe8-4026edd20fe0</t>
+  </si>
+  <si>
+    <t>Use customer-managed keys to manage the encryption at rest of the contents of your managed disks. By default, the data is encrypted at rest with platform-managed keys, but customer-managed keys are commonly required to meet regulatory compliance standards. Customer-managed keys enable the data to be encrypted with an Azure Key Vault key created and owned by you. You have full control and responsibility for the key lifecycle, including rotation and management. Learn more at https://aka.ms/disks-cmk.</t>
+  </si>
+  <si>
+    <t>OS and data disks should be encrypted with a customer-managed key</t>
+  </si>
+  <si>
+    <t>1fd32ebd-e4c3-4e13-a54a-d7422d4d95f6</t>
+  </si>
+  <si>
+    <t>Enabling encryption at host helps protect and safeguard your data to meet your organizational security and compliance commitments. When you enable encryption at host, data stored on the VM host is encrypted at rest and flows encrypted to the Storage service.</t>
+  </si>
+  <si>
+    <t>Azure HDInsight clusters should use encryption at host to encrypt data at rest</t>
+  </si>
+  <si>
+    <t>6fac406b-40ca-413b-bf8e-0bf964659c25</t>
+  </si>
+  <si>
+    <t>Secure your blob and file storage account with greater flexibility using customer-managed keys. When you specify a customer-managed key, that key is used to protect and control access to the key that encrypts your data. Using customer-managed keys provides additional capabilities to control rotation of the key encryption key or cryptographically erase data.</t>
+  </si>
+  <si>
+    <t>Storage accounts should use customer-managed key for encryption</t>
+  </si>
+  <si>
+    <t>67121cc7-ff39-4ab8-b7e3-95b84dab487d</t>
+  </si>
+  <si>
+    <t>Customer-managed keys are commonly required to meet regulatory compliance standards. Customer-managed keys enable the data stored in Cognitive Services to be encrypted with an Azure Key Vault key created and owned by you. You have full control and responsibility for the key lifecycle, including rotation and management. Learn more about customer-managed keys at https://go.microsoft.com/fwlink/?linkid=2121321.</t>
+  </si>
+  <si>
+    <t>Cognitive Services accounts should enable data encryption with a customer-managed key</t>
+  </si>
+  <si>
+    <t>83cef61d-dbd1-4b20-a4fc-5fbc7da10833</t>
+  </si>
+  <si>
+    <t>Use customer-managed keys to manage the encryption at rest of your MySQL servers. By default, the data is encrypted at rest with service-managed keys, but customer-managed keys are commonly required to meet regulatory compliance standards. Customer-managed keys enable the data to be encrypted with an Azure Key Vault key created and owned by you. You have full control and responsibility for the key lifecycle, including rotation and management.</t>
+  </si>
+  <si>
+    <t>MySQL servers should use customer-managed keys to encrypt data at rest</t>
+  </si>
+  <si>
+    <t>86efb160-8de7-451d-bc08-5d475b0aadae</t>
+  </si>
+  <si>
+    <t>Use a customer-managed key to control the encryption of the device unlock password for Azure Data Box. Customer-managed keys also help manage access to the device unlock password by the Data Box service in order to prepare the device and copy data in an automated manner. The data on the device itself is already encrypted at rest with Advanced Encryption Standard 256-bit encryption, and the device unlock password is encrypted by default with a Microsoft managed key.</t>
+  </si>
+  <si>
+    <t>Azure Data Box jobs should use a customer-managed key to encrypt the device unlock password</t>
+  </si>
+  <si>
+    <t>87ba29ef-1ab3-4d82-b763-87fcd4f531f7</t>
+  </si>
+  <si>
+    <t>Use customer-managed keys when you want to securely store any metadata and private data assets of your Stream Analytics jobs in your storage account. This gives you total control over how your Stream Analytics data is encrypted.</t>
+  </si>
+  <si>
+    <t>Azure Stream Analytics jobs should use customer-managed keys to encrypt data</t>
+  </si>
+  <si>
+    <t>970f84d8-71b6-4091-9979-ace7e3fb6dbb</t>
+  </si>
+  <si>
+    <t>Manage encryption at rest of Azure HPC Cache with customer-managed keys. By default, customer data is encrypted with service-managed keys, but customer-managed keys are commonly required to meet regulatory compliance standards. Customer-managed keys enable the data to be encrypted with an Azure Key Vault key created and owned by you. You have full control and responsibility for the key lifecycle, including rotation and management.</t>
+  </si>
+  <si>
+    <t>HPC Cache accounts should use customer-managed key for encryption</t>
+  </si>
+  <si>
+    <t>64d314f6-6062-4780-a861-c23e8951bee5</t>
+  </si>
+  <si>
+    <t>Use customer-managed keys to manage the encryption at rest of your Azure HDInsight clusters. By default, customer data is encrypted with service-managed keys, but customer-managed keys are commonly required to meet regulatory compliance standards. Customer-managed keys enable the data to be encrypted with an Azure Key Vault key created and owned by you. You have full control and responsibility for the key lifecycle, including rotation and management. Learn more at https://aka.ms/hdi.cmk.</t>
+  </si>
+  <si>
+    <t>Azure HDInsight clusters should use customer-managed keys to encrypt data at rest</t>
+  </si>
+  <si>
+    <t>99e9ccd8-3db9-4592-b0d1-14b1715a4d8a</t>
+  </si>
+  <si>
+    <t>Use customer-managed keys to manage the encryption at rest of your Batch account's data. By default, customer data is encrypted with service-managed keys, but customer-managed keys are commonly required to meet regulatory compliance standards. Customer-managed keys enable the data to be encrypted with an Azure Key Vault key created and owned by you. You have full control and responsibility for the key lifecycle, including rotation and management. Learn more at https://aka.ms/Batch-CMK.</t>
+  </si>
+  <si>
+    <t>Azure Batch account should use customer-managed keys to encrypt data</t>
+  </si>
+  <si>
+    <t>0aa61e00-0a01-4a3c-9945-e93cffedf0e6</t>
+  </si>
+  <si>
+    <t>Secure your containers with greater flexibility using customer-managed keys. When you specify a customer-managed key, that key is used to protect and control access to the key that encrypts your data. Using customer-managed keys provides additional capabilities to control rotation of the key encryption key or cryptographically erase data.</t>
+  </si>
+  <si>
+    <t>Azure Container Instance container group should use customer-managed key for encryption</t>
+  </si>
+  <si>
+    <t>a1ad735a-e96f-45d2-a7b2-9a4932cab7ec</t>
+  </si>
+  <si>
+    <t>Azure Event Hubs supports the option of encrypting data at rest with either Microsoft-managed keys (default) or customer-managed keys. Choosing to encrypt data using customer-managed keys enables you to assign, rotate, disable, and revoke access to the keys that Event Hub will use to encrypt data in your namespace. Note that Event Hub only supports encryption with customer-managed keys for namespaces in dedicated clusters.</t>
+  </si>
+  <si>
+    <t>Event Hub namespaces should use a customer-managed key for encryption</t>
+  </si>
+  <si>
+    <t>5b9159ae-1701-4a6f-9a7a-aa9c8ddd0580</t>
+  </si>
+  <si>
+    <t>Use customer-managed keys to manage the encryption at rest of the contents of your registries. By default, the data is encrypted at rest with service-managed keys, but customer-managed keys are commonly required to meet regulatory compliance standards. Customer-managed keys enable the data to be encrypted with an Azure Key Vault key created and owned by you. You have full control and responsibility for the key lifecycle, including rotation and management. Learn more at https://aka.ms/acr/CMK.</t>
+  </si>
+  <si>
+    <t>Container registries should be encrypted with a customer-managed key</t>
+  </si>
+  <si>
+    <t>81e74cea-30fd-40d5-802f-d72103c2aaaa</t>
+  </si>
+  <si>
+    <t>Enabling encryption at rest using a customer-managed key on your Azure Data Explorer cluster provides additional control over the key being used by the encryption at rest. This feature is oftentimes applicable to customers with special compliance requirements and requires a Key Vault to managing the keys.</t>
+  </si>
+  <si>
+    <t>Azure Data Explorer encryption at rest should use a customer-managed key</t>
+  </si>
+  <si>
+    <t>17k78e20-9358-41c9-923c-fb736d382a12</t>
+  </si>
+  <si>
+    <t>Transparent data encryption should be enabled to protect data-at-rest and meet compliance requirements</t>
+  </si>
+  <si>
+    <t>Transparent Data Encryption on SQL databases should be enabled</t>
+  </si>
+  <si>
+    <t>47031206-ce96-41f8-861b-6a915f3de284</t>
+  </si>
+  <si>
+    <t>Use customer-managed keys to manage the encryption at rest of your IoT Hub device provisioning service. The data is automatically encrypted at rest with service-managed keys, but customer-managed keys (CMK) are commonly required to meet regulatory compliance standards. CMKs enable the data to be encrypted with an Azure Key Vault key created and owned by you. Learn more about CMK encryption at https://aka.ms/dps/CMK.</t>
+  </si>
+  <si>
+    <t>[Preview]: IoT Hub device provisioning service data should be encrypted using customer-managed keys (CMK)</t>
+  </si>
+  <si>
+    <t>7d7be79c-23ba-4033-84dd-45e2a5ccdd67</t>
+  </si>
+  <si>
+    <t>Encrypting OS and data disks using customer-managed keys provides more control and greater flexibility in key management. This is a common requirement in many regulatory and industry compliance standards.</t>
+  </si>
+  <si>
+    <t>Both operating systems and data disks in Azure Kubernetes Service clusters should be encrypted by customer-managed keys</t>
+  </si>
+  <si>
+    <t>51522a96-0869-4791-82f3-981000c2c67f</t>
+  </si>
+  <si>
+    <t>Azure Bot Service automatically encrypts your resource to protect your data and meet organizational security and compliance commitments. By default, Microsoft-managed encryption keys are used. For greater flexibility in managing keys or controlling access to your subscription, select customer-managed keys, also known as bring your own key (BYOK). Learn more about Azure Bot Service encryption: https://docs.microsoft.com/azure/bot-service/bot-service-encryption.</t>
+  </si>
+  <si>
+    <t>Bot Service should be encrypted with a customer-managed key</t>
+  </si>
+  <si>
+    <t>4733ea7b-a883-42fe-8cac-97454c2a9e4a</t>
+  </si>
+  <si>
+    <t>Enable infrastructure encryption for higher level of assurance that the data is secure. When infrastructure encryption is enabled, data in a storage account is encrypted twice.</t>
+  </si>
+  <si>
+    <t>Storage accounts should have infrastructure encryption</t>
+  </si>
+  <si>
+    <t>ec068d99-e9c7-401f-8cef-5bdde4e6ccf1</t>
+  </si>
+  <si>
+    <t>Enabling double encryption helps protect and safeguard your data to meet your organizational security and compliance commitments. When double encryption has been enabled, data in the storage account is encrypted twice, once at the service level and once at the infrastructure level, using two different encryption algorithms and two different keys.</t>
+  </si>
+  <si>
+    <t>Double encryption should be enabled on Azure Data Explorer</t>
+  </si>
+  <si>
+    <t>ea0dfaed-95fb-448c-934e-d6e713ce393d</t>
+  </si>
+  <si>
+    <t>To ensure secure data encryption is enabled at the service level and the infrastructure level with two different encryption algorithms and two different keys, use an Azure Monitor dedicated cluster. This option is enabled by default when supported at the region, see https://docs.microsoft.com/azure/azure-monitor/platform/customer-managed-keys#customer-managed-key-overview.</t>
+  </si>
+  <si>
+    <t>Azure Monitor Logs clusters should be created with infrastructure-encryption enabled (double encryption)</t>
+  </si>
+  <si>
+    <t>24fba194-95d6-48c0-aea7-f65bf859c598</t>
+  </si>
+  <si>
+    <t>Enable infrastructure encryption for Azure Database for PostgreSQL servers to have higher level of assurance that the data is secure. When infrastructure encryption is enabled, the data at rest is encrypted twice using FIPS 140-2 compliant Microsoft managed keys</t>
+  </si>
+  <si>
+    <t>Infrastructure encryption should be enabled for Azure Database for PostgreSQL servers</t>
+  </si>
+  <si>
+    <t>0a370ff3-6cab-4e85-8995-295fd854c5b8</t>
+  </si>
+  <si>
+    <t>Implementing Transparent Data Encryption (TDE) with your own key provides increased transparency and control over the TDE Protector, increased security with an HSM-backed external service, and promotion of separation of duties. This recommendation applies to organizations with a related compliance requirement.</t>
+  </si>
+  <si>
+    <t>SQL servers should use customer-managed keys to encrypt data at rest</t>
+  </si>
+  <si>
+    <t>fc4d8e41-e223-45ea-9bf5-eada37891d87</t>
+  </si>
+  <si>
+    <t>Use encryption at host to get end-to-end encryption for your virtual machine and virtual machine scale set data. Encryption at host enables encryption at rest for your temporary disk and OS/data disk caches. Temporary and ephemeral OS disks are encrypted with platform-managed keys when encryption at host is enabled. OS/data disk caches are encrypted at rest with either customer-managed or platform-managed key, depending on the encryption type selected on the disk. Learn more at https://aka.ms/vm-hbe.</t>
+  </si>
+  <si>
+    <t>Virtual machines and virtual machine scale sets should have encryption at host enabled</t>
+  </si>
+  <si>
+    <t>c349d81b-9985-44ae-a8da-ff98d108ede8</t>
+  </si>
+  <si>
+    <t>Enable a second layer of software-based encryption for data at rest on the device. The device is already protected via Advanced Encryption Standard 256-bit encryption for data at rest. This option adds a second layer of data encryption.</t>
+  </si>
+  <si>
+    <t>Azure Data Box jobs should enable double encryption for data at rest on the device</t>
+  </si>
+  <si>
+    <t>3a58212a-c829-4f13-9872-6371df2fd0b4</t>
+  </si>
+  <si>
+    <t>Enable infrastructure encryption for Azure Database for MySQL servers to have higher level of assurance that the data is secure. When infrastructure encryption is enabled, the data at rest is encrypted twice using FIPS 140-2 compliant Microsoft managed keys.</t>
+  </si>
+  <si>
+    <t>Infrastructure encryption should be enabled for Azure Database for MySQL servers</t>
+  </si>
+  <si>
+    <t>f4b53539-8df9-40e4-86c6-6b607703bd4e</t>
+  </si>
+  <si>
+    <t>Enabling disk encryption helps protect and safeguard your data to meet your organizational security and compliance commitments.</t>
+  </si>
+  <si>
+    <t>Disk encryption should be enabled on Azure Data Explorer</t>
+  </si>
+  <si>
+    <t>051cba44-2429-45b9-9649-46cec11c7119</t>
+  </si>
+  <si>
+    <t>Use a customer-managed key to control the encryption at rest of the data stored in Azure API for FHIR when this is a regulatory or compliance requirement. Customer-managed keys also deliver double encryption by adding a second layer of encryption on top of the default one done with service-managed keys.</t>
+  </si>
+  <si>
+    <t>Azure API for FHIR should use a customer-managed key to encrypt data at rest</t>
+  </si>
+  <si>
+    <t>ef619a2c-cc4d-4d03-b2ba-8c94a834d85b</t>
+  </si>
+  <si>
+    <t>Azure Virtual Network deployment provides enhanced security, isolation and allows you to place your API Management service in a non-internet routable network that you control access to. These networks can then be connected to your on-premises networks using various VPN technologies, which enables access to your backend services within the network and/or on-premises. The developer portal and API gateway, can be configured to be accessible either from the Internet or only within the virtual network.</t>
+  </si>
+  <si>
+    <t>API Management services should use a virtual network</t>
+  </si>
+  <si>
+    <t>4b90e17e-8448-49db-875e-bd83fb6f804f</t>
+  </si>
+  <si>
+    <t>Azure Private Link lets you connect your virtual network to Azure services without a public IP address at the source or destination. The Private Link platform handles the connectivity between the consumer and services over the Azure backbone network. By mapping private endpoints to your Event Grid topic instead of the entire service, you'll also be protected against data leakage risks. Learn more at: https://aka.ms/privateendpoints.</t>
+  </si>
+  <si>
+    <t>Azure Event Grid topics should use private link</t>
+  </si>
+  <si>
+    <t>1ee56206-5dd1-42ab-b02d-8aae8b1634ce</t>
+  </si>
+  <si>
+    <t>Azure API for FHIR should have at least one approved private endpoint connection. Clients in a virtual network can securely access resources that have private endpoint connections through private links. For more information, visit: https://aka.ms/fhir-privatelink.</t>
+  </si>
+  <si>
+    <t>Azure API for FHIR should use private link</t>
+  </si>
+  <si>
+    <t>e8eef0a8-67cf-4eb4-9386-14b0e78733d4</t>
+  </si>
+  <si>
+    <t>Azure Private Link lets you connect your virtual network to Azure services without a public IP address at the source or destination. The private link platform handles the connectivity between the consumer and services over the Azure backbone network.By mapping private endpoints to your container registries instead of the entire service, you'll also be protected against data leakage risks. Learn more at: https://aka.ms/acr/private-link.</t>
+  </si>
+  <si>
+    <t>Container registries should use private link</t>
+  </si>
+  <si>
+    <t>4fa4b6c0-31ca-4c0d-b10d-24b96f62a751</t>
+  </si>
+  <si>
+    <t>Anonymous public read access to containers and blobs in Azure Storage is a convenient way to share data but might present security risks. To prevent data breaches caused by undesired anonymous access, Microsoft recommends preventing public access to a storage account unless your scenario requires it.</t>
+  </si>
+  <si>
+    <t>[Preview]: Storage account public access should be disallowed</t>
+  </si>
+  <si>
+    <t>e71308d3-144b-4262-b144-efdc3cc90517</t>
+  </si>
+  <si>
+    <t>Protect your subnet from potential threats by restricting access to it with a Network Security Group (NSG). NSGs contain a list of Access Control List (ACL) rules that allow or deny network traffic to your subnet.</t>
+  </si>
+  <si>
+    <t>Subnets should be associated with a Network Security Group</t>
+  </si>
+  <si>
+    <t>ee980b6d-0eca-4501-8d54-f6290fd512c3</t>
+  </si>
+  <si>
+    <t>Disabling public network access improves security by ensuring that your Azure Cognitive Search service is not exposed on the public internet. Creating private endpoints can limit exposure of your Search service. Learn more at: https://aka.ms/azure-cognitive-search/inbound-private-endpoints.</t>
+  </si>
+  <si>
+    <t>Azure Cognitive Search services should disable public network access</t>
+  </si>
+  <si>
+    <t>f39f5f49-4abf-44de-8c70-0756997bfb51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Azure Private Link lets you connect your virtual network to Azure services without a public IP address at the source or destination. The Private Link platform handles the connectivity between the consumer and services over the Azure backbone network. By mapping private endpoints to diskAccesses, data leakage risks are reduced. Learn more about private links at: https://aka.ms/disksprivatelinksdoc. </t>
+  </si>
+  <si>
+    <t>Disk access resources should use private link</t>
+  </si>
+  <si>
+    <t>22730e10-96f6-4aac-ad84-9383d35b5917</t>
+  </si>
+  <si>
+    <t>Open remote management ports are exposing your VM to a high level of risk from Internet-based attacks. These attacks attempt to brute force credentials to gain admin access to the machine.</t>
+  </si>
+  <si>
+    <t>Management ports should be closed on your virtual machines</t>
+  </si>
+  <si>
+    <t>f6de0be7-9a8a-4b8a-b349-43cf02d22f7c</t>
+  </si>
+  <si>
+    <t>Protect your virtual machines from potential threats by restricting access to them with network security groups (NSG). Learn more about controlling traffic with NSGs at https://aka.ms/nsg-doc</t>
+  </si>
+  <si>
+    <t>Internet-facing virtual machines should be protected with network security groups</t>
+  </si>
+  <si>
+    <t>2a1a9cdf-e04d-429a-8416-3bfb72a1b26f</t>
+  </si>
+  <si>
+    <t>Protect your storage accounts from potential threats using virtual network rules as a preferred method instead of IP-based filtering. Disabling IP-based filtering prevents public IPs from accessing your storage accounts.</t>
+  </si>
+  <si>
+    <t>Storage accounts should restrict network access using virtual network rules</t>
+  </si>
+  <si>
+    <t>fdccbe47-f3e3-4213-ad5d-ea459b2fa077</t>
+  </si>
+  <si>
+    <t>Disable the public network access property to improve security and ensure your Azure Database for MariaDB can only be accessed from a private endpoint. This configuration strictly disables access from any public address space outside of Azure IP range, and denies all logins that match IP or virtual network-based firewall rules.</t>
+  </si>
+  <si>
+    <t>Public network access should be disabled for MariaDB servers</t>
+  </si>
+  <si>
+    <t>037eea7a-bd0a-46c5-9a66-03aea78705d3</t>
+  </si>
+  <si>
+    <t>By restricting network access, you can ensure that only allowed networks can access the service. This can be achieved by configuring network rules so that only applications from allowed networks can access the Azure AI service.</t>
+  </si>
+  <si>
+    <t>Azure AI Services resources should restrict network access</t>
+  </si>
+  <si>
+    <t>0564d078-92f5-4f97-8398-b9f58a51f70b</t>
+  </si>
+  <si>
+    <t>Private endpoint connections enforce secure communication by enabling private connectivity to Azure Database for PostgreSQL. Configure a private endpoint connection to enable access to traffic coming only from known networks and prevent access from all other IP addresses, including within Azure.</t>
+  </si>
+  <si>
+    <t>Private endpoint should be enabled for PostgreSQL servers</t>
+  </si>
+  <si>
+    <t>0725b4dd-7e76-479c-a735-68e7ee23d5ca</t>
+  </si>
+  <si>
+    <t>To improve the security of Cognitive Services accounts, ensure that it isn't exposed to the public internet and can only be accessed from a private endpoint. Disable the public network access property as described in https://go.microsoft.com/fwlink/?linkid=2129800. This option disables access from any public address space outside the Azure IP range, and denies all logins that match IP or virtual network-based firewall rules. This reduces data leakage risks.</t>
+  </si>
+  <si>
+    <t>[Deprecated]: Cognitive Services accounts should disable public network access</t>
+  </si>
+  <si>
+    <t>08e6af2d-db70-460a-bfe9-d5bd474ba9d6</t>
+  </si>
+  <si>
+    <t>Azure Security Center analyzes the traffic patterns of Internet facing virtual machines and provides Network Security Group rule recommendations that reduce the potential attack surface</t>
+  </si>
+  <si>
+    <t>Adaptive network hardening recommendations should be applied on internet facing virtual machines</t>
+  </si>
+  <si>
+    <t>0a1302fb-a631-4106-9753-f3d494733990</t>
+  </si>
+  <si>
+    <t>Private endpoint connections enforce secure communication by enabling private connectivity to Azure Database for MariaDB. Configure a private endpoint connection to enable access to traffic coming only from known networks and prevent access from all other IP addresses, including within Azure.</t>
+  </si>
+  <si>
+    <t>Private endpoint should be enabled for MariaDB servers</t>
+  </si>
+  <si>
+    <t>0e246bcf-5f6f-4f87-bc6f-775d4712c7ea</t>
+  </si>
+  <si>
+    <t>Restrict access to the Kubernetes Service Management API by granting API access only to IP addresses in specific ranges. It is recommended to limit access to authorized IP ranges to ensure that only applications from allowed networks can access the cluster.</t>
+  </si>
+  <si>
+    <t>Authorized IP ranges should be defined on Kubernetes Services</t>
+  </si>
+  <si>
+    <t>0fda3595-9f2b-4592-8675-4231d6fa82fe</t>
+  </si>
+  <si>
+    <t>Azure Private Link lets you connect your virtual network to Azure services without a public IP address at the source or destination. The Private Link platform handles the connectivity between the consumer and services over the Azure backbone network. By mapping private endpoints to Azure Cognitive Search, data leakage risks are reduced. Learn more about private links at: https://aka.ms/azure-cognitive-search/inbound-private-endpoints.</t>
+  </si>
+  <si>
+    <t>Azure Cognitive Search services should use private link</t>
+  </si>
+  <si>
+    <t>1b8ca024-1d5c-4dec-8995-b1a932b41780</t>
+  </si>
+  <si>
+    <t>Disabling the public network access property improves security by ensuring your Azure SQL Database can only be accessed from a private endpoint. This configuration denies all logins that match IP or virtual network based firewall rules.</t>
+  </si>
+  <si>
+    <t>Public network access on Azure SQL Database should be disabled</t>
+  </si>
+  <si>
+    <t>1c06e275-d63d-4540-b761-71f364c2111d</t>
+  </si>
+  <si>
+    <t>Azure Private Link lets you connect your virtual network to Azure services without a public IP address at the source or destination. The Private Link platform handles the connectivity between the consumer and services over the Azure backbone network. By mapping private endpoints to Service Bus namespaces, data leakage risks are reduced. Learn more at: https://docs.microsoft.com/azure/service-bus-messaging/private-link-service.</t>
+  </si>
+  <si>
+    <t>Azure Service Bus namespaces should use private link</t>
+  </si>
+  <si>
+    <t>1d320205-c6a1-4ac6-873d-46224024e8e2</t>
+  </si>
+  <si>
+    <t>Creating a private endpoint for the indicated Storage Sync Service resource allows you to address your Storage Sync Service resource from within the private IP address space of your organization's network, rather than through the internet-accessible public endpoint. Creating a private endpoint by itself does not disable the public endpoint.</t>
+  </si>
+  <si>
+    <t>Azure File Sync should use private link</t>
+  </si>
+  <si>
+    <t>df39c015-56a4-45de-b4a3-efe77bed320d</t>
+  </si>
+  <si>
+    <t>Azure Private Link lets you connect your virtual network to Azure services without a public IP address at the source or destination. The Private Link platform handles the connectivity between the consumer and services over the Azure backbone network. By mapping private endpoints to the IoT Hub device provisioning service, data leakage risks are reduced. Learn more about private links at: https://aka.ms/iotdpsvnet.</t>
+  </si>
+  <si>
+    <t>IoT Hub device provisioning service instances should use private link</t>
+  </si>
+  <si>
+    <t>564feb30-bf6a-4854-b4bb-0d2d2d1e6c66</t>
+  </si>
+  <si>
+    <t>Deploy Azure Web Application Firewall (WAF) in front of public facing web applications for additional inspection of incoming traffic. Web Application Firewall (WAF) provides centralized protection of your web applications from common exploits and vulnerabilities such as SQL injections, Cross-Site Scripting, local and remote file executions. You can also restrict access to your web applications by countries, IP address ranges, and other http(s) parameters via custom rules.</t>
+  </si>
+  <si>
+    <t>Web Application Firewall (WAF) should be enabled for Application Gateway</t>
+  </si>
+  <si>
+    <t>d9844e8a-1437-4aeb-a32c-0c992f056095</t>
+  </si>
+  <si>
+    <t>Disable the public network access property to improve security and ensure your Azure Database for MySQL can only be accessed from a private endpoint. This configuration strictly disables access from any public address space outside of Azure IP range, and denies all logins that match IP or virtual network-based firewall rules.</t>
+  </si>
+  <si>
+    <t>Public network access should be disabled for MySQL servers</t>
+  </si>
+  <si>
+    <t>7595c971-233d-4bcf-bd18-596129188c49</t>
+  </si>
+  <si>
+    <t>Private endpoint connections enforce secure communication by enabling private connectivity to Azure Database for MySQL. Configure a private endpoint connection to enable access to traffic coming only from known networks and prevent access from all other IP addresses, including within Azure.</t>
+  </si>
+  <si>
+    <t>Private endpoint should be enabled for MySQL servers</t>
+  </si>
+  <si>
+    <t>7698e800-9299-47a6-b3b6-5a0fee576eed</t>
+  </si>
+  <si>
+    <t>Private endpoint connections enforce secure communication by enabling private connectivity to Azure SQL Database.</t>
+  </si>
+  <si>
+    <t>Private endpoint connections on Azure SQL Database should be enabled</t>
+  </si>
+  <si>
+    <t>7803067c-7d34-46e3-8c79-0ca68fc4036d</t>
+  </si>
+  <si>
+    <t>Private endpoints lets you connect your virtual network to Azure services without a public IP address at the source or destination. By mapping private endpoints to your Azure Cache for Redis instances, data leakage risks are reduced. Learn more at: https://docs.microsoft.com/azure/azure-cache-for-redis/cache-private-link.</t>
+  </si>
+  <si>
+    <t>Azure Cache for Redis should use private link</t>
+  </si>
+  <si>
+    <t>862e97cf-49fc-4a5c-9de4-40d4e2e7c8eb</t>
+  </si>
+  <si>
+    <t>Firewall rules should be defined on your Azure Cosmos DB accounts to prevent traffic from unauthorized sources. Accounts that have at least one IP rule defined with the virtual network filter enabled are deemed compliant. Accounts disabling public access are also deemed compliant.</t>
+  </si>
+  <si>
+    <t>Azure Cosmos DB accounts should have firewall rules</t>
+  </si>
+  <si>
+    <t>8b0323be-cc25-4b61-935d-002c3798c6ea</t>
+  </si>
+  <si>
+    <t>Azure Private Link lets you connect your virtual network to Azure services without a public IP address at the source or destination. The Private Link platform handles the connectivity between the consumer and services over the Azure backbone network. By mapping private endpoints to Azure Data Factory, data leakage risks are reduced. Learn more about private links at: https://docs.microsoft.com/azure/data-factory/data-factory-private-link.</t>
+  </si>
+  <si>
+    <t>Azure Data Factory should use private link</t>
+  </si>
+  <si>
+    <t>9830b652-8523-49cc-b1b3-e17dce1127ca</t>
+  </si>
+  <si>
+    <t>Azure Private Link lets you connect your virtual network to Azure services without a public IP address at the source or destination. The Private Link platform handles the connectivity between the consumer and services over the Azure backbone network. By mapping private endpoints to your Event Grid domain instead of the entire service, you'll also be protected against data leakage risks. Learn more at: https://aka.ms/privateendpoints.</t>
+  </si>
+  <si>
+    <t>Azure Event Grid domains should use private link</t>
+  </si>
+  <si>
+    <t>72d11df1-dd8a-41f7-8925-b05b960ebafc</t>
+  </si>
+  <si>
+    <t>Azure Private Link lets you connect your virtual network to Azure services without a public IP address at the source or destination. The Private Link platform handles the connectivity between the consumer and services over the Azure backbone network. By mapping private endpoints to Azure Synapse workspace, data leakage risks are reduced. Learn more about private links at: https://docs.microsoft.com/azure/synapse-analytics/security/how-to-connect-to-workspace-with-private-links.</t>
+  </si>
+  <si>
+    <t>Azure Synapse workspaces should use private link</t>
+  </si>
+  <si>
+    <t>6edd7eda-6dd8-40f7-810d-67160c639cd9</t>
+  </si>
+  <si>
+    <t>Azure Private Link lets you connect your virtual network to Azure services without a public IP address at the source or destination. The Private Link platform handles the connectivity between the consumer and services over the Azure backbone network. By mapping private endpoints to your storage account, data leakage risks are reduced. Learn more about private links at - https://aka.ms/azureprivatelinkoverview</t>
+  </si>
+  <si>
+    <t>Storage accounts should use private link</t>
+  </si>
+  <si>
+    <t>a049bf77-880b-470f-ba6d-9f21c530cf83</t>
+  </si>
+  <si>
+    <t>With supported SKUs of Azure Cognitive Search, Azure Private Link lets you connect your virtual network to Azure services without a public IP address at the source or destination. The private link platform handles the connectivity between the consumer and services over the Azure backbone network. By mapping private endpoints to your Search service, data leakage risks are reduced. Learn more at: https://aka.ms/azure-cognitive-search/inbound-private-endpoints.</t>
+  </si>
+  <si>
+    <t>Azure Cognitive Search service should use a SKU that supports private link</t>
+  </si>
+  <si>
+    <t>9daedab3-fb2d-461e-b861-71790eead4f6</t>
+  </si>
+  <si>
+    <t>Azure Security Center has identified some of your network security groups' inbound rules to be too permissive. Inbound rules should not allow access from 'Any' or 'Internet' ranges. This can potentially enable attackers to target your resources.</t>
+  </si>
+  <si>
+    <t>All network ports should be restricted on network security groups associated to your virtual machine</t>
+  </si>
+  <si>
+    <t>b0f33259-77d7-4c9e-aac6-3aabcfae693c</t>
+  </si>
+  <si>
+    <t>Possible network Just In Time (JIT) access will be monitored by Azure Security Center as recommendations</t>
+  </si>
+  <si>
+    <t>Management ports of virtual machines should be protected with just-in-time network access control</t>
+  </si>
+  <si>
+    <t>b52376f7-9612-48a1-81cd-1ffe4b61032c</t>
+  </si>
+  <si>
+    <t>Disable the public network access property to improve security and ensure your Azure Database for PostgreSQL can only be accessed from a private endpoint. This configuration disables access from any public address space outside of Azure IP range, and denies all logins that match IP or virtual network-based firewall rules.</t>
+  </si>
+  <si>
+    <t>Public network access should be disabled for PostgreSQL servers</t>
+  </si>
+  <si>
+    <t>58440f8a-10c5-4151-bdce-dfbaad4a20b7</t>
+  </si>
+  <si>
+    <t>Azure Private Link lets you connect your virtual network to Azure services without a public IP address at the source or destination. The Private Link platform handles the connectivity between the consumer and services over the Azure backbone network. By mapping private endpoints to your CosmosDB account, data leakage risks are reduced. Learn more about private links at: https://docs.microsoft.com/azure/cosmos-db/how-to-configure-private-endpoints.</t>
+  </si>
+  <si>
+    <t>CosmosDB accounts should use private link</t>
+  </si>
+  <si>
+    <t>b8564268-eb4a-4337-89be-a19db070c59d</t>
+  </si>
+  <si>
+    <t>Azure Private Link lets you connect your virtual network to Azure services without a public IP address at the source or destination. The Private Link platform handles the connectivity between the consumer and services over the Azure backbone network. By mapping private endpoints to Event Hub namespaces, data leakage risks are reduced. Learn more at: https://docs.microsoft.com/azure/event-hubs/private-link-service.</t>
+  </si>
+  <si>
+    <t>Event Hub namespaces should use private link</t>
+  </si>
+  <si>
+    <t>bd352bd5-2853-4985-bf0d-73806b4a5744</t>
+  </si>
+  <si>
+    <t>Enabling IP forwarding on a virtual machine's NIC allows the machine to receive traffic addressed to other destinations. IP forwarding is rarely required (e.g., when using the VM as a network virtual appliance), and therefore, this should be reviewed by the network security team.</t>
+  </si>
+  <si>
+    <t>IP Forwarding on your virtual machine should be disabled</t>
+  </si>
+  <si>
+    <t>bb91dfba-c30d-4263-9add-9c2384e659a6</t>
+  </si>
+  <si>
+    <t>Protect your non-internet-facing virtual machines from potential threats by restricting access with network security groups (NSG). Learn more about controlling traffic with NSGs at https://aka.ms/nsg-doc</t>
+  </si>
+  <si>
+    <t>Non-internet-facing virtual machines should be protected with network security groups</t>
+  </si>
+  <si>
+    <t>ca610c1d-041c-4332-9d88-7ed3094967c7</t>
+  </si>
+  <si>
+    <t>Azure Private Link lets you connect your virtual network to Azure services without a public IP address at the source or destination. The private link platform handles the connectivity between the consumer and services over the Azure backbone network. By mapping private endpoints to your app configuration instances instead of the entire service, you'll also be protected against data leakage risks. Learn more at: https://aka.ms/appconfig/private-endpoint.</t>
+  </si>
+  <si>
+    <t>App Configuration should use private link</t>
+  </si>
+  <si>
+    <t>cddd188c-4b82-4c48-a19d-ddf74ee66a01</t>
+  </si>
+  <si>
+    <t>Azure Private Link lets you connect your virtual networks to Azure services without a public IP address at the source or destination. The Private Link platform handles the connectivity between the consumer and services over the Azure backbone network. By mapping private endpoints to Cognitive Services, you'll reduce the potential for data leakage. Learn more about private links at: https://go.microsoft.com/fwlink/?linkid=2129800.</t>
+  </si>
+  <si>
+    <t>Cognitive Services should use private link</t>
+  </si>
+  <si>
+    <t>055aa869-bc98-4af8-bafc-23f1ab6ffe2c</t>
+  </si>
+  <si>
+    <t>Azure Web Application Firewall should be enabled for Azure Front Door entry-points</t>
+  </si>
+  <si>
+    <t>55615ac9-af46-4a59-874e-391cc3dfb490</t>
+  </si>
+  <si>
+    <t>Enable the key vault firewall so that the key vault is not accessible by default to any public IPs. Optionally, you can configure specific IP ranges to limit access to those networks. Learn more at: https://docs.microsoft.com/azure/key-vault/general/network-security</t>
+  </si>
+  <si>
+    <t>Azure Key Vault should have firewall enabled</t>
+  </si>
+  <si>
+    <t>d0793b48-0edc-4296-a390-4c75d1bdfd71</t>
+  </si>
+  <si>
+    <t>Azure container registries by default accept connections over the internet from hosts on any network. To protect your registries from potential threats, allow access from only specific private endpoints, public IP addresses or address ranges. If your registry doesn't have network rules configured, it will appear in the unhealthy resources. Learn more about Container Registry network rules here: https://aka.ms/acr/privatelink, https://aka.ms/acr/portal/public-network and https://aka.ms/acr/vnet.</t>
+  </si>
+  <si>
+    <t>Container registries should not allow unrestricted network access</t>
+  </si>
+  <si>
+    <t>34c877ad-507e-4c82-993e-3452a6e0ad3c</t>
+  </si>
+  <si>
+    <t>Network access to storage accounts should be restricted. Configure network rules so only applications from allowed networks can access the storage account. To allow connections from specific internet or on-premises clients, access can be granted to traffic from specific Azure virtual networks or to public internet IP address ranges</t>
+  </si>
+  <si>
+    <t>Storage accounts should restrict network access</t>
+  </si>
+  <si>
+    <t>2154edb9-244f-4741-9970-660785bccdaa</t>
+  </si>
+  <si>
+    <t>Azure Private Link lets you connect your virtual network to Azure services without a public IP address at the source or destination. The Private Link platform handles the connectivity between the consumer and services over the Azure backbone network. By mapping private endpoints to your VM Image Builder building resources, data leakage risks are reduced. Learn more about private links at: https://docs.microsoft.com/azure/virtual-machines/linux/image-builder-networking#deploy-using-an-existing-vnet.</t>
+  </si>
+  <si>
+    <t>VM Image Builder templates should use private link</t>
+  </si>
+  <si>
+    <t>2b9ad585-36bc-4615-b300-fd4435808332</t>
+  </si>
+  <si>
+    <t>Use a managed identity for enhanced authentication security</t>
+  </si>
+  <si>
+    <t>App Service apps should use managed identity</t>
+  </si>
+  <si>
+    <t>617c02be-7f02-4efd-8836-3180d47b6c68</t>
+  </si>
+  <si>
+    <t>Service Fabric provides three levels of protection (None, Sign and EncryptAndSign) for node-to-node communication using a primary cluster certificate. Set the protection level to ensure that all node-to-node messages are encrypted and digitally signed</t>
+  </si>
+  <si>
+    <t>Service Fabric clusters should have the ClusterProtectionLevel property set to EncryptAndSign</t>
+  </si>
+  <si>
+    <t>1f314764-cb73-4fc9-b863-8eca98ac36e9</t>
+  </si>
+  <si>
+    <t>Audit provisioning of an Azure Active Directory administrator for your SQL server to enable Azure AD authentication. Azure AD authentication enables simplified permission management and centralized identity management of database users and other Microsoft services</t>
+  </si>
+  <si>
+    <t>An Azure Active Directory administrator should be provisioned for SQL servers</t>
+  </si>
+  <si>
+    <t>71ef260a-8f18-47b7-abcb-62d0673d94dc</t>
+  </si>
+  <si>
+    <t>Key access (local authentication) is recommended to be disabled for security. Azure OpenAI Studio, typically used in development/testing, requires key access and will not function if key access is disabled. After disabling, Microsoft Entra ID becomes the only access method, which allows maintaining minimum privilege principle and granular control. Learn more at: https://aka.ms/AI/auth</t>
+  </si>
+  <si>
+    <t>Azure AI Services resources should have key access disabled (disable local authentication)</t>
+  </si>
+  <si>
+    <t>3657f5a0-770e-44a3-b44e-9431ba1e9735</t>
+  </si>
+  <si>
+    <t>It is important to enable encryption of Automation account variable assets when storing sensitive data</t>
+  </si>
+  <si>
+    <t>Automation account variables should be encrypted</t>
+  </si>
+  <si>
+    <t>0da106f2-4ca3-48e8-bc85-c638fe6aea8f</t>
+  </si>
+  <si>
+    <t>Function apps should use managed identity</t>
+  </si>
+  <si>
+    <t>b54ed75b-3e1a-44ac-a333-05ba39b99ff0</t>
+  </si>
+  <si>
+    <t>Audit usage of client authentication only via Azure Active Directory in Service Fabric</t>
+  </si>
+  <si>
+    <t>Service Fabric clusters should only use Azure Active Directory for client authentication</t>
+  </si>
+  <si>
+    <t>fb74e86f-d351-4b8d-b034-93da7391c01f</t>
+  </si>
+  <si>
+    <t>Setting InternalEncryption to true encrypts the pagefile, worker disks, and internal network traffic between the front ends and workers in an App Service Environment. To learn more, refer to https://docs.microsoft.com/azure/app-service/environment/app-service-app-service-environment-custom-settings#enable-internal-encryption.</t>
+  </si>
+  <si>
+    <t>App Service Environment should have internal encryption enabled</t>
+  </si>
+  <si>
+    <t>a451c1ef-c6ca-483d-87ed-f49761e3ffb5</t>
+  </si>
+  <si>
+    <t>Audit built-in roles such as 'Owner, Contributer, Reader' instead of custom RBAC roles, which are error prone. Using custom roles is treated as an exception and requires a rigorous review and threat modeling</t>
+  </si>
+  <si>
+    <t>Audit usage of custom RBAC roles</t>
+  </si>
+  <si>
+    <t>abfb4388-5bf4-4ad7-ba82-2cd2f41ceae9</t>
+  </si>
+  <si>
+    <t>Audit SQL servers without Advanced Data Security</t>
+  </si>
+  <si>
+    <t>Azure Defender for SQL should be enabled for unprotected Azure SQL servers</t>
+  </si>
+  <si>
+    <t>8dfab9c4-fe7b-49ad-85e4-1e9be085358f</t>
+  </si>
+  <si>
+    <t>Microsoft Defender for Cloud extension for Azure Arc provides threat protection for your Arc enabled Kubernetes clusters. The extension collects data from all nodes in the cluster and sends it to the Azure Defender for Kubernetes backend in the cloud for further analysis. Learn more in https://docs.microsoft.com/azure/defender-for-cloud/defender-for-containers-enable?pivots=defender-for-container-arc.</t>
+  </si>
+  <si>
+    <t>[Preview]: Azure Arc enabled Kubernetes clusters should have Microsoft Defender for Cloud extension installed</t>
+  </si>
+  <si>
+    <t>abfb7388-5bf4-4ad7-ba99-2cd2f41cebb9</t>
+  </si>
+  <si>
+    <t>Audit each SQL Managed Instance without advanced data security.</t>
+  </si>
+  <si>
+    <t>Azure Defender for SQL should be enabled for unprotected SQL Managed Instances</t>
+  </si>
+  <si>
+    <t>5f0f936f-2f01-4bf5-b6be-d423792fa562</t>
+  </si>
+  <si>
+    <t>As outlined in the unified vulnerability assessment solution strategy blog (https://aka.ms/MDCUnifiedVAblog), we have made a strategic decision to unify all vulnerability assessment solutions in Defender for Cloud to use Defender vulnerability management. As part of this change, the built-in Qualys offering is now retired. See https://aka.ms/TransitionToMDVM4Containers for more information and transition guidelines.</t>
+  </si>
+  <si>
+    <t>[Deprecated]: Azure registry container images should have vulnerabilities resolved (powered by Qualys)</t>
+  </si>
+  <si>
+    <t>1b7aa243-30e4-4c9e-bca8-d0d3022b634a</t>
+  </si>
+  <si>
+    <t>Audit each SQL Managed Instance which doesn't have recurring vulnerability assessment scans enabled. Vulnerability assessment can discover, track, and help you remediate potential database vulnerabilities.</t>
+  </si>
+  <si>
+    <t>Vulnerability assessment should be enabled on SQL Managed Instance</t>
+  </si>
+  <si>
+    <t>ef2a8f2a-b3d9-49cd-a8a8-9a3aaaf647d9</t>
+  </si>
+  <si>
+    <t>Audit Azure SQL servers which do not have vulnerability assessment properly configured. Vulnerability assessment can discover, track, and help you remediate potential database vulnerabilities.</t>
+  </si>
+  <si>
+    <t>Vulnerability assessment should be enabled on your SQL servers</t>
+  </si>
+  <si>
+    <t>a7aca53f-2ed4-4466-a25e-0b45ade68efd</t>
+  </si>
+  <si>
+    <t>DDoS protection should be enabled for all virtual networks with a subnet that is part of an application gateway with a public IP.</t>
+  </si>
+  <si>
+    <t>Azure DDoS Protection should be enabled</t>
+  </si>
+  <si>
+    <t>0fc39691-5a3f-4e3e-94ee-2e6447309ad9</t>
+  </si>
+  <si>
+    <t>[Deprecated]: Azure running container images should have vulnerabilities resolved (powered by Qualys)</t>
+  </si>
+  <si>
+    <t>06a78e20-9358-41c9-923c-fb736d382a4d</t>
+  </si>
+  <si>
+    <t>This policy audits VMs that do not use managed disks</t>
+  </si>
+  <si>
+    <t>Audit VMs that do not use managed disks</t>
+  </si>
+  <si>
+    <t>f6ec09a3-78bf-4f8f-99dc-6c77182d0f99</t>
+  </si>
+  <si>
+    <t>Requires that prerequisites are deployed to the policy assignment scope. For details, visit https://aka.ms/gcpol. Machines are non-compliant if Linux machines that have accounts without passwords</t>
+  </si>
+  <si>
+    <t>Audit Linux machines that have accounts without passwords</t>
+  </si>
+  <si>
+    <t>1d84d5fb-01f6-4d12-ba4f-4a26081d403d</t>
+  </si>
+  <si>
+    <t>Use new Azure Resource Manager for your virtual machines to provide security enhancements such as: stronger access control (RBAC), better auditing, Azure Resource Manager based deployment and governance, access to managed identities, access to key vault for secrets, Azure AD-based authentication and support for tags and resource groups for easier security management</t>
+  </si>
+  <si>
+    <t>Virtual machines should be migrated to new Azure Resource Manager resources</t>
+  </si>
+  <si>
+    <t>ea53dbee-c6c9-4f0e-9f9e-de0039b78023</t>
+  </si>
+  <si>
+    <t>Requires that prerequisites are deployed to the policy assignment scope. For details, visit https://aka.ms/gcpol. Machines are non-compliant if Linux machines that allow remote connections from accounts without passwords</t>
+  </si>
+  <si>
+    <t>Audit Linux machines that allow remote connections from accounts without passwords</t>
+  </si>
+  <si>
+    <t>37e0d2fe-28a5-43d6-a273-67d37d1f5606</t>
+  </si>
+  <si>
+    <t>Use new Azure Resource Manager for your storage accounts to provide security enhancements such as: stronger access control (RBAC), better auditing, Azure Resource Manager based deployment and governance, access to managed identities, access to key vault for secrets, Azure AD-based authentication and support for tags and resource groups for easier security management</t>
+  </si>
+  <si>
+    <t>Storage accounts should be migrated to new Azure Resource Manager resources</t>
+  </si>
+  <si>
+    <t>da0f98fe-a24b-4ad5-af69-bd0400233661</t>
+  </si>
+  <si>
+    <t>Requires that prerequisites are deployed to the policy assignment scope. For details, visit https://aka.ms/gcpol. Machines are non-compliant if Windows machines that do not store passwords using reversible encryption</t>
+  </si>
+  <si>
+    <t>Audit Windows machines that do not store passwords using reversible encryption</t>
+  </si>
+  <si>
+    <t>c95c74d9-38fe-4f0d-af86-0c7d626a315c</t>
+  </si>
+  <si>
+    <t>Audit enabling of resource logs. This enables you to recreate activity trails to use for investigation purposes; when a security incident occurs or when your network is compromised</t>
+  </si>
+  <si>
+    <t>Resource logs in Data Lake Analytics should be enabled</t>
+  </si>
+  <si>
+    <t>057ef27e-665e-4328-8ea3-04b3122bd9fb</t>
+  </si>
+  <si>
+    <t>Resource logs in Azure Data Lake Store should be enabled</t>
+  </si>
+  <si>
+    <t>383856f8-de7f-44a2-81fc-e5135b5c2aa4</t>
+  </si>
+  <si>
+    <t>Resource logs in IoT Hub should be enabled</t>
+  </si>
+  <si>
+    <t>b6e2945c-0b7b-40f5-9233-7a5323b5cdc6</t>
+  </si>
+  <si>
+    <t>Network Watcher is a regional service that enables you to monitor and diagnose conditions at a network scenario level in, to, and from Azure. Scenario level monitoring enables you to diagnose problems at an end to end network level view. It is required to have a network watcher resource group to be created in every region where a virtual network is present. An alert is enabled if a network watcher resource group is not available in a particular region.</t>
+  </si>
+  <si>
+    <t>Network Watcher should be enabled</t>
+  </si>
+  <si>
+    <t>475aae12-b88a-4572-8b36-9b712b2b3a17</t>
+  </si>
+  <si>
+    <t>To monitor for security vulnerabilities and threats, Azure Security Center collects data from your Azure virtual machines. Data is collected by the Log Analytics agent, formerly known as the Microsoft Monitoring Agent (MMA), which reads various security-related configurations and event logs from the machine and copies the data to your Log Analytics workspace for analysis. We recommend enabling auto provisioning to automatically deploy the agent to all supported Azure VMs and any new ones that are created.</t>
+  </si>
+  <si>
+    <t>Auto provisioning of the Log Analytics agent should be enabled on your subscription</t>
+  </si>
+  <si>
+    <t>f9be5368-9bf5-4b84-9e0a-7850da98bb46</t>
+  </si>
+  <si>
+    <t>Resource logs in Azure Stream Analytics should be enabled</t>
+  </si>
+  <si>
+    <t>83a214f7-d01a-484b-91a9-ed54470c9a6a</t>
+  </si>
+  <si>
+    <t>Resource logs in Event Hub should be enabled</t>
+  </si>
+  <si>
+    <t>842c54e8-c2f9-4d79-ae8d-38d8b8019373</t>
+  </si>
+  <si>
+    <t>This policy audits Linux Azure Arc machines if the Log Analytics extension is not installed.</t>
+  </si>
+  <si>
+    <t>[Preview]: Log Analytics extension should be installed on your Linux Azure Arc machines</t>
+  </si>
+  <si>
+    <t>f8d36e2f-389b-4ee4-898d-21aeb69a0f45</t>
+  </si>
+  <si>
+    <t>Resource logs in Service Bus should be enabled</t>
+  </si>
+  <si>
+    <t>d69b1763-b96d-40b8-a2d9-ca31e9fd0d3e</t>
+  </si>
+  <si>
+    <t>This policy audits Windows Azure Arc machines if the Log Analytics extension is not installed.</t>
+  </si>
+  <si>
+    <t>[Preview]: Log Analytics extension should be installed on your Windows Azure Arc machines</t>
+  </si>
+  <si>
+    <t>a3a6ea0c-e018-4933-9ef0-5aaa1501449b</t>
+  </si>
+  <si>
+    <t>Security Center collects data from your Azure virtual machines (VMs) to monitor for security vulnerabilities and threats.</t>
+  </si>
+  <si>
+    <t>Log Analytics agent should be installed on your virtual machine scale sets for Azure Security Center monitoring</t>
+  </si>
+  <si>
+    <t>d26f7642-7545-4e18-9b75-8c9bbdee3a9a</t>
+  </si>
+  <si>
+    <t>The Guest Configuration extension requires a system assigned managed identity. Azure virtual machines in the scope of this policy will be non-compliant when they have the Guest Configuration extension installed but do not have a system assigned managed identity. Learn more at https://aka.ms/gcpol</t>
+  </si>
+  <si>
+    <t>Virtual machines' Guest Configuration extension should be deployed with system-assigned managed identity</t>
+  </si>
+  <si>
+    <t>a4fe33eb-e377-4efb-ab31-0784311bc499</t>
+  </si>
+  <si>
+    <t>This policy audits any Windows/Linux virtual machines (VMs) if the Log Analytics agent is not installed which Security Center uses to monitor for security vulnerabilities and threats</t>
+  </si>
+  <si>
+    <t>Log Analytics agent should be installed on your virtual machine for Azure Security Center monitoring</t>
+  </si>
+  <si>
+    <t>ae89ebca-1c92-4898-ac2c-9f63decb045c</t>
+  </si>
+  <si>
+    <t>To ensure secure configurations of in-guest settings of your machine, install the Guest Configuration extension. In-guest settings that the extension monitors include the configuration of the operating system, application configuration or presence, and environment settings. Once installed, in-guest policies will be available such as 'Windows Exploit guard should be enabled'. Learn more at https://aka.ms/gcpol.</t>
+  </si>
+  <si>
+    <t>Guest Configuration extension should be installed on your machines</t>
+  </si>
+  <si>
+    <t>cf820ca0-f99e-4f3e-84fb-66e913812d21</t>
+  </si>
+  <si>
+    <t>Audit enabling of resource logs. This enables you to recreate activity trails to use for investigation purposes when a security incident occurs or when your network is compromised</t>
+  </si>
+  <si>
+    <t>Resource logs in Key Vault should be enabled</t>
+  </si>
+  <si>
+    <t>b4330a05-a843-4bc8-bf9a-cacce50c67f4</t>
+  </si>
+  <si>
+    <t>Resource logs in Search services should be enabled</t>
+  </si>
+  <si>
+    <t>428256e6-1fac-4f48-a757-df34c2b3336d</t>
+  </si>
+  <si>
+    <t>Resource logs in Batch accounts should be enabled</t>
+  </si>
+  <si>
+    <t>04c4380f-3fae-46e8-96c9-30193528f602</t>
+  </si>
+  <si>
+    <t>Security Center uses the Microsoft Dependency agent to collect network traffic data from your Azure virtual machines to enable advanced network protection features such as traffic visualization on the network map, network hardening recommendations and specific network threats.</t>
+  </si>
+  <si>
+    <t>[Preview]: Network traffic data collection agent should be installed on Linux virtual machines</t>
+  </si>
+  <si>
+    <t>34f95f76-5386-4de7-b824-0d8478470c9d</t>
+  </si>
+  <si>
+    <t>Resource logs in Logic Apps should be enabled</t>
+  </si>
+  <si>
+    <t>7f89b1eb-583c-429a-8828-af049802c1d9</t>
+  </si>
+  <si>
+    <t>Audit diagnostic setting for selected resource types. Be sure to select only resource types which support diagnostics settings.</t>
+  </si>
+  <si>
+    <t>Audit diagnostic setting for selected resource types</t>
+  </si>
+  <si>
+    <t>32133ab0-ee4b-4b44-98d6-042180979d50</t>
+  </si>
+  <si>
+    <t>Reports virtual machines as non-compliant if the virtual machine image is not in the list defined and the extension is not installed.</t>
+  </si>
+  <si>
+    <t>[Preview]: Log Analytics Extension should be enabled for listed virtual machine images</t>
+  </si>
+  <si>
+    <t>a6fb4358-5bf4-4ad7-ba82-2cd2f41ce5e9</t>
+  </si>
+  <si>
+    <t>Auditing on your SQL Server should be enabled to track database activities across all databases on the server and save them in an audit log.</t>
+  </si>
+  <si>
+    <t>Auditing on SQL server should be enabled</t>
+  </si>
+  <si>
+    <t>e2dd799a-a932-4e9d-ac17-d473bc3c6c10</t>
+  </si>
+  <si>
+    <t>Reports virtual machine scale sets as non-compliant if the virtual machine image is not in the list defined and the agent is not installed. The list of OS images is updated over time as support is updated.</t>
+  </si>
+  <si>
+    <t>Dependency agent should be enabled in virtual machine scale sets for listed virtual machine images</t>
+  </si>
+  <si>
+    <t>5c3bc7b8-a64c-4e08-a9cd-7ff0f31e1138</t>
+  </si>
+  <si>
+    <t>Reports virtual machine scale sets as non-compliant if the virtual machine image is not in the list defined and the extension is not installed.</t>
+  </si>
+  <si>
+    <t>Log Analytics extension should be enabled in virtual machine scale sets for listed virtual machine images</t>
+  </si>
+  <si>
+    <t>11ac78e3-31bc-4f0c-8434-37ab963cea07</t>
+  </si>
+  <si>
+    <t>Reports virtual machines as non-compliant if the virtual machine image is not in the list defined and the agent is not installed. The list of OS images is updated over time as support is updated.</t>
+  </si>
+  <si>
+    <t>Dependency agent should be enabled for listed virtual machine images</t>
+  </si>
+  <si>
+    <t>2f2ee1de-44aa-4762-b6bd-0893fc3f306d</t>
+  </si>
+  <si>
+    <t>[Preview]: Network traffic data collection agent should be installed on Windows virtual machines</t>
+  </si>
+  <si>
+    <t>e3e008c3-56b9-4133-8fd7-d3347377402a</t>
+  </si>
+  <si>
+    <t>Multi-Factor Authentication (MFA) should be enabled for all subscription accounts with owner permissions to prevent a breach of accounts or resources.</t>
+  </si>
+  <si>
+    <t>Accounts with owner permissions on Azure resources should be MFA enabled</t>
+  </si>
+  <si>
+    <t>931e118d-50a1-4457-a5e4-78550e086c52</t>
+  </si>
+  <si>
+    <t>Multi-Factor Authentication (MFA) should be enabled for all subscription accounts with write privileges to prevent a breach of accounts or resources.</t>
+  </si>
+  <si>
+    <t>Accounts with write permissions on Azure resources should be MFA enabled</t>
+  </si>
+  <si>
+    <t>81b3ccb4-e6e8-4e4a-8d05-5df25cd29fd4</t>
+  </si>
+  <si>
+    <t>Multi-Factor Authentication (MFA) should be enabled for all subscription accounts with read privileges to prevent a breach of accounts or resources.</t>
+  </si>
+  <si>
+    <t>Accounts with read permissions on Azure resources should be MFA enabled</t>
+  </si>
+  <si>
+    <t>45e05259-1eb5-4f70-9574-baf73e9d219b</t>
+  </si>
+  <si>
+    <t>Azure Private Link lets you connect your virtual network to Azure services without a public IP address at the source or destination. The Private Link platform handles the connectivity between the consumer and services over the Azure backbone network. By mapping private endpoints to Azure Machine Learning workspaces, data leakage risks are reduced. Learn more about private links at: https://docs.microsoft.com/azure/machine-learning/how-to-configure-private-link.</t>
+  </si>
+  <si>
+    <t>Azure Machine Learning workspaces should use private link</t>
+  </si>
+  <si>
+    <t>2393d2cf-a342-44cd-a2e2-fe0188fd1234</t>
+  </si>
+  <si>
+    <t>Azure Private Link lets you connect your virtual network to Azure services without a public IP address at the source or destination. The private link platform handles the connectivity between the consumer and services over the Azure backbone network. By mapping private endpoints to your Azure SignalR Service resource instead of the entire service, you'll reduce your data leakage risks. Learn more about private links at: https://aka.ms/asrs/privatelink.</t>
+  </si>
+  <si>
+    <t>Azure SignalR Service should use private link</t>
+  </si>
+  <si>
+    <t>a6abeaec-4d90-4a02-805f-6b26c4d3fbe9</t>
+  </si>
+  <si>
+    <t>Azure Private Link lets you connect your virtual networks to Azure services without a public IP address at the source or destination. The Private Link platform handles the connectivity between the consumer and services over the Azure backbone network. By mapping private endpoints to key vault, you can reduce data leakage risks. Learn more about private links at: https://aka.ms/akvprivatelink.</t>
+  </si>
+  <si>
+    <t>Azure Key Vaults should use private link</t>
+  </si>
+  <si>
+    <t>eb907f70-7514-460d-92b3-a5ae93b4f917</t>
+  </si>
+  <si>
+    <t>Azure Private Link lets you connect your virtual networks to Azure services without a public IP address at the source or destination. The private link platform handles the connectivity between the consumer and services over the Azure backbone network. By mapping private endpoints to your Azure Web PubSub Service, you can reduce data leakage risks. Learn more about private links at: https://aka.ms/awps/privatelink.</t>
+  </si>
+  <si>
+    <t>Azure Web PubSub Service should use private link</t>
+  </si>
+  <si>
+    <t>0cfea604-3201-4e14-88fc-fae4c427a6c5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deprecated accounts with owner permissions should be removed from your subscription.  Deprecated accounts are accounts that have been blocked from signing in.</t>
+  </si>
+  <si>
+    <t>Blocked accounts with owner permissions on Azure resources should be removed</t>
+  </si>
+  <si>
+    <t>e9ac8f8e-ce22-4355-8f04-99b911d6be52</t>
+  </si>
+  <si>
+    <t>External accounts with read privileges should be removed from your subscription in order to prevent unmonitored access.</t>
+  </si>
+  <si>
+    <t>Guest accounts with read permissions on Azure resources should be removed</t>
+  </si>
+  <si>
+    <t>94e1c2ac-cbbe-4cac-a2b5-389c812dee87</t>
+  </si>
+  <si>
+    <t>External accounts with write privileges should be removed from your subscription in order to prevent unmonitored access.</t>
+  </si>
+  <si>
+    <t>Guest accounts with write permissions on Azure resources should be removed</t>
+  </si>
+  <si>
+    <t>339353f6-2387-4a45-abe4-7f529d121046</t>
+  </si>
+  <si>
+    <t>External accounts with owner permissions should be removed from your subscription in order to prevent unmonitored access.</t>
+  </si>
+  <si>
+    <t>Guest accounts with owner permissions on Azure resources should be removed</t>
+  </si>
+  <si>
+    <t>8d7e1fde-fe26-4b5f-8108-f8e432cbc2be</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deprecated accounts should be removed from your subscriptions.  Deprecated accounts are accounts that have been blocked from signing in.</t>
+  </si>
+  <si>
+    <t>Blocked accounts with read and write permissions on Azure resources should be removed</t>
+  </si>
+  <si>
+    <t>1c30f9cd-b84c-49cc-aa2c-9288447cc3b3</t>
+  </si>
+  <si>
+    <t>Enable virtual TPM device on supported virtual machines to facilitate Measured Boot and other OS security features that require a TPM. Once enabled, vTPM can be used to attest boot integrity. This assessment only applies to trusted launch enabled virtual machines.</t>
+  </si>
+  <si>
+    <t>[Preview]: vTPM should be enabled on supported virtual machines</t>
+  </si>
+  <si>
+    <t>97566dd7-78ae-4997-8b36-1c7bfe0d8121</t>
+  </si>
+  <si>
+    <t>Enable Secure Boot on supported Windows virtual machines to mitigate against malicious and unauthorized changes to the boot chain. Once enabled, only trusted bootloaders, kernel and kernel drivers will be allowed to run. This assessment applies to Trusted Launch and Confidential Windows virtual machines.</t>
+  </si>
+  <si>
+    <t>[Preview]: Secure Boot should be enabled on supported Windows virtual machines</t>
+  </si>
+  <si>
+    <t>672fe5a1-2fcd-42d7-b85d-902b6e28c6ff</t>
+  </si>
+  <si>
+    <t>Install Guest Attestation extension on supported Linux virtual machines to allow Azure Security Center to proactively attest and monitor the boot integrity. Once installed, boot integrity will be attested via Remote Attestation. This assessment applies to Trusted Launch and Confidential Linux virtual machines.</t>
+  </si>
+  <si>
+    <t>[Preview]: Guest Attestation extension should be installed on supported Linux virtual machines</t>
+  </si>
+  <si>
+    <t>a21f8c92-9e22-4f09-b759-50500d1d2dda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Install Guest Attestation extension on supported Linux virtual machines scale sets to allow Azure Security Center to proactively attest and monitor the boot integrity. Once installed, boot integrity will be attested via Remote Attestation.  This assessment applies to Trusted Launch and Confidential Linux virtual machine scale sets.</t>
+  </si>
+  <si>
+    <t>[Preview]: Guest Attestation extension should be installed on supported Linux virtual machines scale sets</t>
+  </si>
+  <si>
+    <t>1cb4d9c2-f88f-4069-bee0-dba239a57b09</t>
+  </si>
+  <si>
+    <t>Install Guest Attestation extension on supported virtual machines to allow Azure Security Center to proactively attest and monitor the boot integrity. Once installed, boot integrity will be attested via Remote Attestation. This assessment applies to Trusted Launch and Confidential Windows virtual machines.</t>
+  </si>
+  <si>
+    <t>[Preview]: Guest Attestation extension should be installed on supported Windows virtual machines</t>
+  </si>
+  <si>
+    <t>f655e522-adff-494d-95c2-52d4f6d56a42</t>
+  </si>
+  <si>
+    <t>Install Guest Attestation extension on supported virtual machines scale sets to allow Azure Security Center to proactively attest and monitor the boot integrity. Once installed, boot integrity will be attested via Remote Attestation. This assessment applies to Trusted Launch and Confidential Windows virtual machine scale sets.</t>
+  </si>
+  <si>
+    <t>[Preview]: Guest Attestation extension should be installed on supported Windows virtual machines scale sets</t>
+  </si>
+  <si>
+    <t>245fc9df-fa96-4414-9a0b-3738c2f7341c</t>
+  </si>
+  <si>
+    <t>Azure Kubernetes Service's resource logs can help recreate activity trails when investigating security incidents. Enable it to make sure the logs will exist when needed</t>
+  </si>
+  <si>
+    <t>Resource logs in Azure Kubernetes Service should be enabled</t>
+  </si>
+  <si>
+    <t>438c38d2-3772-465a-a9cc-7a6666a275ce</t>
+  </si>
+  <si>
+    <t>Disabling public network access improves security by ensuring that the Machine Learning Workspaces aren't exposed on the public internet. You can control exposure of your workspaces by creating private endpoints instead. Learn more at: https://learn.microsoft.com/azure/machine-learning/how-to-configure-private-link?view=azureml-api-2&amp;tabs=azure-portal.</t>
+  </si>
+  <si>
+    <t>Azure Machine Learning Workspaces should disable public network access</t>
+  </si>
+  <si>
+    <t>7804b5c7-01dc-4723-969b-ae300cc07ff1</t>
+  </si>
+  <si>
+    <t>Azure Virtual Networks provide enhanced security and isolation for your Azure Machine Learning Compute Clusters and Instances, as well as subnets, access control policies, and other features to further restrict access. When a compute is configured with a virtual network, it is not publicly addressable and can only be accessed from virtual machines and applications within the virtual network.</t>
+  </si>
+  <si>
+    <t>Azure Machine Learning Computes should be in a virtual network</t>
+  </si>
+  <si>
+    <t>0e7849de-b939-4c50-ab48-fc6b0f5eeba2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disabling public network access improves security by ensuring that the resource isn't exposed on the public internet. You can control exposure of your resources by creating private endpoints instead. Learn more at: https://learn.microsoft.com/azure/databricks/administration-guide/cloud-configurations/azure/private-link. </t>
+  </si>
+  <si>
+    <t>Azure Databricks Workspaces should disable public network access</t>
+  </si>
+  <si>
+    <t>51c1490f-3319-459c-bbbc-7f391bbed753</t>
+  </si>
+  <si>
+    <t>Disabling public IP of clusters in Azure Databricks Workspaces improves security by ensuring that the clusters aren't exposed on the public internet. Learn more at: https://learn.microsoft.com/azure/databricks/security/secure-cluster-connectivity.</t>
+  </si>
+  <si>
+    <t>Azure Databricks Clusters should disable public IP</t>
+  </si>
+  <si>
+    <t>258823f2-4595-4b52-b333-cc96192710d8</t>
+  </si>
+  <si>
+    <t>Azure Private Link lets you connect your virtual networks to Azure services without a public IP address at the source or destination. The Private Link platform handles the connectivity between the consumer and services over the Azure backbone network. By mapping private endpoints to Azure Databricks workspaces, you can reduce data leakage risks. Learn more about private links at: https://aka.ms/adbpe.</t>
+  </si>
+  <si>
+    <t>Azure Databricks Workspaces should use private link</t>
+  </si>
+  <si>
+    <t>0ec47710-77ff-4a3d-9181-6aa50af424d0</t>
+  </si>
+  <si>
+    <t>Azure Database for MariaDB allows you to choose the redundancy option for your database server. It can be set to a geo-redundant backup storage in which the data is not only stored within the region in which your server is hosted, but is also replicated to a paired region to provide recovery option in case of a region failure. Configuring geo-redundant storage for backup is only allowed during server create.</t>
+  </si>
+  <si>
+    <t>Geo-redundant backup should be enabled for Azure Database for MariaDB</t>
+  </si>
+  <si>
+    <t>48af4db5-9b8b-401c-8e74-076be876a430</t>
+  </si>
+  <si>
+    <t>Azure Database for PostgreSQL allows you to choose the redundancy option for your database server. It can be set to a geo-redundant backup storage in which the data is not only stored within the region in which your server is hosted, but is also replicated to a paired region to provide recovery option in case of a region failure. Configuring geo-redundant storage for backup is only allowed during server create.</t>
+  </si>
+  <si>
+    <t>Geo-redundant backup should be enabled for Azure Database for PostgreSQL</t>
+  </si>
+  <si>
+    <t>82339799-d096-41ae-8538-b108becf0970</t>
+  </si>
+  <si>
+    <t>Azure Database for MySQL allows you to choose the redundancy option for your database server. It can be set to a geo-redundant backup storage in which the data is not only stored within the region in which your server is hosted, but is also replicated to a paired region to provide recovery option in case of a region failure. Configuring geo-redundant storage for backup is only allowed during server create.</t>
+  </si>
+  <si>
+    <t>Geo-redundant backup should be enabled for Azure Database for MySQL</t>
+  </si>
+  <si>
+    <t>0a15ec92-a229-4763-bb14-0ea34a568f8d</t>
+  </si>
+  <si>
+    <t>Azure Policy Add-on for Kubernetes service (AKS) extends Gatekeeper v3, an admission controller webhook for Open Policy Agent (OPA), to apply at-scale enforcements and safeguards on your clusters in a centralized, consistent manner.</t>
+  </si>
+  <si>
+    <t>Azure Policy Add-on for Kubernetes service (AKS) should be installed and enabled on your clusters</t>
+  </si>
+  <si>
+    <t>febd0533-8e55-448f-b837-bd0e06f16469</t>
+  </si>
+  <si>
+    <t>Use images from trusted registries to reduce the Kubernetes cluster's exposure risk to unknown vulnerabilities, security issues and malicious images. For more information, see https://aka.ms/kubepolicydoc.</t>
+  </si>
+  <si>
+    <t>Kubernetes cluster containers should only use allowed images</t>
+  </si>
+  <si>
+    <t>95edb821-ddaf-4404-9732-666045e056b4</t>
+  </si>
+  <si>
+    <t>Do not allow privileged containers creation in a Kubernetes cluster. This recommendation is part of CIS 5.2.1 which is intended to improve the security of your Kubernetes environments. This policy is generally available for Kubernetes Service (AKS), and preview for Azure Arc enabled Kubernetes. For more information, see https://aka.ms/kubepolicydoc.</t>
+  </si>
+  <si>
+    <t>Kubernetes cluster should not allow privileged containers</t>
+  </si>
+  <si>
+    <t>233a2a17-77ca-4fb1-9b6b-69223d272a44</t>
+  </si>
+  <si>
+    <t>Restrict services to listen only on allowed ports to secure access to the Kubernetes cluster. This policy is generally available for Kubernetes Service (AKS), and preview for Azure Arc enabled Kubernetes. For more information, see https://aka.ms/kubepolicydoc.</t>
+  </si>
+  <si>
+    <t>Kubernetes cluster services should listen only on allowed ports</t>
+  </si>
+  <si>
+    <t>e345eecc-fa47-480f-9e88-67dcc122b164</t>
+  </si>
+  <si>
+    <t>Enforce container CPU and memory resource limits to prevent resource exhaustion attacks in a Kubernetes cluster. This policy is generally available for Kubernetes Service (AKS), and preview for Azure Arc enabled Kubernetes. For more information, see https://aka.ms/kubepolicydoc.</t>
+  </si>
+  <si>
+    <t>Kubernetes cluster containers CPU and memory resource limits should not exceed the specified limits</t>
+  </si>
+  <si>
+    <t>f06ddb64-5fa3-4b77-b166-acb36f7f6042</t>
+  </si>
+  <si>
+    <t>Control the user, primary group, supplemental group and file system group IDs that pods and containers can use to run in a Kubernetes Cluster. This policy is generally available for Kubernetes Service (AKS), and preview for Azure Arc enabled Kubernetes. For more information, see https://aka.ms/kubepolicydoc.</t>
+  </si>
+  <si>
+    <t>Kubernetes cluster pods and containers should only run with approved user and group IDs</t>
+  </si>
+  <si>
+    <t>1c6e92c9-99f0-4e55-9cf2-0c234dc48f99</t>
+  </si>
+  <si>
+    <t>Do not allow containers to run with privilege escalation to root in a Kubernetes cluster. This recommendation is part of CIS 5.2.5 which is intended to improve the security of your Kubernetes environments. This policy is generally available for Kubernetes Service (AKS), and preview for Azure Arc enabled Kubernetes. For more information, see https://aka.ms/kubepolicydoc.</t>
+  </si>
+  <si>
+    <t>Kubernetes clusters should not allow container privilege escalation</t>
+  </si>
+  <si>
+    <t>47a1ee2f-2a2a-4576-bf2a-e0e36709c2b8</t>
+  </si>
+  <si>
+    <t>Block pod containers from sharing the host process ID namespace and host IPC namespace in a Kubernetes cluster. This recommendation is part of CIS 5.2.2 and CIS 5.2.3 which are intended to improve the security of your Kubernetes environments. This policy is generally available for Kubernetes Service (AKS), and preview for Azure Arc enabled Kubernetes. For more information, see https://aka.ms/kubepolicydoc.</t>
+  </si>
+  <si>
+    <t>Kubernetes cluster containers should not share host process ID or host IPC namespace</t>
+  </si>
+  <si>
+    <t>df49d893-a74c-421d-bc95-c663042e5b80</t>
+  </si>
+  <si>
+    <t>Run containers with a read only root file system to protect from changes at run-time with malicious binaries being added to PATH in a Kubernetes cluster. This policy is generally available for Kubernetes Service (AKS), and preview for Azure Arc enabled Kubernetes. For more information, see https://aka.ms/kubepolicydoc.</t>
+  </si>
+  <si>
+    <t>Kubernetes cluster containers should run with a read only root file system</t>
+  </si>
+  <si>
+    <t>c26596ff-4d70-4e6a-9a30-c2506bd2f80c</t>
+  </si>
+  <si>
+    <t>Restrict the capabilities to reduce the attack surface of containers in a Kubernetes cluster. This recommendation is part of CIS 5.2.8 and CIS 5.2.9 which are intended to improve the security of your Kubernetes environments. This policy is generally available for Kubernetes Service (AKS), and preview for Azure Arc enabled Kubernetes. For more information, see https://aka.ms/kubepolicydoc.</t>
+  </si>
+  <si>
+    <t>Kubernetes cluster containers should only use allowed capabilities</t>
+  </si>
+  <si>
+    <t>511f5417-5d12-434d-ab2e-816901e72a5e</t>
+  </si>
+  <si>
+    <t>Containers should only use allowed AppArmor profiles in a Kubernetes cluster. This policy is generally available for Kubernetes Service (AKS), and preview for Azure Arc enabled Kubernetes. For more information, see https://aka.ms/kubepolicydoc.</t>
+  </si>
+  <si>
+    <t>Kubernetes cluster containers should only use allowed AppArmor profiles</t>
+  </si>
+  <si>
+    <t>82985f06-dc18-4a48-bc1c-b9f4f0098cfe</t>
+  </si>
+  <si>
+    <t>Restrict pod access to the host network and the allowable host port range in a Kubernetes cluster. This recommendation is part of CIS 5.2.4 which is intended to improve the security of your Kubernetes environments. This policy is generally available for Kubernetes Service (AKS), and preview for Azure Arc enabled Kubernetes. For more information, see https://aka.ms/kubepolicydoc.</t>
+  </si>
+  <si>
+    <t>Kubernetes cluster pods should only use approved host network and port range</t>
+  </si>
+  <si>
+    <t>098fc59e-46c7-4d99-9b16-64990e543d75</t>
+  </si>
+  <si>
+    <t>Limit pod HostPath volume mounts to the allowed host paths in a Kubernetes Cluster. This policy is generally available for Kubernetes Service (AKS), and Azure Arc enabled Kubernetes. For more information, see https://aka.ms/kubepolicydoc.</t>
+  </si>
+  <si>
+    <t>Kubernetes cluster pod hostPath volumes should only use allowed host paths</t>
+  </si>
+  <si>
+    <t>9f061a12-e40d-4183-a00e-171812443373</t>
+  </si>
+  <si>
+    <t>Prevent usage of the default namespace in Kubernetes clusters to protect against unauthorized access for ConfigMap, Pod, Secret, Service, and ServiceAccount resource types. For more information, see https://aka.ms/kubepolicydoc.</t>
+  </si>
+  <si>
+    <t>Kubernetes clusters should not use the default namespace</t>
+  </si>
+  <si>
+    <t>423dd1ba-798e-40e4-9c4d-b6902674b423</t>
+  </si>
+  <si>
+    <t>Disable automounting API credentials to prevent a potentially compromised Pod resource to run API commands against Kubernetes clusters. For more information, see https://aka.ms/kubepolicydoc.</t>
+  </si>
+  <si>
+    <t>Kubernetes clusters should disable automounting API credentials</t>
+  </si>
+  <si>
+    <t>d2e7ea85-6b44-4317-a0be-1b951587f626</t>
+  </si>
+  <si>
+    <t>To reduce the attack surface of your containers, restrict CAP_SYS_ADMIN Linux capabilities. For more information, see https://aka.ms/kubepolicydoc.</t>
+  </si>
+  <si>
+    <t>Kubernetes clusters should not grant CAP_SYS_ADMIN security capabilities</t>
+  </si>
+  <si>
+    <t>ac4a19c2-fa67-49b4-8ae5-0b2e78c49457</t>
+  </si>
+  <si>
+    <t>To provide granular filtering on the actions that users can perform, use Azure Role-Based Access Control (RBAC) to manage permissions in Kubernetes Service Clusters and configure relevant authorization policies.</t>
+  </si>
+  <si>
+    <t>Azure Role-Based Access Control (RBAC) should be used on Kubernetes Services</t>
+  </si>
+  <si>
+    <t>9c25c9e4-ee12-4882-afd2-11fb9d87893f</t>
+  </si>
+  <si>
+    <t>Azure Virtual Networks provide enhanced security and isolation for your Azure Databricks Workspaces, as well as subnets, access control policies, and other features to further restrict access. Learn more at: https://docs.microsoft.com/azure/databricks/administration-guide/cloud-configurations/azure/vnet-inject.</t>
+  </si>
+  <si>
+    <t>Azure Databricks Workspaces should be in a virtual network</t>
+  </si>
+  <si>
+    <t>0e60b895-3786-45da-8377-9c6b4b6ac5f9</t>
+  </si>
+  <si>
+    <t>Remote debugging requires inbound ports to be opened on Function apps. Remote debugging should be turned off.</t>
+  </si>
+  <si>
+    <t>Function apps should have remote debugging turned off</t>
+  </si>
+  <si>
+    <t>cb510bfd-1cba-4d9f-a230-cb0976f4bb71</t>
+  </si>
+  <si>
+    <t>Remote debugging requires inbound ports to be opened on an App Service app. Remote debugging should be turned off.</t>
+  </si>
+  <si>
+    <t>App Service apps should have remote debugging turned off</t>
+  </si>
+  <si>
+    <t>0820b7b9-23aa-4725-a1ce-ae4558f718e5</t>
+  </si>
+  <si>
+    <t>Cross-Origin Resource Sharing (CORS) should not allow all domains to access your Function app. Allow only required domains to interact with your Function app.</t>
+  </si>
+  <si>
+    <t>Function apps should not have CORS configured to allow every resource to access your apps</t>
+  </si>
+  <si>
+    <t>5744710e-cc2f-4ee8-8809-3b11e89f4bc9</t>
+  </si>
+  <si>
+    <t>Cross-Origin Resource Sharing (CORS) should not allow all domains to access your app. Allow only required domains to interact with your app.</t>
+  </si>
+  <si>
+    <t>App Service apps should not have CORS configured to allow every resource to access your apps</t>
+  </si>
+  <si>
+    <t>4f4f78b8-e367-4b10-a341-d9a4ad5cf1c7</t>
+  </si>
+  <si>
+    <t>To ensure the relevant people in your organization are notified when there is a potential security breach in one of your subscriptions, set a security contact to receive email notifications from Security Center.</t>
+  </si>
+  <si>
+    <t>Subscriptions should have a contact email address for security issues</t>
+  </si>
+  <si>
+    <t>6e2593d9-add6-4083-9c9b-4b7d2188c899</t>
+  </si>
+  <si>
+    <t>To ensure the relevant people in your organization are notified when there is a potential security breach in one of your subscriptions, enable email notifications for high severity alerts in Security Center.</t>
+  </si>
+  <si>
+    <t>Email notification for high severity alerts should be enabled</t>
+  </si>
+  <si>
+    <t>0b15565f-aa9e-48ba-8619-45960f2c314d</t>
+  </si>
+  <si>
+    <t>To ensure your subscription owners are notified when there is a potential security breach in their subscription, set email notifications to subscription owners for high severity alerts in Security Center.</t>
+  </si>
+  <si>
+    <t>Email notification to subscription owner for high severity alerts should be enabled</t>
+  </si>
+  <si>
+    <t>91a78b24-f231-4a8a-8da9-02c35b2b6510</t>
+  </si>
+  <si>
+    <t>Audit enabling of resource logs on the app. This enables you to recreate activity trails for investigation purposes if a security incident occurs or your network is compromised.</t>
+  </si>
+  <si>
+    <t>App Service apps should have resource logs enabled</t>
+  </si>
+  <si>
+    <t>afe0c3be-ba3b-4544-ba52-0c99672a8ad6</t>
+  </si>
+  <si>
+    <t>Resource logs enable recreating activity trails to use for investigation purposes when a security incident occurs or when your network is compromised.</t>
+  </si>
+  <si>
+    <t>Resource logs in Azure Machine Learning Workspaces should be enabled</t>
+  </si>
+  <si>
+    <t>138ff14d-b687-4faa-a81c-898c91a87fa2</t>
+  </si>
+  <si>
+    <t>Resource logs in Azure Databricks Workspaces should be enabled</t>
+  </si>
+  <si>
+    <t>89099bee-89e0-4b26-a5f4-165451757743</t>
+  </si>
+  <si>
+    <t>For incident investigation purposes, we recommend setting the data retention for your SQL Server' auditing to storage account destination to at least 90 days. Confirm that you are meeting the necessary retention rules for the regions in which you are operating. This is sometimes required for compliance with regulatory standards.</t>
+  </si>
+  <si>
+    <t>SQL servers with auditing to storage account destination should be configured with 90 days retention or higher</t>
+  </si>
+  <si>
+    <t>e96a9a5f-07ca-471b-9bc5-6a0f33cbd68f</t>
+  </si>
+  <si>
+    <t>Disabling local authentication methods improves security by ensuring that Machine Learning Computes require Azure Active Directory identities exclusively for authentication. Learn more at: https://aka.ms/azure-ml-aad-policy.</t>
+  </si>
+  <si>
+    <t>Azure Machine Learning Computes should have local authentication methods disabled</t>
+  </si>
+  <si>
+    <t>f110a506-2dcb-422e-bcea-d533fc8c35e2</t>
+  </si>
+  <si>
+    <t>Ensure Azure Machine Learning compute instances run on the latest available operating system. Security is improved and vulnerabilities reduced by running with the latest security patches. For more information, visit https://aka.ms/azureml-ci-updates/.</t>
+  </si>
+  <si>
+    <t>Azure Machine Learning compute instances should be recreated to get the latest software updates</t>
+  </si>
+  <si>
+    <t>19dd1db6-f442-49cf-a838-b0786b4401ef</t>
+  </si>
+  <si>
+    <t>Client certificates allow for the app to request a certificate for incoming requests. Only clients that have a valid certificate will be able to reach the app. This policy applies to apps with Http version set to 1.1.</t>
+  </si>
+  <si>
+    <t>App Service apps should have Client Certificates (Incoming client certificates) enabled</t>
+  </si>
+  <si>
+    <t>797b37f7-06b8-444c-b1ad-fc62867f335a</t>
+  </si>
+  <si>
+    <t>Disabling public network access improves security by ensuring that your CosmosDB account isn't exposed on the public internet. Creating private endpoints can limit exposure of your CosmosDB account. Learn more at: https://docs.microsoft.com/azure/cosmos-db/how-to-configure-private-endpoints#blocking-public-network-access-during-account-creation.</t>
+  </si>
+  <si>
+    <t>Azure Cosmos DB should disable public network access</t>
+  </si>
+  <si>
+    <t>9dfea752-dd46-4766-aed1-c355fa93fb91</t>
+  </si>
+  <si>
+    <t>Disabling public network access (public endpoint) on Azure SQL Managed Instances improves security by ensuring that they can only be accessed from inside their virtual networks or via Private Endpoints. To learn more about public network access, visit https://aka.ms/mi-public-endpoint.</t>
+  </si>
+  <si>
+    <t>Azure SQL Managed Instances should disable public network access</t>
+  </si>
+  <si>
+    <t>32e6bbec-16b6-44c2-be37-c5b672d103cf</t>
+  </si>
+  <si>
+    <t>Setting TLS version to 1.2 or newer improves security by ensuring your Azure SQL Database can only be accessed from clients using TLS 1.2 or newer. Using versions of TLS less than 1.2 is not recommended since they have well documented security vulnerabilities.</t>
+  </si>
+  <si>
+    <t>Azure SQL Database should be running TLS version 1.2 or newer</t>
+  </si>
+  <si>
+    <t>21a6bc25-125e-4d13-b82d-2e19b7208ab7</t>
+  </si>
+  <si>
+    <t>Disabling local authentication methods improves security by ensuring that VPN Gateways use only Azure Active Directory identities for authentication. Learn more about Azure AD authentication at https://docs.microsoft.com/azure/vpn-gateway/openvpn-azure-ad-tenant</t>
+  </si>
+  <si>
+    <t>VPN gateways should use only Azure Active Directory (Azure AD) authentication for point-to-site users</t>
+  </si>
+  <si>
+    <t>8c6a50c6-9ffd-4ae7-986f-5fa6111f9a54</t>
+  </si>
+  <si>
+    <t>Audit requirement of Azure Active Directory (Azure AD) to authorize requests for your storage account. By default, requests can be authorized with either Azure Active Directory credentials, or by using the account access key for Shared Key authorization. Of these two types of authorization, Azure AD provides superior security and ease of use over Shared Key, and is recommended by Microsoft.</t>
+  </si>
+  <si>
+    <t>Storage accounts should prevent shared key access</t>
+  </si>
+  <si>
+    <t>8a04f872-51e9-4313-97fb-fc1c35430fd8</t>
+  </si>
+  <si>
+    <t>Enable Resource logs for Azure Front Door (plus WAF) and stream to a Log Analytics workspace. Get detailed visibility into inbound web traffic and actions taken to mitigate attacks.</t>
+  </si>
+  <si>
+    <t>Azure Front Door should have Resource logs enabled</t>
+  </si>
+  <si>
+    <t>cd906338-3453-47ba-9334-2d654bf845af</t>
+  </si>
+  <si>
+    <t>Enable Resource logs for Azure Front Door Standard or Premium (plus WAF) and stream to a Log Analytics workspace. Get detailed visibility into inbound web traffic and actions taken to mitigate attacks.</t>
+  </si>
+  <si>
+    <t>Azure Front Door Standard or Premium (Plus WAF) should have resource logs enabled</t>
+  </si>
+  <si>
+    <t>dfc212af-17ea-423a-9dcb-91e2cb2caa6b</t>
+  </si>
+  <si>
+    <t>Azure Front Door Premium supports Azure managed WAF rules and private link to supported Azure origins.</t>
+  </si>
+  <si>
+    <t>Azure Front Door profiles should use Premium tier that supports managed WAF rules and private link</t>
+  </si>
+  <si>
+    <t>679da822-78a7-4eff-8fff-a899454a9970</t>
+  </si>
+  <si>
+    <t>Setting minimal TLS version to 1.2 improves security by ensuring your custom domains are accessed from clients using TLS 1.2 or newer. Using versions of TLS less than 1.2 is not recommended since they are weak and do not support modern cryptographic algorithms.</t>
+  </si>
+  <si>
+    <t>Azure Front Door Standard and Premium should be running minimum TLS version of 1.2</t>
+  </si>
+  <si>
+    <t>a1840de2-8088-4ea8-b153-b4c723e9cb01</t>
+  </si>
+  <si>
+    <t>Microsoft Defender for Containers provides cloud-native Kubernetes security capabilities including environment hardening, workload protection, and run-time protection. When you enable the SecurityProfile.AzureDefender on your Azure Kubernetes Service cluster, an agent is deployed to your cluster to collect security event data. Learn more about Microsoft Defender for Containers in https://docs.microsoft.com/azure/defender-for-cloud/defender-for-containers-introduction?tabs=defender-for-container-arch-aks</t>
+  </si>
+  <si>
+    <t>Azure Kubernetes Service clusters should have Defender profile enabled</t>
+  </si>
+  <si>
+    <t>onlyInMSBaseline</t>
+  </si>
+  <si>
+    <t>090c7b07-b4ed-4561-ad20-e9075f3ccaff</t>
+  </si>
+  <si>
+    <t>Container image vulnerability assessment scans your registry for commonly known vulnerabilities (CVEs) and provides a detailed vulnerability report for each image. Resolving vulnerabilities can greatly improve your security posture, ensuring images are safe to use prior to deployment.</t>
+  </si>
+  <si>
+    <t>Azure registry container images should have vulnerabilities resolved (powered by Microsoft Defender Vulnerability Management)</t>
+  </si>
+  <si>
+    <t>17f4b1cc-c55c-4d94-b1f9-2978f6ac2957</t>
+  </si>
+  <si>
+    <t>Container image vulnerability assessment scans your registry for commonly known vulnerabilities (CVEs) and provides a detailed vulnerability report for each image. This recommendation provides visibility to vulnerable images currently running in your Kubernetes clusters. Remediating vulnerabilities in container images that are currently running is key to improving your security posture, significantly reducing the attack surface for your containerized workloads.</t>
+  </si>
+  <si>
+    <t>Azure running container images should have vulnerabilities resolved (powered by Microsoft Defender Vulnerability Management)</t>
+  </si>
+  <si>
+    <t>47a6b606-51aa-4496-8bb7-64b11cf66adc</t>
+  </si>
+  <si>
+    <t>Enable application controls to define the list of known-safe applications running on your machines, and alert you when other applications run. This helps harden your machines against malware. To simplify the process of configuring and maintaining your rules, Security Center uses machine learning to analyze the applications running on each machine and suggest the list of known-safe applications.</t>
+  </si>
+  <si>
+    <t>Adaptive application controls for defining safe applications should be enabled on your machines</t>
+  </si>
+  <si>
+    <t>123a3936-f020-408a-ba0c-47873faf1534</t>
+  </si>
+  <si>
+    <t>Monitor for changes in behavior on groups of machines configured for auditing by Azure Security Center's adaptive application controls. Security Center uses machine learning to analyze the running processes on your machines and suggest a list of known-safe applications. These are presented as recommended apps to allow in adaptive application control policies.</t>
+  </si>
+  <si>
+    <t>Allowlist rules in your adaptive application control policy should be updated</t>
+  </si>
+  <si>
+    <t>6ba6d016-e7c3-4842-b8f2-4992ebc0d72d</t>
+  </si>
+  <si>
+    <t>SQL vulnerability assessment scans your database for security vulnerabilities, and exposes any deviations from best practices such as misconfigurations, excessive permissions, and unprotected sensitive data. Resolving the vulnerabilities found can greatly improve your database security posture.</t>
+  </si>
+  <si>
+    <t>SQL servers on machines should have vulnerability findings resolved</t>
+  </si>
+  <si>
+    <t>e8cbc669-f12d-49eb-93e7-9273119e9933</t>
+  </si>
+  <si>
+    <t>Audit vulnerabilities in security configuration on machines with Docker installed and display as recommendations in Azure Security Center.</t>
+  </si>
+  <si>
+    <t>Vulnerabilities in container security configurations should be remediated</t>
+  </si>
+  <si>
+    <t>9df61aa2-b10c-4efe-aae0-295cc936930b</t>
+  </si>
+  <si>
+    <t>d31e5c31-63b2-4f12-887b-e49456834fa1</t>
+  </si>
+  <si>
+    <t>Enable Defender for SQL to protect your Synapse workspaces. Defender for SQL monitors your Synapse SQL to detect anomalous activities indicating unusual and potentially harmful attempts to access or exploit databases.</t>
+  </si>
+  <si>
+    <t>Microsoft Defender for SQL should be enabled for unprotected Synapse workspaces</t>
+  </si>
+  <si>
+    <t>d38668f5-d155-42c7-ab3d-9b57b50f8fbf</t>
+  </si>
+  <si>
+    <t>Audit PostgreSQL flexible servers without Advanced Data Security</t>
+  </si>
+  <si>
+    <t>Azure Defender for SQL should be enabled for unprotected PostgreSQL flexible servers</t>
+  </si>
+  <si>
     <t>308fbb08-4ab8-4e67-9b29-592e93fb94fa</t>
   </si>
   <si>
@@ -116,2134 +2411,13 @@
     <t>[Deprecated]: Microsoft Defender for Storage (Classic) should be enabled</t>
   </si>
   <si>
-    <t>9d0b6ea4-93e2-4578-bf2f-6bb17d22b4bc</t>
-  </si>
-  <si>
-    <t>Periodically, newer versions are released for Java software either due to security flaws or to include additional functionality. Using the latest Java version for Function apps is recommended in order to take advantage of security fixes, if any, and/or new functionalities of the latest version. This policy only applies to Linux apps. This policy requires you to specify a Java version that meets your requirements.</t>
-  </si>
-  <si>
-    <t>Function apps that use Java should use a specified 'Java version'</t>
-  </si>
-  <si>
-    <t>8c122334-9d20-4eb8-89ea-ac9a705b74ae</t>
-  </si>
-  <si>
-    <t>Periodically, newer versions are released for HTTP either due to security flaws or to include additional functionality. Using the latest HTTP version for web apps to take advantage of security fixes, if any, and/or new functionalities of the newer version.</t>
-  </si>
-  <si>
-    <t>App Service apps should use latest 'HTTP Version'</t>
-  </si>
-  <si>
-    <t>501541f7-f7e7-4cd6-868c-4190fdad3ac9</t>
-  </si>
-  <si>
-    <t>Audits virtual machines to detect whether they are running a supported vulnerability assessment solution. A core component of every cyber risk and security program is the identification and analysis of vulnerabilities. Azure Security Center's standard pricing tier includes vulnerability scanning for your virtual machines at no extra cost. Additionally, Security Center can automatically deploy this tool for you.</t>
-  </si>
-  <si>
-    <t>A vulnerability assessment solution should be enabled on your virtual machines</t>
-  </si>
-  <si>
-    <t>6581d072-105e-4418-827f-bd446d56421b</t>
-  </si>
-  <si>
-    <t>Azure Defender for SQL provides functionality for surfacing and mitigating potential database vulnerabilities, detecting anomalous activities that could indicate threats to SQL databases, and discovering and classifying sensitive data.</t>
-  </si>
-  <si>
-    <t>Azure Defender for SQL servers on machines should be enabled</t>
-  </si>
-  <si>
-    <t>7261b898-8a84-4db8-9e04-18527132abb3</t>
-  </si>
-  <si>
-    <t>Periodically, newer versions are released for PHP software either due to security flaws or to include additional functionality. Using the latest PHP version for App Service apps is recommended in order to take advantage of security fixes, if any, and/or new functionalities of the latest version. This policy only applies to Linux apps. This policy requires you to specify a PHP version that meets your requirements.</t>
-  </si>
-  <si>
-    <t>App Service apps that use PHP should use a specified 'PHP version'</t>
-  </si>
-  <si>
-    <t>c3f317a7-a95c-4547-b7e7-11017ebdf2fe</t>
-  </si>
-  <si>
-    <t>Audit whether there are any missing system security updates and critical updates that should be installed to ensure that your Windows and Linux virtual machine scale sets are secure.</t>
-  </si>
-  <si>
-    <t>System updates on virtual machine scale sets should be installed</t>
-  </si>
-  <si>
-    <t>3c735d8a-a4ba-4a3a-b7cf-db7754cf57f4</t>
-  </si>
-  <si>
-    <t>Audit the OS vulnerabilities on your virtual machine scale sets to protect them from attacks.</t>
-  </si>
-  <si>
-    <t>Vulnerabilities in security configuration on your virtual machine scale sets should be remediated</t>
-  </si>
-  <si>
-    <t>e2c1c086-2d84-4019-bff3-c44ccd95113c</t>
-  </si>
-  <si>
-    <t>Function apps should use latest 'HTTP Version'</t>
-  </si>
-  <si>
-    <t>fb893a29-21bb-418c-a157-e99480ec364c</t>
-  </si>
-  <si>
-    <t>Upgrade your Kubernetes service cluster to a later Kubernetes version to protect against known vulnerabilities in your current Kubernetes version. Vulnerability CVE-2019-9946 has been patched in Kubernetes versions 1.11.9+, 1.12.7+, 1.13.5+, and 1.14.0+</t>
-  </si>
-  <si>
-    <t>Kubernetes Services should be upgraded to a non-vulnerable Kubernetes version</t>
-  </si>
-  <si>
-    <t>feedbf84-6b99-488c-acc2-71c829aa5ffc</t>
-  </si>
-  <si>
-    <t>Monitor vulnerability assessment scan results and recommendations for how to remediate database vulnerabilities.</t>
-  </si>
-  <si>
-    <t>SQL databases should have vulnerability findings resolved</t>
-  </si>
-  <si>
-    <t>c3d20c29-b36d-48fe-808b-99a87530ad99</t>
-  </si>
-  <si>
-    <t>Azure Defender for Resource Manager automatically monitors the resource management operations in your organization. Azure Defender detects threats and alerts you about suspicious activity. Learn more about the capabilities of Azure Defender for Resource Manager at https://aka.ms/defender-for-resource-manager . Enabling this Azure Defender plan results in charges. Learn about the pricing details per region on Security Center's pricing page: https://aka.ms/pricing-security-center .</t>
-  </si>
-  <si>
-    <t>Azure Defender for Resource Manager should be enabled</t>
-  </si>
-  <si>
-    <t>496223c3-ad65-4ecd-878a-bae78737e9ed</t>
-  </si>
-  <si>
-    <t>Periodically, newer versions are released for Java software either due to security flaws or to include additional functionality. Using the latest Java version for App Service apps is recommended in order to take advantage of security fixes, if any, and/or new functionalities of the latest version. This policy only applies to Linux apps. This policy requires you to specify a Java version that meets your requirements.</t>
-  </si>
-  <si>
-    <t>App Service apps that use Java should use a specified 'Java version'</t>
-  </si>
-  <si>
-    <t>7008174a-fd10-4ef0-817e-fc820a951d73</t>
-  </si>
-  <si>
-    <t>Periodically, newer versions are released for Python software either due to security flaws or to include additional functionality. Using the latest Python version for App Service apps is recommended in order to take advantage of security fixes, if any, and/or new functionalities of the latest version. This policy only applies to Linux apps. This policy requires you to specify a Python version that meets your requirements.</t>
-  </si>
-  <si>
-    <t>App Service apps that use Python should use a specified 'Python version'</t>
-  </si>
-  <si>
-    <t>7238174a-fd10-4ef0-817e-fc820a951d73</t>
-  </si>
-  <si>
-    <t>Periodically, newer versions are released for Python software either due to security flaws or to include additional functionality. Using the latest Python version for Function apps is recommended in order to take advantage of security fixes, if any, and/or new functionalities of the latest version. This policy only applies to Linux apps. This policy requires you to specify a Python version that meets your requirements.</t>
-  </si>
-  <si>
-    <t>Function apps that use Python should use a specified 'Python version'</t>
-  </si>
-  <si>
-    <t>bdc59948-5574-49b3-bb91-76b7c986428d</t>
-  </si>
-  <si>
-    <t>Azure Defender for DNS provides an additional layer of protection for your cloud resources by continuously monitoring all DNS queries from your Azure resources. Azure Defender alerts you about suspicious activity at the DNS layer. Learn more about the capabilities of Azure Defender for DNS at https://aka.ms/defender-for-dns . Enabling this Azure Defender plan results in charges. Learn about the pricing details per region on Security Center's pricing page: https://aka.ms/pricing-security-center .</t>
-  </si>
-  <si>
-    <t>Azure Defender for DNS should be enabled</t>
-  </si>
-  <si>
-    <t>2913021d-f2fd-4f3d-b958-22354e2bdbcb</t>
-  </si>
-  <si>
-    <t>Azure Defender for App Service leverages the scale of the cloud, and the visibility that Azure has as a cloud provider, to monitor for common web app attacks.</t>
-  </si>
-  <si>
-    <t>Azure Defender for App Service should be enabled</t>
-  </si>
-  <si>
-    <t>bed48b13-6647-468e-aa2f-1af1d3f4dd40</t>
-  </si>
-  <si>
-    <t>Windows Defender Exploit Guard uses the Azure Policy Guest Configuration agent. Exploit Guard has four components that are designed to lock down devices against a wide variety of attack vectors and block behaviors commonly used in malware attacks while enabling enterprises to balance their security risk and productivity requirements (Windows only).</t>
-  </si>
-  <si>
-    <t>Windows Defender Exploit Guard should be enabled on your machines</t>
-  </si>
-  <si>
-    <t>0049a6b3-a662-4f3e-8635-39cf44ace45a</t>
-  </si>
-  <si>
-    <t>Discover, track, and remediate potential vulnerabilities by configuring recurring SQL vulnerability assessment scans on your Synapse workspaces.</t>
-  </si>
-  <si>
-    <t>Vulnerability assessment should be enabled on your Synapse workspaces</t>
-  </si>
-  <si>
-    <t>4da35fc9-c9e7-4960-aec9-797fe7d9051d</t>
-  </si>
-  <si>
-    <t>Azure Defender for servers provides real-time threat protection for server workloads and generates hardening recommendations as well as alerts about suspicious activities.</t>
-  </si>
-  <si>
-    <t>Azure Defender for servers should be enabled</t>
-  </si>
-  <si>
-    <t>26a828e1-e88f-464e-bbb3-c134a282b9de</t>
-  </si>
-  <si>
-    <t>Audit the existence and health of an endpoint protection solution on your virtual machines scale sets, to protect them from threats and vulnerabilities.</t>
-  </si>
-  <si>
-    <t>Endpoint protection solution should be installed on virtual machine scale sets</t>
-  </si>
-  <si>
-    <t>e1e5fd5d-3e4c-4ce1-8661-7d1873ae6b15</t>
-  </si>
-  <si>
-    <t>Servers which do not satisfy the configured baseline will be monitored by Azure Security Center as recommendations</t>
-  </si>
-  <si>
-    <t>Vulnerabilities in security configuration on your machines should be remediated</t>
-  </si>
-  <si>
-    <t>af6cd1bd-1635-48cb-bde7-5b15693900b9</t>
-  </si>
-  <si>
-    <t>Servers without an installed Endpoint Protection agent will be monitored by Azure Security Center as recommendations</t>
-  </si>
-  <si>
-    <t>Monitor missing Endpoint Protection in Azure Security Center</t>
-  </si>
-  <si>
-    <t>0e6763cc-5078-4e64-889d-ff4d9a839047</t>
-  </si>
-  <si>
-    <t>Azure Defender for Key Vault provides an additional layer of protection and security intelligence by detecting unusual and potentially harmful attempts to access or exploit key vault accounts.</t>
-  </si>
-  <si>
-    <t>Azure Defender for Key Vault should be enabled</t>
-  </si>
-  <si>
-    <t>86b3d65f-7626-441e-b690-81a8b71cff60</t>
-  </si>
-  <si>
-    <t>Missing security system updates on your servers will be monitored by Azure Security Center as recommendations</t>
-  </si>
-  <si>
-    <t>System updates should be installed on your machines</t>
-  </si>
-  <si>
-    <t>7fe3b40f-802b-4cdd-8bd4-fd799c948cc2</t>
-  </si>
-  <si>
-    <t>Azure Defender for Azure SQL Database servers should be enabled</t>
-  </si>
-  <si>
-    <t>1c988dd6-ade4-430f-a608-2a3e5b0a6d38</t>
-  </si>
-  <si>
-    <t>Microsoft Defender for Containers provides hardening, vulnerability assessment and run-time protections for your Azure, hybrid, and multi-cloud Kubernetes environments.</t>
-  </si>
-  <si>
-    <t>Microsoft Defender for Containers should be enabled</t>
-  </si>
-  <si>
-    <t>0015ea4d-51ff-4ce3-8d8c-f3f8f0179a56</t>
-  </si>
-  <si>
-    <t>Audit virtual machines which do not have disaster recovery configured. To learn more about disaster recovery, visit https://aka.ms/asr-doc.</t>
-  </si>
-  <si>
-    <t>Audit virtual machines without disaster recovery configured</t>
-  </si>
-  <si>
-    <t>013e242c-8828-4970-87b3-ab247555486d</t>
-  </si>
-  <si>
-    <t>Ensure protection of your Azure Virtual Machines by enabling Azure Backup. Azure Backup is a secure and cost effective data protection solution for Azure.</t>
-  </si>
-  <si>
-    <t>Azure Backup should be enabled for Virtual Machines</t>
-  </si>
-  <si>
-    <t>1e66c121-a66a-4b1f-9b83-0fd99bf0fc2d</t>
-  </si>
-  <si>
-    <t>Deleting a key vault without soft delete enabled permanently deletes all secrets, keys, and certificates stored in the key vault. Accidental deletion of a key vault can lead to permanent data loss. Soft delete allows you to recover an accidentally deleted key vault for a configurable retention period.</t>
-  </si>
-  <si>
-    <t>Key vaults should have soft delete enabled</t>
-  </si>
-  <si>
-    <t>0b60c0b2-2dc2-4e1c-b5c9-abbed971de53</t>
-  </si>
-  <si>
-    <t>Malicious deletion of a key vault can lead to permanent data loss. You can prevent permanent data loss by enabling purge protection and soft delete. Purge protection protects you from insider attacks by enforcing a mandatory retention period for soft deleted key vaults. No one inside your organization or Microsoft will be able to purge your key vaults during the soft delete retention period. Keep in mind that key vaults created after September 1st 2019 have soft-delete enabled by default.</t>
-  </si>
-  <si>
-    <t>Key vaults should have deletion protection enabled</t>
-  </si>
-  <si>
-    <t>5752e6d6-1206-46d8-8ab1-ecc2f71a8112</t>
-  </si>
-  <si>
-    <t>To protect the privacy of information communicated over the Internet, your machines should use the latest version of the industry-standard cryptographic protocol, Transport Layer Security (TLS). TLS secures communications over a network by encrypting a connection between machines.</t>
-  </si>
-  <si>
-    <t>Windows machines should be configured to use secure communication protocols</t>
-  </si>
-  <si>
-    <t>4d24b6d4-5e53-4a4f-a7f4-618fa573ee4b</t>
-  </si>
-  <si>
-    <t>Enable FTPS enforcement for enhanced security.</t>
-  </si>
-  <si>
-    <t>App Service apps should require FTPS only</t>
-  </si>
-  <si>
-    <t>399b2637-a50f-4f95-96f8-3a145476eb15</t>
-  </si>
-  <si>
-    <t>Function apps should require FTPS only</t>
-  </si>
-  <si>
-    <t>0961003e-5a0a-4549-abde-af6a37f2724d</t>
-  </si>
-  <si>
-    <t>By default, a virtual machine's OS and data disks are encrypted-at-rest using platform-managed keys. Temp disks, data caches and data flowing between compute and storage aren't encrypted. Disregard this recommendation if: 1. using encryption-at-host, or 2. server-side encryption on Managed Disks meets your security requirements. Learn more in: Server-side encryption of Azure Disk Storage: https://aka.ms/disksse, Different disk encryption offerings: https://aka.ms/diskencryptioncomparison</t>
-  </si>
-  <si>
-    <t>Virtual machines should encrypt temp disks, caches, and data flows between Compute and Storage resources</t>
-  </si>
-  <si>
-    <t>1a5b4dca-0b6f-4cf5-907c-56316bc1bf3d</t>
-  </si>
-  <si>
-    <t>Use of HTTPS ensures authentication and protects data in transit from network layer eavesdropping attacks. This capability is currently generally available for Kubernetes Service (AKS), and in preview for Azure Arc enabled Kubernetes. For more info, visit https://aka.ms/kubepolicydoc</t>
-  </si>
-  <si>
-    <t>Kubernetes clusters should be accessible only over HTTPS</t>
-  </si>
-  <si>
-    <t>08a6b96f-576e-47a2-8511-119a212d344d</t>
-  </si>
-  <si>
-    <t>Ensure that devices ordered from Azure Edge Hardware Center have double encryption support enabled, to secure the data at rest on the device. This option adds a second layer of data encryption.</t>
-  </si>
-  <si>
-    <t>Azure Edge Hardware Center devices should have double encryption support enabled</t>
-  </si>
-  <si>
-    <t>d158790f-bfb0-486c-8631-2dc6b4e8e6af</t>
-  </si>
-  <si>
-    <t>Azure Database for PostgreSQL supports connecting your Azure Database for PostgreSQL server to client applications using Secure Sockets Layer (SSL). Enforcing SSL connections between your database server and your client applications helps protect against 'man in the middle' attacks by encrypting the data stream between the server and your application. This configuration enforces that SSL is always enabled for accessing your database server.</t>
-  </si>
-  <si>
-    <t>Enforce SSL connection should be enabled for PostgreSQL database servers</t>
-  </si>
-  <si>
-    <t>e802a67a-daf5-4436-9ea6-f6d821dd0c5d</t>
-  </si>
-  <si>
-    <t>Azure Database for MySQL supports connecting your Azure Database for MySQL server to client applications using Secure Sockets Layer (SSL). Enforcing SSL connections between your database server and your client applications helps protect against 'man in the middle' attacks by encrypting the data stream between the server and your application. This configuration enforces that SSL is always enabled for accessing your database server.</t>
-  </si>
-  <si>
-    <t>Enforce SSL connection should be enabled for MySQL database servers</t>
-  </si>
-  <si>
-    <t>6d555dd1-86f2-4f1c-8ed7-5abae7c6cbab</t>
-  </si>
-  <si>
-    <t>Use of HTTPS ensures server/service authentication and protects data in transit from network layer eavesdropping attacks.</t>
-  </si>
-  <si>
-    <t>Function apps should only be accessible over HTTPS</t>
-  </si>
-  <si>
-    <t>f0e6e85b-9b9f-4a4b-b67b-f730d42f1b0b</t>
-  </si>
-  <si>
-    <t>Periodically, newer versions are released for TLS either due to security flaws, include additional functionality, and enhance speed. Upgrade to the latest TLS version for App Service apps to take advantage of security fixes, if any, and/or new functionalities of the latest version.</t>
-  </si>
-  <si>
-    <t>App Service apps should use the latest TLS version</t>
-  </si>
-  <si>
-    <t>d9da03a1-f3c3-412a-9709-947156872263</t>
-  </si>
-  <si>
-    <t>Data can be tampered with during transmission between Azure HDInsight cluster nodes. Enabling encryption in transit addresses problems of misuse and tampering during this transmission.</t>
-  </si>
-  <si>
-    <t>Azure HDInsight clusters should use encryption in transit to encrypt communication between Azure HDInsight cluster nodes</t>
-  </si>
-  <si>
-    <t>1760f9d4-7206-436e-a28f-d9f3a5c8a227</t>
-  </si>
-  <si>
-    <t>Enabling Azure Batch disk encryption ensures that data is always encrypted at rest on your Azure Batch compute node. Learn more about disk encryption in Batch at https://docs.microsoft.com/azure/batch/disk-encryption.</t>
-  </si>
-  <si>
-    <t>Azure Batch pools should have disk encryption enabled</t>
-  </si>
-  <si>
-    <t>a4af4a39-4135-47fb-b175-47fbdf85311d</t>
-  </si>
-  <si>
-    <t>App Service apps should only be accessible over HTTPS</t>
-  </si>
-  <si>
-    <t>f9d614c5-c173-4d56-95a7-b4437057d193</t>
-  </si>
-  <si>
-    <t>Periodically, newer versions are released for TLS either due to security flaws, include additional functionality, and enhance speed. Upgrade to the latest TLS version for Function apps to take advantage of security fixes, if any, and/or new functionalities of the latest version.</t>
-  </si>
-  <si>
-    <t>Function apps should use the latest TLS version</t>
-  </si>
-  <si>
-    <t>fa298e57-9444-42ba-bf04-86e8470e32c7</t>
-  </si>
-  <si>
-    <t>Link storage account to Log Analytics workspace to protect saved-queries with storage account encryption. Customer-managed keys are commonly required to meet regulatory compliance and for more control over the access to your saved-queries in Azure Monitor. For more details on the above, see https://docs.microsoft.com/azure/azure-monitor/platform/customer-managed-keys?tabs=portal#customer-managed-key-for-saved-queries.</t>
-  </si>
-  <si>
-    <t>Saved-queries in Azure Monitor should be saved in customer storage account for logs encryption</t>
-  </si>
-  <si>
-    <t>ac01ad65-10e5-46df-bdd9-6b0cad13e1d2</t>
-  </si>
-  <si>
-    <t>Implementing Transparent Data Encryption (TDE) with your own key provides you with increased transparency and control over the TDE Protector, increased security with an HSM-backed external service, and promotion of separation of duties. This recommendation applies to organizations with a related compliance requirement.</t>
-  </si>
-  <si>
-    <t>SQL managed instances should use customer-managed keys to encrypt data at rest</t>
-  </si>
-  <si>
-    <t>2e94d99a-8a36-4563-bc77-810d8893b671</t>
-  </si>
-  <si>
-    <t>Use customer-managed keys to manage the encryption at rest of your backup data. By default, customer data is encrypted with service-managed keys, but customer-managed keys are commonly required to meet regulatory compliance standards. Customer-managed keys enable the data to be encrypted with an Azure Key Vault key created and owned by you. You have full control and responsibility for the key lifecycle, including rotation and management. Learn more at https://aka.ms/AB-CmkEncryption.</t>
-  </si>
-  <si>
-    <t>[Preview]: Azure Recovery Services vaults should use customer-managed keys for encrypting backup data</t>
-  </si>
-  <si>
-    <t>18adea5e-f416-4d0f-8aa8-d24321e3e274</t>
-  </si>
-  <si>
-    <t>Use customer-managed keys to manage the encryption at rest of your PostgreSQL servers. By default, the data is encrypted at rest with service-managed keys, but customer-managed keys are commonly required to meet regulatory compliance standards. Customer-managed keys enable the data to be encrypted with an Azure Key Vault key created and owned by you. You have full control and responsibility for the key lifecycle, including rotation and management.</t>
-  </si>
-  <si>
-    <t>PostgreSQL servers should use customer-managed keys to encrypt data at rest</t>
-  </si>
-  <si>
-    <t>f7d52b2d-e161-4dfa-a82b-55e564167385</t>
-  </si>
-  <si>
-    <t>Use customer-managed keys to control the encryption at rest of the data stored in Azure Synapse workspaces. Customer-managed keys deliver double encryption by adding a second layer of encryption on top of the default encryption with service-managed keys.</t>
-  </si>
-  <si>
-    <t>Azure Synapse workspaces should use customer-managed keys to encrypt data at rest</t>
-  </si>
-  <si>
-    <t>1f68a601-6e6d-4e42-babf-3f643a047ea2</t>
-  </si>
-  <si>
-    <t>Create Azure Monitor logs cluster with customer-managed keys encryption. By default, the log data is encrypted with service-managed keys, but customer-managed keys are commonly required to meet regulatory compliance. Customer-managed key in Azure Monitor gives you more control over the access to you data, see https://docs.microsoft.com/azure/azure-monitor/platform/customer-managed-keys.</t>
-  </si>
-  <si>
-    <t>Azure Monitor Logs clusters should be encrypted with customer-managed key</t>
-  </si>
-  <si>
-    <t>ca91455f-eace-4f96-be59-e6e2c35b4816</t>
-  </si>
-  <si>
-    <t>High security sensitive customers who are concerned of the risk associated with any particular encryption algorithm, implementation, or key being compromised can opt for additional layer of encryption using a different encryption algorithm/mode at the infrastructure layer using platform managed encryption keys. The disk encryption sets are required to use double encryption. Learn more at https://aka.ms/disks-doubleEncryption.</t>
-  </si>
-  <si>
-    <t>Managed disks should be double encrypted with both platform-managed and customer-managed keys</t>
-  </si>
-  <si>
-    <t>295fc8b1-dc9f-4f53-9c61-3f313ceab40a</t>
-  </si>
-  <si>
-    <t>Azure Service Bus supports the option of encrypting data at rest with either Microsoft-managed keys (default) or customer-managed keys. Choosing to encrypt data using customer-managed keys enables you to assign, rotate, disable, and revoke access to the keys that Service Bus will use to encrypt data in your namespace. Note that Service Bus only supports encryption with customer-managed keys for premium namespaces.</t>
-  </si>
-  <si>
-    <t>Service Bus Premium namespaces should use a customer-managed key for encryption</t>
-  </si>
-  <si>
-    <t>1f905d99-2ab7-462c-a6b0-f709acca6c8f</t>
-  </si>
-  <si>
-    <t>Use customer-managed keys to manage the encryption at rest of your Azure Cosmos DB. By default, the data is encrypted at rest with service-managed keys, but customer-managed keys are commonly required to meet regulatory compliance standards. Customer-managed keys enable the data to be encrypted with an Azure Key Vault key created and owned by you. You have full control and responsibility for the key lifecycle, including rotation and management. Learn more at https://aka.ms/cosmosdb-cmk.</t>
-  </si>
-  <si>
-    <t>Azure Cosmos DB accounts should use customer-managed keys to encrypt data at rest</t>
-  </si>
-  <si>
-    <t>41425d9f-d1a5-499a-9932-f8ed8453932c</t>
-  </si>
-  <si>
-    <t>To enhance data security, the data stored on the virtual machine (VM) host of your Azure Kubernetes Service nodes VMs should be encrypted at rest. This is a common requirement in many regulatory and industry compliance standards.</t>
-  </si>
-  <si>
-    <t>Temp disks and cache for agent node pools in Azure Kubernetes Service clusters should be encrypted at host</t>
-  </si>
-  <si>
-    <t>ba769a63-b8cc-4b2d-abf6-ac33c7204be8</t>
-  </si>
-  <si>
-    <t>Manage encryption at rest of Azure Machine Learning workspace data with customer-managed keys. By default, customer data is encrypted with service-managed keys, but customer-managed keys are commonly required to meet regulatory compliance standards. Customer-managed keys enable the data to be encrypted with an Azure Key Vault key created and owned by you. You have full control and responsibility for the key lifecycle, including rotation and management. Learn more at https://aka.ms/azureml-workspaces-cmk.</t>
-  </si>
-  <si>
-    <t>Azure Machine Learning workspaces should be encrypted with a customer-managed key</t>
-  </si>
-  <si>
-    <t>b5ec538c-daa0-4006-8596-35468b9148e8</t>
-  </si>
-  <si>
-    <t>Use customer-managed keys to manage the encryption at rest of your storage account encryption scopes. Customer-managed keys enable the data to be encrypted with an Azure key-vault key created and owned by you. You have full control and responsibility for the key lifecycle, including rotation and management. Learn more about storage account encryption scopes at https://aka.ms/encryption-scopes-overview.</t>
-  </si>
-  <si>
-    <t>Storage account encryption scopes should use customer-managed keys to encrypt data at rest</t>
-  </si>
-  <si>
-    <t>1fafeaf6-7927-4059-a50a-8eb2a7a6f2b5</t>
-  </si>
-  <si>
-    <t>Deploy into Integration Service Environment to manage encryption at rest of Logic Apps data using customer-managed keys. By default, customer data is encrypted with service-managed keys, but customer-managed keys are commonly required to meet regulatory compliance standards. Customer-managed keys enable the data to be encrypted with an Azure Key Vault key created and owned by you. You have full control and responsibility for the key lifecycle, including rotation and management.</t>
-  </si>
-  <si>
-    <t>Logic Apps Integration Service Environment should be encrypted with customer-managed keys</t>
-  </si>
-  <si>
-    <t>56a5ee18-2ae6-4810-86f7-18e39ce5629b</t>
-  </si>
-  <si>
-    <t>Use customer-managed keys to manage the encryption at rest of your Azure Automation Accounts. By default, customer data is encrypted with service-managed keys, but customer-managed keys are commonly required to meet regulatory compliance standards. Customer-managed keys enable the data to be encrypted with an Azure Key Vault key created and owned by you. You have full control and responsibility for the key lifecycle, including rotation and management. Learn more at https://aka.ms/automation-cmk.</t>
-  </si>
-  <si>
-    <t>Azure Automation accounts should use customer-managed keys to encrypt data at rest</t>
-  </si>
-  <si>
-    <t>4ec52d6d-beb7-40c4-9a9e-fe753254690e</t>
-  </si>
-  <si>
-    <t>Use customer-managed keys to manage the encryption at rest of your Azure Data Factory. By default, customer data is encrypted with service-managed keys, but customer-managed keys are commonly required to meet regulatory compliance standards. Customer-managed keys enable the data to be encrypted with an Azure Key Vault key created and owned by you. You have full control and responsibility for the key lifecycle, including rotation and management. Learn more at https://aka.ms/adf-cmk.</t>
-  </si>
-  <si>
-    <t>Azure data factories should be encrypted with a customer-managed key</t>
-  </si>
-  <si>
-    <t>702dd420-7fcc-42c5-afe8-4026edd20fe0</t>
-  </si>
-  <si>
-    <t>Use customer-managed keys to manage the encryption at rest of the contents of your managed disks. By default, the data is encrypted at rest with platform-managed keys, but customer-managed keys are commonly required to meet regulatory compliance standards. Customer-managed keys enable the data to be encrypted with an Azure Key Vault key created and owned by you. You have full control and responsibility for the key lifecycle, including rotation and management. Learn more at https://aka.ms/disks-cmk.</t>
-  </si>
-  <si>
-    <t>OS and data disks should be encrypted with a customer-managed key</t>
-  </si>
-  <si>
-    <t>1fd32ebd-e4c3-4e13-a54a-d7422d4d95f6</t>
-  </si>
-  <si>
-    <t>Enabling encryption at host helps protect and safeguard your data to meet your organizational security and compliance commitments. When you enable encryption at host, data stored on the VM host is encrypted at rest and flows encrypted to the Storage service.</t>
-  </si>
-  <si>
-    <t>Azure HDInsight clusters should use encryption at host to encrypt data at rest</t>
-  </si>
-  <si>
-    <t>6fac406b-40ca-413b-bf8e-0bf964659c25</t>
-  </si>
-  <si>
-    <t>Secure your blob and file storage account with greater flexibility using customer-managed keys. When you specify a customer-managed key, that key is used to protect and control access to the key that encrypts your data. Using customer-managed keys provides additional capabilities to control rotation of the key encryption key or cryptographically erase data.</t>
-  </si>
-  <si>
-    <t>Storage accounts should use customer-managed key for encryption</t>
-  </si>
-  <si>
-    <t>67121cc7-ff39-4ab8-b7e3-95b84dab487d</t>
-  </si>
-  <si>
-    <t>Customer-managed keys are commonly required to meet regulatory compliance standards. Customer-managed keys enable the data stored in Cognitive Services to be encrypted with an Azure Key Vault key created and owned by you. You have full control and responsibility for the key lifecycle, including rotation and management. Learn more about customer-managed keys at https://go.microsoft.com/fwlink/?linkid=2121321.</t>
-  </si>
-  <si>
-    <t>Cognitive Services accounts should enable data encryption with a customer-managed key</t>
-  </si>
-  <si>
-    <t>83cef61d-dbd1-4b20-a4fc-5fbc7da10833</t>
-  </si>
-  <si>
-    <t>Use customer-managed keys to manage the encryption at rest of your MySQL servers. By default, the data is encrypted at rest with service-managed keys, but customer-managed keys are commonly required to meet regulatory compliance standards. Customer-managed keys enable the data to be encrypted with an Azure Key Vault key created and owned by you. You have full control and responsibility for the key lifecycle, including rotation and management.</t>
-  </si>
-  <si>
-    <t>MySQL servers should use customer-managed keys to encrypt data at rest</t>
-  </si>
-  <si>
-    <t>86efb160-8de7-451d-bc08-5d475b0aadae</t>
-  </si>
-  <si>
-    <t>Use a customer-managed key to control the encryption of the device unlock password for Azure Data Box. Customer-managed keys also help manage access to the device unlock password by the Data Box service in order to prepare the device and copy data in an automated manner. The data on the device itself is already encrypted at rest with Advanced Encryption Standard 256-bit encryption, and the device unlock password is encrypted by default with a Microsoft managed key.</t>
-  </si>
-  <si>
-    <t>Azure Data Box jobs should use a customer-managed key to encrypt the device unlock password</t>
-  </si>
-  <si>
-    <t>87ba29ef-1ab3-4d82-b763-87fcd4f531f7</t>
-  </si>
-  <si>
-    <t>Use customer-managed keys when you want to securely store any metadata and private data assets of your Stream Analytics jobs in your storage account. This gives you total control over how your Stream Analytics data is encrypted.</t>
-  </si>
-  <si>
-    <t>Azure Stream Analytics jobs should use customer-managed keys to encrypt data</t>
-  </si>
-  <si>
-    <t>970f84d8-71b6-4091-9979-ace7e3fb6dbb</t>
-  </si>
-  <si>
-    <t>Manage encryption at rest of Azure HPC Cache with customer-managed keys. By default, customer data is encrypted with service-managed keys, but customer-managed keys are commonly required to meet regulatory compliance standards. Customer-managed keys enable the data to be encrypted with an Azure Key Vault key created and owned by you. You have full control and responsibility for the key lifecycle, including rotation and management.</t>
-  </si>
-  <si>
-    <t>HPC Cache accounts should use customer-managed key for encryption</t>
-  </si>
-  <si>
-    <t>64d314f6-6062-4780-a861-c23e8951bee5</t>
-  </si>
-  <si>
-    <t>Use customer-managed keys to manage the encryption at rest of your Azure HDInsight clusters. By default, customer data is encrypted with service-managed keys, but customer-managed keys are commonly required to meet regulatory compliance standards. Customer-managed keys enable the data to be encrypted with an Azure Key Vault key created and owned by you. You have full control and responsibility for the key lifecycle, including rotation and management. Learn more at https://aka.ms/hdi.cmk.</t>
-  </si>
-  <si>
-    <t>Azure HDInsight clusters should use customer-managed keys to encrypt data at rest</t>
-  </si>
-  <si>
-    <t>99e9ccd8-3db9-4592-b0d1-14b1715a4d8a</t>
-  </si>
-  <si>
-    <t>Use customer-managed keys to manage the encryption at rest of your Batch account's data. By default, customer data is encrypted with service-managed keys, but customer-managed keys are commonly required to meet regulatory compliance standards. Customer-managed keys enable the data to be encrypted with an Azure Key Vault key created and owned by you. You have full control and responsibility for the key lifecycle, including rotation and management. Learn more at https://aka.ms/Batch-CMK.</t>
-  </si>
-  <si>
-    <t>Azure Batch account should use customer-managed keys to encrypt data</t>
-  </si>
-  <si>
-    <t>0aa61e00-0a01-4a3c-9945-e93cffedf0e6</t>
-  </si>
-  <si>
-    <t>Secure your containers with greater flexibility using customer-managed keys. When you specify a customer-managed key, that key is used to protect and control access to the key that encrypts your data. Using customer-managed keys provides additional capabilities to control rotation of the key encryption key or cryptographically erase data.</t>
-  </si>
-  <si>
-    <t>Azure Container Instance container group should use customer-managed key for encryption</t>
-  </si>
-  <si>
-    <t>a1ad735a-e96f-45d2-a7b2-9a4932cab7ec</t>
-  </si>
-  <si>
-    <t>Azure Event Hubs supports the option of encrypting data at rest with either Microsoft-managed keys (default) or customer-managed keys. Choosing to encrypt data using customer-managed keys enables you to assign, rotate, disable, and revoke access to the keys that Event Hub will use to encrypt data in your namespace. Note that Event Hub only supports encryption with customer-managed keys for namespaces in dedicated clusters.</t>
-  </si>
-  <si>
-    <t>Event Hub namespaces should use a customer-managed key for encryption</t>
-  </si>
-  <si>
-    <t>5b9159ae-1701-4a6f-9a7a-aa9c8ddd0580</t>
-  </si>
-  <si>
-    <t>Use customer-managed keys to manage the encryption at rest of the contents of your registries. By default, the data is encrypted at rest with service-managed keys, but customer-managed keys are commonly required to meet regulatory compliance standards. Customer-managed keys enable the data to be encrypted with an Azure Key Vault key created and owned by you. You have full control and responsibility for the key lifecycle, including rotation and management. Learn more at https://aka.ms/acr/CMK.</t>
-  </si>
-  <si>
-    <t>Container registries should be encrypted with a customer-managed key</t>
-  </si>
-  <si>
-    <t>81e74cea-30fd-40d5-802f-d72103c2aaaa</t>
-  </si>
-  <si>
-    <t>Enabling encryption at rest using a customer-managed key on your Azure Data Explorer cluster provides additional control over the key being used by the encryption at rest. This feature is oftentimes applicable to customers with special compliance requirements and requires a Key Vault to managing the keys.</t>
-  </si>
-  <si>
-    <t>Azure Data Explorer encryption at rest should use a customer-managed key</t>
-  </si>
-  <si>
-    <t>17k78e20-9358-41c9-923c-fb736d382a12</t>
-  </si>
-  <si>
-    <t>Transparent data encryption should be enabled to protect data-at-rest and meet compliance requirements</t>
-  </si>
-  <si>
-    <t>Transparent Data Encryption on SQL databases should be enabled</t>
-  </si>
-  <si>
-    <t>47031206-ce96-41f8-861b-6a915f3de284</t>
-  </si>
-  <si>
-    <t>Use customer-managed keys to manage the encryption at rest of your IoT Hub device provisioning service. The data is automatically encrypted at rest with service-managed keys, but customer-managed keys (CMK) are commonly required to meet regulatory compliance standards. CMKs enable the data to be encrypted with an Azure Key Vault key created and owned by you. Learn more about CMK encryption at https://aka.ms/dps/CMK.</t>
-  </si>
-  <si>
-    <t>[Preview]: IoT Hub device provisioning service data should be encrypted using customer-managed keys (CMK)</t>
-  </si>
-  <si>
-    <t>7d7be79c-23ba-4033-84dd-45e2a5ccdd67</t>
-  </si>
-  <si>
-    <t>Encrypting OS and data disks using customer-managed keys provides more control and greater flexibility in key management. This is a common requirement in many regulatory and industry compliance standards.</t>
-  </si>
-  <si>
-    <t>Both operating systems and data disks in Azure Kubernetes Service clusters should be encrypted by customer-managed keys</t>
-  </si>
-  <si>
-    <t>51522a96-0869-4791-82f3-981000c2c67f</t>
-  </si>
-  <si>
-    <t>Azure Bot Service automatically encrypts your resource to protect your data and meet organizational security and compliance commitments. By default, Microsoft-managed encryption keys are used. For greater flexibility in managing keys or controlling access to your subscription, select customer-managed keys, also known as bring your own key (BYOK). Learn more about Azure Bot Service encryption: https://docs.microsoft.com/azure/bot-service/bot-service-encryption.</t>
-  </si>
-  <si>
-    <t>Bot Service should be encrypted with a customer-managed key</t>
-  </si>
-  <si>
-    <t>4733ea7b-a883-42fe-8cac-97454c2a9e4a</t>
-  </si>
-  <si>
-    <t>Enable infrastructure encryption for higher level of assurance that the data is secure. When infrastructure encryption is enabled, data in a storage account is encrypted twice.</t>
-  </si>
-  <si>
-    <t>Storage accounts should have infrastructure encryption</t>
-  </si>
-  <si>
-    <t>ec068d99-e9c7-401f-8cef-5bdde4e6ccf1</t>
-  </si>
-  <si>
-    <t>Enabling double encryption helps protect and safeguard your data to meet your organizational security and compliance commitments. When double encryption has been enabled, data in the storage account is encrypted twice, once at the service level and once at the infrastructure level, using two different encryption algorithms and two different keys.</t>
-  </si>
-  <si>
-    <t>Double encryption should be enabled on Azure Data Explorer</t>
-  </si>
-  <si>
-    <t>ea0dfaed-95fb-448c-934e-d6e713ce393d</t>
-  </si>
-  <si>
-    <t>To ensure secure data encryption is enabled at the service level and the infrastructure level with two different encryption algorithms and two different keys, use an Azure Monitor dedicated cluster. This option is enabled by default when supported at the region, see https://docs.microsoft.com/azure/azure-monitor/platform/customer-managed-keys#customer-managed-key-overview.</t>
-  </si>
-  <si>
-    <t>Azure Monitor Logs clusters should be created with infrastructure-encryption enabled (double encryption)</t>
-  </si>
-  <si>
-    <t>24fba194-95d6-48c0-aea7-f65bf859c598</t>
-  </si>
-  <si>
-    <t>Enable infrastructure encryption for Azure Database for PostgreSQL servers to have higher level of assurance that the data is secure. When infrastructure encryption is enabled, the data at rest is encrypted twice using FIPS 140-2 compliant Microsoft managed keys</t>
-  </si>
-  <si>
-    <t>Infrastructure encryption should be enabled for Azure Database for PostgreSQL servers</t>
-  </si>
-  <si>
-    <t>0a370ff3-6cab-4e85-8995-295fd854c5b8</t>
-  </si>
-  <si>
-    <t>Implementing Transparent Data Encryption (TDE) with your own key provides increased transparency and control over the TDE Protector, increased security with an HSM-backed external service, and promotion of separation of duties. This recommendation applies to organizations with a related compliance requirement.</t>
-  </si>
-  <si>
-    <t>SQL servers should use customer-managed keys to encrypt data at rest</t>
-  </si>
-  <si>
-    <t>fc4d8e41-e223-45ea-9bf5-eada37891d87</t>
-  </si>
-  <si>
-    <t>Use encryption at host to get end-to-end encryption for your virtual machine and virtual machine scale set data. Encryption at host enables encryption at rest for your temporary disk and OS/data disk caches. Temporary and ephemeral OS disks are encrypted with platform-managed keys when encryption at host is enabled. OS/data disk caches are encrypted at rest with either customer-managed or platform-managed key, depending on the encryption type selected on the disk. Learn more at https://aka.ms/vm-hbe.</t>
-  </si>
-  <si>
-    <t>Virtual machines and virtual machine scale sets should have encryption at host enabled</t>
-  </si>
-  <si>
-    <t>c349d81b-9985-44ae-a8da-ff98d108ede8</t>
-  </si>
-  <si>
-    <t>Enable a second layer of software-based encryption for data at rest on the device. The device is already protected via Advanced Encryption Standard 256-bit encryption for data at rest. This option adds a second layer of data encryption.</t>
-  </si>
-  <si>
-    <t>Azure Data Box jobs should enable double encryption for data at rest on the device</t>
-  </si>
-  <si>
-    <t>3a58212a-c829-4f13-9872-6371df2fd0b4</t>
-  </si>
-  <si>
-    <t>Enable infrastructure encryption for Azure Database for MySQL servers to have higher level of assurance that the data is secure. When infrastructure encryption is enabled, the data at rest is encrypted twice using FIPS 140-2 compliant Microsoft managed keys.</t>
-  </si>
-  <si>
-    <t>Infrastructure encryption should be enabled for Azure Database for MySQL servers</t>
-  </si>
-  <si>
-    <t>f4b53539-8df9-40e4-86c6-6b607703bd4e</t>
-  </si>
-  <si>
-    <t>Enabling disk encryption helps protect and safeguard your data to meet your organizational security and compliance commitments.</t>
-  </si>
-  <si>
-    <t>Disk encryption should be enabled on Azure Data Explorer</t>
-  </si>
-  <si>
-    <t>051cba44-2429-45b9-9649-46cec11c7119</t>
-  </si>
-  <si>
-    <t>Use a customer-managed key to control the encryption at rest of the data stored in Azure API for FHIR when this is a regulatory or compliance requirement. Customer-managed keys also deliver double encryption by adding a second layer of encryption on top of the default one done with service-managed keys.</t>
-  </si>
-  <si>
-    <t>Azure API for FHIR should use a customer-managed key to encrypt data at rest</t>
-  </si>
-  <si>
-    <t>ef619a2c-cc4d-4d03-b2ba-8c94a834d85b</t>
-  </si>
-  <si>
-    <t>Azure Virtual Network deployment provides enhanced security, isolation and allows you to place your API Management service in a non-internet routable network that you control access to. These networks can then be connected to your on-premises networks using various VPN technologies, which enables access to your backend services within the network and/or on-premises. The developer portal and API gateway, can be configured to be accessible either from the Internet or only within the virtual network.</t>
-  </si>
-  <si>
-    <t>API Management services should use a virtual network</t>
-  </si>
-  <si>
-    <t>4b90e17e-8448-49db-875e-bd83fb6f804f</t>
-  </si>
-  <si>
-    <t>Azure Private Link lets you connect your virtual network to Azure services without a public IP address at the source or destination. The Private Link platform handles the connectivity between the consumer and services over the Azure backbone network. By mapping private endpoints to your Event Grid topic instead of the entire service, you'll also be protected against data leakage risks. Learn more at: https://aka.ms/privateendpoints.</t>
-  </si>
-  <si>
-    <t>Azure Event Grid topics should use private link</t>
-  </si>
-  <si>
-    <t>1ee56206-5dd1-42ab-b02d-8aae8b1634ce</t>
-  </si>
-  <si>
-    <t>Azure API for FHIR should have at least one approved private endpoint connection. Clients in a virtual network can securely access resources that have private endpoint connections through private links. For more information, visit: https://aka.ms/fhir-privatelink.</t>
-  </si>
-  <si>
-    <t>Azure API for FHIR should use private link</t>
-  </si>
-  <si>
-    <t>e8eef0a8-67cf-4eb4-9386-14b0e78733d4</t>
-  </si>
-  <si>
-    <t>Azure Private Link lets you connect your virtual network to Azure services without a public IP address at the source or destination. The private link platform handles the connectivity between the consumer and services over the Azure backbone network.By mapping private endpoints to your container registries instead of the entire service, you'll also be protected against data leakage risks. Learn more at: https://aka.ms/acr/private-link.</t>
-  </si>
-  <si>
-    <t>Container registries should use private link</t>
-  </si>
-  <si>
-    <t>4fa4b6c0-31ca-4c0d-b10d-24b96f62a751</t>
-  </si>
-  <si>
-    <t>Anonymous public read access to containers and blobs in Azure Storage is a convenient way to share data but might present security risks. To prevent data breaches caused by undesired anonymous access, Microsoft recommends preventing public access to a storage account unless your scenario requires it.</t>
-  </si>
-  <si>
-    <t>[Preview]: Storage account public access should be disallowed</t>
-  </si>
-  <si>
-    <t>e71308d3-144b-4262-b144-efdc3cc90517</t>
-  </si>
-  <si>
-    <t>Protect your subnet from potential threats by restricting access to it with a Network Security Group (NSG). NSGs contain a list of Access Control List (ACL) rules that allow or deny network traffic to your subnet.</t>
-  </si>
-  <si>
-    <t>Subnets should be associated with a Network Security Group</t>
-  </si>
-  <si>
-    <t>ee980b6d-0eca-4501-8d54-f6290fd512c3</t>
-  </si>
-  <si>
-    <t>Disabling public network access improves security by ensuring that your Azure Cognitive Search service is not exposed on the public internet. Creating private endpoints can limit exposure of your Search service. Learn more at: https://aka.ms/azure-cognitive-search/inbound-private-endpoints.</t>
-  </si>
-  <si>
-    <t>Azure Cognitive Search services should disable public network access</t>
-  </si>
-  <si>
-    <t>f39f5f49-4abf-44de-8c70-0756997bfb51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Azure Private Link lets you connect your virtual network to Azure services without a public IP address at the source or destination. The Private Link platform handles the connectivity between the consumer and services over the Azure backbone network. By mapping private endpoints to diskAccesses, data leakage risks are reduced. Learn more about private links at: https://aka.ms/disksprivatelinksdoc. </t>
-  </si>
-  <si>
-    <t>Disk access resources should use private link</t>
-  </si>
-  <si>
-    <t>22730e10-96f6-4aac-ad84-9383d35b5917</t>
-  </si>
-  <si>
-    <t>Open remote management ports are exposing your VM to a high level of risk from Internet-based attacks. These attacks attempt to brute force credentials to gain admin access to the machine.</t>
-  </si>
-  <si>
-    <t>Management ports should be closed on your virtual machines</t>
-  </si>
-  <si>
-    <t>f6de0be7-9a8a-4b8a-b349-43cf02d22f7c</t>
-  </si>
-  <si>
-    <t>Protect your virtual machines from potential threats by restricting access to them with network security groups (NSG). Learn more about controlling traffic with NSGs at https://aka.ms/nsg-doc</t>
-  </si>
-  <si>
-    <t>Internet-facing virtual machines should be protected with network security groups</t>
-  </si>
-  <si>
-    <t>2a1a9cdf-e04d-429a-8416-3bfb72a1b26f</t>
-  </si>
-  <si>
-    <t>Protect your storage accounts from potential threats using virtual network rules as a preferred method instead of IP-based filtering. Disabling IP-based filtering prevents public IPs from accessing your storage accounts.</t>
-  </si>
-  <si>
-    <t>Storage accounts should restrict network access using virtual network rules</t>
-  </si>
-  <si>
-    <t>fdccbe47-f3e3-4213-ad5d-ea459b2fa077</t>
-  </si>
-  <si>
-    <t>Disable the public network access property to improve security and ensure your Azure Database for MariaDB can only be accessed from a private endpoint. This configuration strictly disables access from any public address space outside of Azure IP range, and denies all logins that match IP or virtual network-based firewall rules.</t>
-  </si>
-  <si>
-    <t>Public network access should be disabled for MariaDB servers</t>
-  </si>
-  <si>
-    <t>037eea7a-bd0a-46c5-9a66-03aea78705d3</t>
-  </si>
-  <si>
-    <t>Network access to Cognitive Services accounts should be restricted. Configure network rules so only applications from allowed networks can access the Cognitive Services account. To allow connections from specific internet or on-premises clients, access can be granted to traffic from specific Azure virtual networks or to public internet IP address ranges.</t>
-  </si>
-  <si>
-    <t>Cognitive Services accounts should restrict network access</t>
-  </si>
-  <si>
-    <t>0564d078-92f5-4f97-8398-b9f58a51f70b</t>
-  </si>
-  <si>
-    <t>Private endpoint connections enforce secure communication by enabling private connectivity to Azure Database for PostgreSQL. Configure a private endpoint connection to enable access to traffic coming only from known networks and prevent access from all other IP addresses, including within Azure.</t>
-  </si>
-  <si>
-    <t>Private endpoint should be enabled for PostgreSQL servers</t>
-  </si>
-  <si>
-    <t>0725b4dd-7e76-479c-a735-68e7ee23d5ca</t>
-  </si>
-  <si>
-    <t>To improve the security of Cognitive Services accounts, ensure that it isn't exposed to the public internet and can only be accessed from a private endpoint. Disable the public network access property as described in https://go.microsoft.com/fwlink/?linkid=2129800. This option disables access from any public address space outside the Azure IP range, and denies all logins that match IP or virtual network-based firewall rules. This reduces data leakage risks.</t>
-  </si>
-  <si>
-    <t>Cognitive Services accounts should disable public network access</t>
-  </si>
-  <si>
-    <t>08e6af2d-db70-460a-bfe9-d5bd474ba9d6</t>
-  </si>
-  <si>
-    <t>Azure Security Center analyzes the traffic patterns of Internet facing virtual machines and provides Network Security Group rule recommendations that reduce the potential attack surface</t>
-  </si>
-  <si>
-    <t>Adaptive network hardening recommendations should be applied on internet facing virtual machines</t>
-  </si>
-  <si>
-    <t>0a1302fb-a631-4106-9753-f3d494733990</t>
-  </si>
-  <si>
-    <t>Private endpoint connections enforce secure communication by enabling private connectivity to Azure Database for MariaDB. Configure a private endpoint connection to enable access to traffic coming only from known networks and prevent access from all other IP addresses, including within Azure.</t>
-  </si>
-  <si>
-    <t>Private endpoint should be enabled for MariaDB servers</t>
-  </si>
-  <si>
-    <t>0e246bcf-5f6f-4f87-bc6f-775d4712c7ea</t>
-  </si>
-  <si>
-    <t>Restrict access to the Kubernetes Service Management API by granting API access only to IP addresses in specific ranges. It is recommended to limit access to authorized IP ranges to ensure that only applications from allowed networks can access the cluster.</t>
-  </si>
-  <si>
-    <t>Authorized IP ranges should be defined on Kubernetes Services</t>
-  </si>
-  <si>
-    <t>0fda3595-9f2b-4592-8675-4231d6fa82fe</t>
-  </si>
-  <si>
-    <t>Azure Private Link lets you connect your virtual network to Azure services without a public IP address at the source or destination. The Private Link platform handles the connectivity between the consumer and services over the Azure backbone network. By mapping private endpoints to Azure Cognitive Search, data leakage risks are reduced. Learn more about private links at: https://aka.ms/azure-cognitive-search/inbound-private-endpoints.</t>
-  </si>
-  <si>
-    <t>Azure Cognitive Search services should use private link</t>
-  </si>
-  <si>
-    <t>1b8ca024-1d5c-4dec-8995-b1a932b41780</t>
-  </si>
-  <si>
-    <t>Disabling the public network access property improves security by ensuring your Azure SQL Database can only be accessed from a private endpoint. This configuration denies all logins that match IP or virtual network based firewall rules.</t>
-  </si>
-  <si>
-    <t>Public network access on Azure SQL Database should be disabled</t>
-  </si>
-  <si>
-    <t>1c06e275-d63d-4540-b761-71f364c2111d</t>
-  </si>
-  <si>
-    <t>Azure Private Link lets you connect your virtual network to Azure services without a public IP address at the source or destination. The Private Link platform handles the connectivity between the consumer and services over the Azure backbone network. By mapping private endpoints to Service Bus namespaces, data leakage risks are reduced. Learn more at: https://docs.microsoft.com/azure/service-bus-messaging/private-link-service.</t>
-  </si>
-  <si>
-    <t>Azure Service Bus namespaces should use private link</t>
-  </si>
-  <si>
-    <t>1d320205-c6a1-4ac6-873d-46224024e8e2</t>
-  </si>
-  <si>
-    <t>Creating a private endpoint for the indicated Storage Sync Service resource allows you to address your Storage Sync Service resource from within the private IP address space of your organization's network, rather than through the internet-accessible public endpoint. Creating a private endpoint by itself does not disable the public endpoint.</t>
-  </si>
-  <si>
-    <t>Azure File Sync should use private link</t>
-  </si>
-  <si>
-    <t>df39c015-56a4-45de-b4a3-efe77bed320d</t>
-  </si>
-  <si>
-    <t>Azure Private Link lets you connect your virtual network to Azure services without a public IP address at the source or destination. The Private Link platform handles the connectivity between the consumer and services over the Azure backbone network. By mapping private endpoints to the IoT Hub device provisioning service, data leakage risks are reduced. Learn more about private links at: https://aka.ms/iotdpsvnet.</t>
-  </si>
-  <si>
-    <t>IoT Hub device provisioning service instances should use private link</t>
-  </si>
-  <si>
-    <t>564feb30-bf6a-4854-b4bb-0d2d2d1e6c66</t>
-  </si>
-  <si>
-    <t>Deploy Azure Web Application Firewall (WAF) in front of public facing web applications for additional inspection of incoming traffic. Web Application Firewall (WAF) provides centralized protection of your web applications from common exploits and vulnerabilities such as SQL injections, Cross-Site Scripting, local and remote file executions. You can also restrict access to your web applications by countries, IP address ranges, and other http(s) parameters via custom rules.</t>
-  </si>
-  <si>
-    <t>Web Application Firewall (WAF) should be enabled for Application Gateway</t>
-  </si>
-  <si>
-    <t>d9844e8a-1437-4aeb-a32c-0c992f056095</t>
-  </si>
-  <si>
-    <t>Disable the public network access property to improve security and ensure your Azure Database for MySQL can only be accessed from a private endpoint. This configuration strictly disables access from any public address space outside of Azure IP range, and denies all logins that match IP or virtual network-based firewall rules.</t>
-  </si>
-  <si>
-    <t>Public network access should be disabled for MySQL servers</t>
-  </si>
-  <si>
-    <t>7595c971-233d-4bcf-bd18-596129188c49</t>
-  </si>
-  <si>
-    <t>Private endpoint connections enforce secure communication by enabling private connectivity to Azure Database for MySQL. Configure a private endpoint connection to enable access to traffic coming only from known networks and prevent access from all other IP addresses, including within Azure.</t>
-  </si>
-  <si>
-    <t>Private endpoint should be enabled for MySQL servers</t>
-  </si>
-  <si>
-    <t>7698e800-9299-47a6-b3b6-5a0fee576eed</t>
-  </si>
-  <si>
-    <t>Private endpoint connections enforce secure communication by enabling private connectivity to Azure SQL Database.</t>
-  </si>
-  <si>
-    <t>Private endpoint connections on Azure SQL Database should be enabled</t>
-  </si>
-  <si>
-    <t>7803067c-7d34-46e3-8c79-0ca68fc4036d</t>
-  </si>
-  <si>
-    <t>Private endpoints lets you connect your virtual network to Azure services without a public IP address at the source or destination. By mapping private endpoints to your Azure Cache for Redis instances, data leakage risks are reduced. Learn more at: https://docs.microsoft.com/azure/azure-cache-for-redis/cache-private-link.</t>
-  </si>
-  <si>
-    <t>Azure Cache for Redis should use private link</t>
-  </si>
-  <si>
-    <t>862e97cf-49fc-4a5c-9de4-40d4e2e7c8eb</t>
-  </si>
-  <si>
-    <t>Firewall rules should be defined on your Azure Cosmos DB accounts to prevent traffic from unauthorized sources. Accounts that have at least one IP rule defined with the virtual network filter enabled are deemed compliant. Accounts disabling public access are also deemed compliant.</t>
-  </si>
-  <si>
-    <t>Azure Cosmos DB accounts should have firewall rules</t>
-  </si>
-  <si>
-    <t>8b0323be-cc25-4b61-935d-002c3798c6ea</t>
-  </si>
-  <si>
-    <t>Azure Private Link lets you connect your virtual network to Azure services without a public IP address at the source or destination. The Private Link platform handles the connectivity between the consumer and services over the Azure backbone network. By mapping private endpoints to Azure Data Factory, data leakage risks are reduced. Learn more about private links at: https://docs.microsoft.com/azure/data-factory/data-factory-private-link.</t>
-  </si>
-  <si>
-    <t>Azure Data Factory should use private link</t>
-  </si>
-  <si>
-    <t>9830b652-8523-49cc-b1b3-e17dce1127ca</t>
-  </si>
-  <si>
-    <t>Azure Private Link lets you connect your virtual network to Azure services without a public IP address at the source or destination. The Private Link platform handles the connectivity between the consumer and services over the Azure backbone network. By mapping private endpoints to your Event Grid domain instead of the entire service, you'll also be protected against data leakage risks. Learn more at: https://aka.ms/privateendpoints.</t>
-  </si>
-  <si>
-    <t>Azure Event Grid domains should use private link</t>
-  </si>
-  <si>
-    <t>72d11df1-dd8a-41f7-8925-b05b960ebafc</t>
-  </si>
-  <si>
-    <t>Azure Private Link lets you connect your virtual network to Azure services without a public IP address at the source or destination. The Private Link platform handles the connectivity between the consumer and services over the Azure backbone network. By mapping private endpoints to Azure Synapse workspace, data leakage risks are reduced. Learn more about private links at: https://docs.microsoft.com/azure/synapse-analytics/security/how-to-connect-to-workspace-with-private-links.</t>
-  </si>
-  <si>
-    <t>Azure Synapse workspaces should use private link</t>
-  </si>
-  <si>
-    <t>6edd7eda-6dd8-40f7-810d-67160c639cd9</t>
-  </si>
-  <si>
-    <t>Azure Private Link lets you connect your virtual network to Azure services without a public IP address at the source or destination. The Private Link platform handles the connectivity between the consumer and services over the Azure backbone network. By mapping private endpoints to your storage account, data leakage risks are reduced. Learn more about private links at - https://aka.ms/azureprivatelinkoverview</t>
-  </si>
-  <si>
-    <t>Storage accounts should use private link</t>
-  </si>
-  <si>
-    <t>a049bf77-880b-470f-ba6d-9f21c530cf83</t>
-  </si>
-  <si>
-    <t>With supported SKUs of Azure Cognitive Search, Azure Private Link lets you connect your virtual network to Azure services without a public IP address at the source or destination. The private link platform handles the connectivity between the consumer and services over the Azure backbone network. By mapping private endpoints to your Search service, data leakage risks are reduced. Learn more at: https://aka.ms/azure-cognitive-search/inbound-private-endpoints.</t>
-  </si>
-  <si>
-    <t>Azure Cognitive Search service should use a SKU that supports private link</t>
-  </si>
-  <si>
-    <t>9daedab3-fb2d-461e-b861-71790eead4f6</t>
-  </si>
-  <si>
-    <t>Azure Security Center has identified some of your network security groups' inbound rules to be too permissive. Inbound rules should not allow access from 'Any' or 'Internet' ranges. This can potentially enable attackers to target your resources.</t>
-  </si>
-  <si>
-    <t>All network ports should be restricted on network security groups associated to your virtual machine</t>
-  </si>
-  <si>
-    <t>b0f33259-77d7-4c9e-aac6-3aabcfae693c</t>
-  </si>
-  <si>
-    <t>Possible network Just In Time (JIT) access will be monitored by Azure Security Center as recommendations</t>
-  </si>
-  <si>
-    <t>Management ports of virtual machines should be protected with just-in-time network access control</t>
-  </si>
-  <si>
-    <t>b52376f7-9612-48a1-81cd-1ffe4b61032c</t>
-  </si>
-  <si>
-    <t>Disable the public network access property to improve security and ensure your Azure Database for PostgreSQL can only be accessed from a private endpoint. This configuration disables access from any public address space outside of Azure IP range, and denies all logins that match IP or virtual network-based firewall rules.</t>
-  </si>
-  <si>
-    <t>Public network access should be disabled for PostgreSQL servers</t>
-  </si>
-  <si>
-    <t>58440f8a-10c5-4151-bdce-dfbaad4a20b7</t>
-  </si>
-  <si>
-    <t>Azure Private Link lets you connect your virtual network to Azure services without a public IP address at the source or destination. The Private Link platform handles the connectivity between the consumer and services over the Azure backbone network. By mapping private endpoints to your CosmosDB account, data leakage risks are reduced. Learn more about private links at: https://docs.microsoft.com/azure/cosmos-db/how-to-configure-private-endpoints.</t>
-  </si>
-  <si>
-    <t>CosmosDB accounts should use private link</t>
-  </si>
-  <si>
-    <t>b8564268-eb4a-4337-89be-a19db070c59d</t>
-  </si>
-  <si>
-    <t>Azure Private Link lets you connect your virtual network to Azure services without a public IP address at the source or destination. The Private Link platform handles the connectivity between the consumer and services over the Azure backbone network. By mapping private endpoints to Event Hub namespaces, data leakage risks are reduced. Learn more at: https://docs.microsoft.com/azure/event-hubs/private-link-service.</t>
-  </si>
-  <si>
-    <t>Event Hub namespaces should use private link</t>
-  </si>
-  <si>
-    <t>bd352bd5-2853-4985-bf0d-73806b4a5744</t>
-  </si>
-  <si>
-    <t>Enabling IP forwarding on a virtual machine's NIC allows the machine to receive traffic addressed to other destinations. IP forwarding is rarely required (e.g., when using the VM as a network virtual appliance), and therefore, this should be reviewed by the network security team.</t>
-  </si>
-  <si>
-    <t>IP Forwarding on your virtual machine should be disabled</t>
-  </si>
-  <si>
-    <t>bb91dfba-c30d-4263-9add-9c2384e659a6</t>
-  </si>
-  <si>
-    <t>Protect your non-internet-facing virtual machines from potential threats by restricting access with network security groups (NSG). Learn more about controlling traffic with NSGs at https://aka.ms/nsg-doc</t>
-  </si>
-  <si>
-    <t>Non-internet-facing virtual machines should be protected with network security groups</t>
-  </si>
-  <si>
-    <t>ca610c1d-041c-4332-9d88-7ed3094967c7</t>
-  </si>
-  <si>
-    <t>Azure Private Link lets you connect your virtual network to Azure services without a public IP address at the source or destination. The private link platform handles the connectivity between the consumer and services over the Azure backbone network. By mapping private endpoints to your app configuration instances instead of the entire service, you'll also be protected against data leakage risks. Learn more at: https://aka.ms/appconfig/private-endpoint.</t>
-  </si>
-  <si>
-    <t>App Configuration should use private link</t>
-  </si>
-  <si>
-    <t>cddd188c-4b82-4c48-a19d-ddf74ee66a01</t>
-  </si>
-  <si>
-    <t>Azure Private Link lets you connect your virtual networks to Azure services without a public IP address at the source or destination. The Private Link platform handles the connectivity between the consumer and services over the Azure backbone network. By mapping private endpoints to Cognitive Services, you'll reduce the potential for data leakage. Learn more about private links at: https://go.microsoft.com/fwlink/?linkid=2129800.</t>
-  </si>
-  <si>
-    <t>Cognitive Services should use private link</t>
-  </si>
-  <si>
-    <t>055aa869-bc98-4af8-bafc-23f1ab6ffe2c</t>
-  </si>
-  <si>
-    <t>Azure Web Application Firewall should be enabled for Azure Front Door entry-points</t>
-  </si>
-  <si>
-    <t>55615ac9-af46-4a59-874e-391cc3dfb490</t>
-  </si>
-  <si>
-    <t>Enable the key vault firewall so that the key vault is not accessible by default to any public IPs. Optionally, you can configure specific IP ranges to limit access to those networks. Learn more at: https://docs.microsoft.com/azure/key-vault/general/network-security</t>
-  </si>
-  <si>
-    <t>Azure Key Vault should have firewall enabled</t>
-  </si>
-  <si>
-    <t>d0793b48-0edc-4296-a390-4c75d1bdfd71</t>
-  </si>
-  <si>
-    <t>Azure container registries by default accept connections over the internet from hosts on any network. To protect your registries from potential threats, allow access from only specific private endpoints, public IP addresses or address ranges. If your registry doesn't have network rules configured, it will appear in the unhealthy resources. Learn more about Container Registry network rules here: https://aka.ms/acr/privatelink, https://aka.ms/acr/portal/public-network and https://aka.ms/acr/vnet.</t>
-  </si>
-  <si>
-    <t>Container registries should not allow unrestricted network access</t>
-  </si>
-  <si>
-    <t>34c877ad-507e-4c82-993e-3452a6e0ad3c</t>
-  </si>
-  <si>
-    <t>Network access to storage accounts should be restricted. Configure network rules so only applications from allowed networks can access the storage account. To allow connections from specific internet or on-premises clients, access can be granted to traffic from specific Azure virtual networks or to public internet IP address ranges</t>
-  </si>
-  <si>
-    <t>Storage accounts should restrict network access</t>
-  </si>
-  <si>
-    <t>2154edb9-244f-4741-9970-660785bccdaa</t>
-  </si>
-  <si>
-    <t>Azure Private Link lets you connect your virtual network to Azure services without a public IP address at the source or destination. The Private Link platform handles the connectivity between the consumer and services over the Azure backbone network. By mapping private endpoints to your VM Image Builder building resources, data leakage risks are reduced. Learn more about private links at: https://docs.microsoft.com/azure/virtual-machines/linux/image-builder-networking#deploy-using-an-existing-vnet.</t>
-  </si>
-  <si>
-    <t>VM Image Builder templates should use private link</t>
-  </si>
-  <si>
-    <t>2b9ad585-36bc-4615-b300-fd4435808332</t>
-  </si>
-  <si>
-    <t>Use a managed identity for enhanced authentication security</t>
-  </si>
-  <si>
-    <t>App Service apps should use managed identity</t>
-  </si>
-  <si>
-    <t>617c02be-7f02-4efd-8836-3180d47b6c68</t>
-  </si>
-  <si>
-    <t>Service Fabric provides three levels of protection (None, Sign and EncryptAndSign) for node-to-node communication using a primary cluster certificate. Set the protection level to ensure that all node-to-node messages are encrypted and digitally signed</t>
-  </si>
-  <si>
-    <t>Service Fabric clusters should have the ClusterProtectionLevel property set to EncryptAndSign</t>
-  </si>
-  <si>
-    <t>1f314764-cb73-4fc9-b863-8eca98ac36e9</t>
-  </si>
-  <si>
-    <t>Audit provisioning of an Azure Active Directory administrator for your SQL server to enable Azure AD authentication. Azure AD authentication enables simplified permission management and centralized identity management of database users and other Microsoft services</t>
-  </si>
-  <si>
-    <t>An Azure Active Directory administrator should be provisioned for SQL servers</t>
-  </si>
-  <si>
-    <t>71ef260a-8f18-47b7-abcb-62d0673d94dc</t>
-  </si>
-  <si>
-    <t>Disabling local authentication methods improves security by ensuring that Cognitive Services accounts require Azure Active Directory identities exclusively for authentication. Learn more at: https://aka.ms/cs/auth.</t>
-  </si>
-  <si>
-    <t>Cognitive Services accounts should have local authentication methods disabled</t>
-  </si>
-  <si>
-    <t>3657f5a0-770e-44a3-b44e-9431ba1e9735</t>
-  </si>
-  <si>
-    <t>It is important to enable encryption of Automation account variable assets when storing sensitive data</t>
-  </si>
-  <si>
-    <t>Automation account variables should be encrypted</t>
-  </si>
-  <si>
-    <t>0da106f2-4ca3-48e8-bc85-c638fe6aea8f</t>
-  </si>
-  <si>
-    <t>Function apps should use managed identity</t>
-  </si>
-  <si>
-    <t>b54ed75b-3e1a-44ac-a333-05ba39b99ff0</t>
-  </si>
-  <si>
-    <t>Audit usage of client authentication only via Azure Active Directory in Service Fabric</t>
-  </si>
-  <si>
-    <t>Service Fabric clusters should only use Azure Active Directory for client authentication</t>
-  </si>
-  <si>
-    <t>fb74e86f-d351-4b8d-b034-93da7391c01f</t>
-  </si>
-  <si>
-    <t>Setting InternalEncryption to true encrypts the pagefile, worker disks, and internal network traffic between the front ends and workers in an App Service Environment. To learn more, refer to https://docs.microsoft.com/azure/app-service/environment/app-service-app-service-environment-custom-settings#enable-internal-encryption.</t>
-  </si>
-  <si>
-    <t>App Service Environment should have internal encryption enabled</t>
-  </si>
-  <si>
-    <t>a451c1ef-c6ca-483d-87ed-f49761e3ffb5</t>
-  </si>
-  <si>
-    <t>Audit built-in roles such as 'Owner, Contributer, Reader' instead of custom RBAC roles, which are error prone. Using custom roles is treated as an exception and requires a rigorous review and threat modeling</t>
-  </si>
-  <si>
-    <t>Audit usage of custom RBAC roles</t>
-  </si>
-  <si>
-    <t>abfb4388-5bf4-4ad7-ba82-2cd2f41ceae9</t>
-  </si>
-  <si>
-    <t>Audit SQL servers without Advanced Data Security</t>
-  </si>
-  <si>
-    <t>Azure Defender for SQL should be enabled for unprotected Azure SQL servers</t>
-  </si>
-  <si>
-    <t>8dfab9c4-fe7b-49ad-85e4-1e9be085358f</t>
-  </si>
-  <si>
-    <t>Microsoft Defender for Cloud extension for Azure Arc provides threat protection for your Arc enabled Kubernetes clusters. The extension collects data from all nodes in the cluster and sends it to the Azure Defender for Kubernetes backend in the cloud for further analysis. Learn more in https://docs.microsoft.com/azure/defender-for-cloud/defender-for-containers-enable?pivots=defender-for-container-arc.</t>
-  </si>
-  <si>
-    <t>[Preview]: Azure Arc enabled Kubernetes clusters should have Microsoft Defender for Cloud extension installed</t>
-  </si>
-  <si>
-    <t>abfb7388-5bf4-4ad7-ba99-2cd2f41cebb9</t>
-  </si>
-  <si>
-    <t>Audit each SQL Managed Instance without advanced data security.</t>
-  </si>
-  <si>
-    <t>Azure Defender for SQL should be enabled for unprotected SQL Managed Instances</t>
-  </si>
-  <si>
-    <t>5f0f936f-2f01-4bf5-b6be-d423792fa562</t>
-  </si>
-  <si>
-    <t>Container image vulnerability assessment scans your registry for security vulnerabilities and exposes detailed findings for each image. Resolving the vulnerabilities can greatly improve your containers' security posture and protect them from attacks.</t>
-  </si>
-  <si>
-    <t>Container registry images should have vulnerability findings resolved</t>
-  </si>
-  <si>
-    <t>1b7aa243-30e4-4c9e-bca8-d0d3022b634a</t>
-  </si>
-  <si>
-    <t>Audit each SQL Managed Instance which doesn't have recurring vulnerability assessment scans enabled. Vulnerability assessment can discover, track, and help you remediate potential database vulnerabilities.</t>
-  </si>
-  <si>
-    <t>Vulnerability assessment should be enabled on SQL Managed Instance</t>
-  </si>
-  <si>
-    <t>ef2a8f2a-b3d9-49cd-a8a8-9a3aaaf647d9</t>
-  </si>
-  <si>
-    <t>Audit Azure SQL servers which do not have vulnerability assessment properly configured. Vulnerability assessment can discover, track, and help you remediate potential database vulnerabilities.</t>
-  </si>
-  <si>
-    <t>Vulnerability assessment should be enabled on your SQL servers</t>
-  </si>
-  <si>
-    <t>a7aca53f-2ed4-4466-a25e-0b45ade68efd</t>
-  </si>
-  <si>
-    <t>DDoS protection standard should be enabled for all virtual networks with a subnet that is part of an application gateway with a public IP.</t>
-  </si>
-  <si>
-    <t>Azure DDoS Protection Standard should be enabled</t>
-  </si>
-  <si>
-    <t>0fc39691-5a3f-4e3e-94ee-2e6447309ad9</t>
-  </si>
-  <si>
-    <t>Container image vulnerability assessment scans container images running on your Kubernetes clusters for security vulnerabilities and exposes detailed findings for each image. Resolving the vulnerabilities can greatly improve your containers' security posture and protect them from attacks.</t>
-  </si>
-  <si>
-    <t>Running container images should have vulnerability findings resolved</t>
-  </si>
-  <si>
-    <t>06a78e20-9358-41c9-923c-fb736d382a4d</t>
-  </si>
-  <si>
-    <t>This policy audits VMs that do not use managed disks</t>
-  </si>
-  <si>
-    <t>Audit VMs that do not use managed disks</t>
-  </si>
-  <si>
-    <t>f6ec09a3-78bf-4f8f-99dc-6c77182d0f99</t>
-  </si>
-  <si>
-    <t>Requires that prerequisites are deployed to the policy assignment scope. For details, visit https://aka.ms/gcpol. Machines are non-compliant if Linux machines that have accounts without passwords</t>
-  </si>
-  <si>
-    <t>Audit Linux machines that have accounts without passwords</t>
-  </si>
-  <si>
-    <t>1d84d5fb-01f6-4d12-ba4f-4a26081d403d</t>
-  </si>
-  <si>
-    <t>Use new Azure Resource Manager for your virtual machines to provide security enhancements such as: stronger access control (RBAC), better auditing, Azure Resource Manager based deployment and governance, access to managed identities, access to key vault for secrets, Azure AD-based authentication and support for tags and resource groups for easier security management</t>
-  </si>
-  <si>
-    <t>Virtual machines should be migrated to new Azure Resource Manager resources</t>
-  </si>
-  <si>
-    <t>ea53dbee-c6c9-4f0e-9f9e-de0039b78023</t>
-  </si>
-  <si>
-    <t>Requires that prerequisites are deployed to the policy assignment scope. For details, visit https://aka.ms/gcpol. Machines are non-compliant if Linux machines that allow remote connections from accounts without passwords</t>
-  </si>
-  <si>
-    <t>Audit Linux machines that allow remote connections from accounts without passwords</t>
-  </si>
-  <si>
-    <t>37e0d2fe-28a5-43d6-a273-67d37d1f5606</t>
-  </si>
-  <si>
-    <t>Use new Azure Resource Manager for your storage accounts to provide security enhancements such as: stronger access control (RBAC), better auditing, Azure Resource Manager based deployment and governance, access to managed identities, access to key vault for secrets, Azure AD-based authentication and support for tags and resource groups for easier security management</t>
-  </si>
-  <si>
-    <t>Storage accounts should be migrated to new Azure Resource Manager resources</t>
-  </si>
-  <si>
-    <t>da0f98fe-a24b-4ad5-af69-bd0400233661</t>
-  </si>
-  <si>
-    <t>Requires that prerequisites are deployed to the policy assignment scope. For details, visit https://aka.ms/gcpol. Machines are non-compliant if Windows machines that do not store passwords using reversible encryption</t>
-  </si>
-  <si>
-    <t>Audit Windows machines that do not store passwords using reversible encryption</t>
-  </si>
-  <si>
-    <t>c95c74d9-38fe-4f0d-af86-0c7d626a315c</t>
-  </si>
-  <si>
-    <t>Audit enabling of resource logs. This enables you to recreate activity trails to use for investigation purposes; when a security incident occurs or when your network is compromised</t>
-  </si>
-  <si>
-    <t>Resource logs in Data Lake Analytics should be enabled</t>
-  </si>
-  <si>
-    <t>057ef27e-665e-4328-8ea3-04b3122bd9fb</t>
-  </si>
-  <si>
-    <t>Resource logs in Azure Data Lake Store should be enabled</t>
-  </si>
-  <si>
-    <t>383856f8-de7f-44a2-81fc-e5135b5c2aa4</t>
-  </si>
-  <si>
-    <t>Resource logs in IoT Hub should be enabled</t>
-  </si>
-  <si>
-    <t>b6e2945c-0b7b-40f5-9233-7a5323b5cdc6</t>
-  </si>
-  <si>
-    <t>Network Watcher is a regional service that enables you to monitor and diagnose conditions at a network scenario level in, to, and from Azure. Scenario level monitoring enables you to diagnose problems at an end to end network level view. It is required to have a network watcher resource group to be created in every region where a virtual network is present. An alert is enabled if a network watcher resource group is not available in a particular region.</t>
-  </si>
-  <si>
-    <t>Network Watcher should be enabled</t>
-  </si>
-  <si>
-    <t>475aae12-b88a-4572-8b36-9b712b2b3a17</t>
-  </si>
-  <si>
-    <t>To monitor for security vulnerabilities and threats, Azure Security Center collects data from your Azure virtual machines. Data is collected by the Log Analytics agent, formerly known as the Microsoft Monitoring Agent (MMA), which reads various security-related configurations and event logs from the machine and copies the data to your Log Analytics workspace for analysis. We recommend enabling auto provisioning to automatically deploy the agent to all supported Azure VMs and any new ones that are created.</t>
-  </si>
-  <si>
-    <t>Auto provisioning of the Log Analytics agent should be enabled on your subscription</t>
-  </si>
-  <si>
-    <t>f9be5368-9bf5-4b84-9e0a-7850da98bb46</t>
-  </si>
-  <si>
-    <t>Resource logs in Azure Stream Analytics should be enabled</t>
-  </si>
-  <si>
-    <t>83a214f7-d01a-484b-91a9-ed54470c9a6a</t>
-  </si>
-  <si>
-    <t>Resource logs in Event Hub should be enabled</t>
-  </si>
-  <si>
-    <t>842c54e8-c2f9-4d79-ae8d-38d8b8019373</t>
-  </si>
-  <si>
-    <t>This policy audits Linux Azure Arc machines if the Log Analytics extension is not installed.</t>
-  </si>
-  <si>
-    <t>[Preview]: Log Analytics extension should be installed on your Linux Azure Arc machines</t>
-  </si>
-  <si>
-    <t>f8d36e2f-389b-4ee4-898d-21aeb69a0f45</t>
-  </si>
-  <si>
-    <t>Resource logs in Service Bus should be enabled</t>
-  </si>
-  <si>
-    <t>d69b1763-b96d-40b8-a2d9-ca31e9fd0d3e</t>
-  </si>
-  <si>
-    <t>This policy audits Windows Azure Arc machines if the Log Analytics extension is not installed.</t>
-  </si>
-  <si>
-    <t>[Preview]: Log Analytics extension should be installed on your Windows Azure Arc machines</t>
-  </si>
-  <si>
-    <t>a3a6ea0c-e018-4933-9ef0-5aaa1501449b</t>
-  </si>
-  <si>
-    <t>Security Center collects data from your Azure virtual machines (VMs) to monitor for security vulnerabilities and threats.</t>
-  </si>
-  <si>
-    <t>Log Analytics agent should be installed on your virtual machine scale sets for Azure Security Center monitoring</t>
-  </si>
-  <si>
-    <t>d26f7642-7545-4e18-9b75-8c9bbdee3a9a</t>
-  </si>
-  <si>
-    <t>The Guest Configuration extension requires a system assigned managed identity. Azure virtual machines in the scope of this policy will be non-compliant when they have the Guest Configuration extension installed but do not have a system assigned managed identity. Learn more at https://aka.ms/gcpol</t>
-  </si>
-  <si>
-    <t>Virtual machines' Guest Configuration extension should be deployed with system-assigned managed identity</t>
-  </si>
-  <si>
-    <t>a4fe33eb-e377-4efb-ab31-0784311bc499</t>
-  </si>
-  <si>
-    <t>This policy audits any Windows/Linux virtual machines (VMs) if the Log Analytics agent is not installed which Security Center uses to monitor for security vulnerabilities and threats</t>
-  </si>
-  <si>
-    <t>Log Analytics agent should be installed on your virtual machine for Azure Security Center monitoring</t>
-  </si>
-  <si>
-    <t>ae89ebca-1c92-4898-ac2c-9f63decb045c</t>
-  </si>
-  <si>
-    <t>To ensure secure configurations of in-guest settings of your machine, install the Guest Configuration extension. In-guest settings that the extension monitors include the configuration of the operating system, application configuration or presence, and environment settings. Once installed, in-guest policies will be available such as 'Windows Exploit guard should be enabled'. Learn more at https://aka.ms/gcpol.</t>
-  </si>
-  <si>
-    <t>Guest Configuration extension should be installed on your machines</t>
-  </si>
-  <si>
-    <t>cf820ca0-f99e-4f3e-84fb-66e913812d21</t>
-  </si>
-  <si>
-    <t>Audit enabling of resource logs. This enables you to recreate activity trails to use for investigation purposes when a security incident occurs or when your network is compromised</t>
-  </si>
-  <si>
-    <t>Resource logs in Key Vault should be enabled</t>
-  </si>
-  <si>
-    <t>b4330a05-a843-4bc8-bf9a-cacce50c67f4</t>
-  </si>
-  <si>
-    <t>Resource logs in Search services should be enabled</t>
-  </si>
-  <si>
-    <t>428256e6-1fac-4f48-a757-df34c2b3336d</t>
-  </si>
-  <si>
-    <t>Resource logs in Batch accounts should be enabled</t>
-  </si>
-  <si>
-    <t>04c4380f-3fae-46e8-96c9-30193528f602</t>
-  </si>
-  <si>
-    <t>Security Center uses the Microsoft Dependency agent to collect network traffic data from your Azure virtual machines to enable advanced network protection features such as traffic visualization on the network map, network hardening recommendations and specific network threats.</t>
-  </si>
-  <si>
-    <t>[Preview]: Network traffic data collection agent should be installed on Linux virtual machines</t>
-  </si>
-  <si>
-    <t>34f95f76-5386-4de7-b824-0d8478470c9d</t>
-  </si>
-  <si>
-    <t>Resource logs in Logic Apps should be enabled</t>
-  </si>
-  <si>
-    <t>7f89b1eb-583c-429a-8828-af049802c1d9</t>
-  </si>
-  <si>
-    <t>Audit diagnostic setting for selected resource types. Be sure to select only resource types which support diagnostics settings.</t>
-  </si>
-  <si>
-    <t>Audit diagnostic setting for selected resource types</t>
-  </si>
-  <si>
-    <t>32133ab0-ee4b-4b44-98d6-042180979d50</t>
-  </si>
-  <si>
-    <t>Reports virtual machines as non-compliant if the virtual machine image is not in the list defined and the extension is not installed.</t>
-  </si>
-  <si>
-    <t>[Preview]: Log Analytics Extension should be enabled for listed virtual machine images</t>
-  </si>
-  <si>
-    <t>a6fb4358-5bf4-4ad7-ba82-2cd2f41ce5e9</t>
-  </si>
-  <si>
-    <t>Auditing on your SQL Server should be enabled to track database activities across all databases on the server and save them in an audit log.</t>
-  </si>
-  <si>
-    <t>Auditing on SQL server should be enabled</t>
-  </si>
-  <si>
-    <t>e2dd799a-a932-4e9d-ac17-d473bc3c6c10</t>
-  </si>
-  <si>
-    <t>Reports virtual machine scale sets as non-compliant if the virtual machine image is not in the list defined and the agent is not installed. The list of OS images is updated over time as support is updated.</t>
-  </si>
-  <si>
-    <t>Dependency agent should be enabled in virtual machine scale sets for listed virtual machine images</t>
-  </si>
-  <si>
-    <t>5c3bc7b8-a64c-4e08-a9cd-7ff0f31e1138</t>
-  </si>
-  <si>
-    <t>Reports virtual machine scale sets as non-compliant if the virtual machine image is not in the list defined and the extension is not installed.</t>
-  </si>
-  <si>
-    <t>Log Analytics extension should be enabled in virtual machine scale sets for listed virtual machine images</t>
-  </si>
-  <si>
-    <t>11ac78e3-31bc-4f0c-8434-37ab963cea07</t>
-  </si>
-  <si>
-    <t>Reports virtual machines as non-compliant if the virtual machine image is not in the list defined and the agent is not installed. The list of OS images is updated over time as support is updated.</t>
-  </si>
-  <si>
-    <t>Dependency agent should be enabled for listed virtual machine images</t>
-  </si>
-  <si>
-    <t>2f2ee1de-44aa-4762-b6bd-0893fc3f306d</t>
-  </si>
-  <si>
-    <t>[Preview]: Network traffic data collection agent should be installed on Windows virtual machines</t>
-  </si>
-  <si>
-    <t>e3e008c3-56b9-4133-8fd7-d3347377402a</t>
-  </si>
-  <si>
-    <t>Multi-Factor Authentication (MFA) should be enabled for all subscription accounts with owner permissions to prevent a breach of accounts or resources.</t>
-  </si>
-  <si>
-    <t>Accounts with owner permissions on Azure resources should be MFA enabled</t>
-  </si>
-  <si>
-    <t>931e118d-50a1-4457-a5e4-78550e086c52</t>
-  </si>
-  <si>
-    <t>Multi-Factor Authentication (MFA) should be enabled for all subscription accounts with write privileges to prevent a breach of accounts or resources.</t>
-  </si>
-  <si>
-    <t>Accounts with write permissions on Azure resources should be MFA enabled</t>
-  </si>
-  <si>
-    <t>81b3ccb4-e6e8-4e4a-8d05-5df25cd29fd4</t>
-  </si>
-  <si>
-    <t>Multi-Factor Authentication (MFA) should be enabled for all subscription accounts with read privileges to prevent a breach of accounts or resources.</t>
-  </si>
-  <si>
-    <t>Accounts with read permissions on Azure resources should be MFA enabled</t>
-  </si>
-  <si>
-    <t>45e05259-1eb5-4f70-9574-baf73e9d219b</t>
-  </si>
-  <si>
-    <t>Azure Private Link lets you connect your virtual network to Azure services without a public IP address at the source or destination. The Private Link platform handles the connectivity between the consumer and services over the Azure backbone network. By mapping private endpoints to Azure Machine Learning workspaces, data leakage risks are reduced. Learn more about private links at: https://docs.microsoft.com/azure/machine-learning/how-to-configure-private-link.</t>
-  </si>
-  <si>
-    <t>Azure Machine Learning workspaces should use private link</t>
-  </si>
-  <si>
-    <t>2393d2cf-a342-44cd-a2e2-fe0188fd1234</t>
-  </si>
-  <si>
-    <t>Azure Private Link lets you connect your virtual network to Azure services without a public IP address at the source or destination. The private link platform handles the connectivity between the consumer and services over the Azure backbone network. By mapping private endpoints to your Azure SignalR Service resource instead of the entire service, you'll reduce your data leakage risks. Learn more about private links at: https://aka.ms/asrs/privatelink.</t>
-  </si>
-  <si>
-    <t>Azure SignalR Service should use private link</t>
-  </si>
-  <si>
-    <t>a6abeaec-4d90-4a02-805f-6b26c4d3fbe9</t>
-  </si>
-  <si>
-    <t>Azure Private Link lets you connect your virtual networks to Azure services without a public IP address at the source or destination. The Private Link platform handles the connectivity between the consumer and services over the Azure backbone network. By mapping private endpoints to key vault, you can reduce data leakage risks. Learn more about private links at: https://aka.ms/akvprivatelink.</t>
-  </si>
-  <si>
-    <t>Azure Key Vaults should use private link</t>
-  </si>
-  <si>
-    <t>eb907f70-7514-460d-92b3-a5ae93b4f917</t>
-  </si>
-  <si>
-    <t>Azure Private Link lets you connect your virtual networks to Azure services without a public IP address at the source or destination. The private link platform handles the connectivity between the consumer and services over the Azure backbone network. By mapping private endpoints to your Azure Web PubSub Service, you can reduce data leakage risks. Learn more about private links at: https://aka.ms/awps/privatelink.</t>
-  </si>
-  <si>
-    <t>Azure Web PubSub Service should use private link</t>
-  </si>
-  <si>
-    <t>0cfea604-3201-4e14-88fc-fae4c427a6c5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deprecated accounts with owner permissions should be removed from your subscription.  Deprecated accounts are accounts that have been blocked from signing in.</t>
-  </si>
-  <si>
-    <t>Blocked accounts with owner permissions on Azure resources should be removed</t>
-  </si>
-  <si>
-    <t>e9ac8f8e-ce22-4355-8f04-99b911d6be52</t>
-  </si>
-  <si>
-    <t>External accounts with read privileges should be removed from your subscription in order to prevent unmonitored access.</t>
-  </si>
-  <si>
-    <t>Guest accounts with read permissions on Azure resources should be removed</t>
-  </si>
-  <si>
-    <t>94e1c2ac-cbbe-4cac-a2b5-389c812dee87</t>
-  </si>
-  <si>
-    <t>External accounts with write privileges should be removed from your subscription in order to prevent unmonitored access.</t>
-  </si>
-  <si>
-    <t>Guest accounts with write permissions on Azure resources should be removed</t>
-  </si>
-  <si>
-    <t>339353f6-2387-4a45-abe4-7f529d121046</t>
-  </si>
-  <si>
-    <t>External accounts with owner permissions should be removed from your subscription in order to prevent unmonitored access.</t>
-  </si>
-  <si>
-    <t>Guest accounts with owner permissions on Azure resources should be removed</t>
-  </si>
-  <si>
-    <t>8d7e1fde-fe26-4b5f-8108-f8e432cbc2be</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deprecated accounts should be removed from your subscriptions.  Deprecated accounts are accounts that have been blocked from signing in.</t>
-  </si>
-  <si>
-    <t>Blocked accounts with read and write permissions on Azure resources should be removed</t>
-  </si>
-  <si>
-    <t>1c30f9cd-b84c-49cc-aa2c-9288447cc3b3</t>
-  </si>
-  <si>
-    <t>Enable virtual TPM device on supported virtual machines to facilitate Measured Boot and other OS security features that require a TPM. Once enabled, vTPM can be used to attest boot integrity. This assessment only applies to trusted launch enabled virtual machines.</t>
-  </si>
-  <si>
-    <t>[Preview]: vTPM should be enabled on supported virtual machines</t>
-  </si>
-  <si>
-    <t>97566dd7-78ae-4997-8b36-1c7bfe0d8121</t>
-  </si>
-  <si>
-    <t>Enable Secure Boot on supported Windows virtual machines to mitigate against malicious and unauthorized changes to the boot chain. Once enabled, only trusted bootloaders, kernel and kernel drivers will be allowed to run. This assessment applies to Trusted Launch and Confidential Windows virtual machines.</t>
-  </si>
-  <si>
-    <t>[Preview]: Secure Boot should be enabled on supported Windows virtual machines</t>
-  </si>
-  <si>
-    <t>672fe5a1-2fcd-42d7-b85d-902b6e28c6ff</t>
-  </si>
-  <si>
-    <t>Install Guest Attestation extension on supported Linux virtual machines to allow Azure Security Center to proactively attest and monitor the boot integrity. Once installed, boot integrity will be attested via Remote Attestation. This assessment applies to Trusted Launch and Confidential Linux virtual machines.</t>
-  </si>
-  <si>
-    <t>[Preview]: Guest Attestation extension should be installed on supported Linux virtual machines</t>
-  </si>
-  <si>
-    <t>a21f8c92-9e22-4f09-b759-50500d1d2dda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Install Guest Attestation extension on supported Linux virtual machines scale sets to allow Azure Security Center to proactively attest and monitor the boot integrity. Once installed, boot integrity will be attested via Remote Attestation.  This assessment applies to Trusted Launch and Confidential Linux virtual machine scale sets.</t>
-  </si>
-  <si>
-    <t>[Preview]: Guest Attestation extension should be installed on supported Linux virtual machines scale sets</t>
-  </si>
-  <si>
-    <t>1cb4d9c2-f88f-4069-bee0-dba239a57b09</t>
-  </si>
-  <si>
-    <t>Install Guest Attestation extension on supported virtual machines to allow Azure Security Center to proactively attest and monitor the boot integrity. Once installed, boot integrity will be attested via Remote Attestation. This assessment applies to Trusted Launch and Confidential Windows virtual machines.</t>
-  </si>
-  <si>
-    <t>[Preview]: Guest Attestation extension should be installed on supported Windows virtual machines</t>
-  </si>
-  <si>
-    <t>f655e522-adff-494d-95c2-52d4f6d56a42</t>
-  </si>
-  <si>
-    <t>Install Guest Attestation extension on supported virtual machines scale sets to allow Azure Security Center to proactively attest and monitor the boot integrity. Once installed, boot integrity will be attested via Remote Attestation. This assessment applies to Trusted Launch and Confidential Windows virtual machine scale sets.</t>
-  </si>
-  <si>
-    <t>[Preview]: Guest Attestation extension should be installed on supported Windows virtual machines scale sets</t>
-  </si>
-  <si>
-    <t>245fc9df-fa96-4414-9a0b-3738c2f7341c</t>
-  </si>
-  <si>
-    <t>Azure Kubernetes Service's resource logs can help recreate activity trails when investigating security incidents. Enable it to make sure the logs will exist when needed</t>
-  </si>
-  <si>
-    <t>Resource logs in Azure Kubernetes Service should be enabled</t>
-  </si>
-  <si>
-    <t>438c38d2-3772-465a-a9cc-7a6666a275ce</t>
-  </si>
-  <si>
-    <t>Disabling public network access improves security by ensuring that the Machine Learning Workspaces aren't exposed on the public internet. You can control exposure of your workspaces by creating private endpoints instead. Learn more at: https://learn.microsoft.com/azure/machine-learning/how-to-configure-private-link?view=azureml-api-2&amp;tabs=azure-portal.</t>
-  </si>
-  <si>
-    <t>Azure Machine Learning Workspaces should disable public network access</t>
-  </si>
-  <si>
-    <t>7804b5c7-01dc-4723-969b-ae300cc07ff1</t>
-  </si>
-  <si>
-    <t>Azure Virtual Networks provide enhanced security and isolation for your Azure Machine Learning Compute Clusters and Instances, as well as subnets, access control policies, and other features to further restrict access. When a compute is configured with a virtual network, it is not publicly addressable and can only be accessed from virtual machines and applications within the virtual network.</t>
-  </si>
-  <si>
-    <t>Azure Machine Learning Computes should be in a virtual network</t>
-  </si>
-  <si>
-    <t>0e7849de-b939-4c50-ab48-fc6b0f5eeba2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disabling public network access improves security by ensuring that the resource isn't exposed on the public internet. You can control exposure of your resources by creating private endpoints instead. Learn more at: https://learn.microsoft.com/azure/databricks/administration-guide/cloud-configurations/azure/private-link. </t>
-  </si>
-  <si>
-    <t>Azure Databricks Workspaces should disable public network access</t>
-  </si>
-  <si>
-    <t>51c1490f-3319-459c-bbbc-7f391bbed753</t>
-  </si>
-  <si>
-    <t>Disabling public IP of clusters in Azure Databricks Workspaces improves security by ensuring that the clusters aren't exposed on the public internet. Learn more at: https://learn.microsoft.com/azure/databricks/security/secure-cluster-connectivity.</t>
-  </si>
-  <si>
-    <t>Azure Databricks Clusters should disable public IP</t>
-  </si>
-  <si>
-    <t>258823f2-4595-4b52-b333-cc96192710d8</t>
-  </si>
-  <si>
-    <t>Azure Private Link lets you connect your virtual networks to Azure services without a public IP address at the source or destination. The Private Link platform handles the connectivity between the consumer and services over the Azure backbone network. By mapping private endpoints to Azure Databricks workspaces, you can reduce data leakage risks. Learn more about private links at: https://aka.ms/adbpe.</t>
-  </si>
-  <si>
-    <t>Azure Databricks Workspaces should use private link</t>
-  </si>
-  <si>
-    <t>0ec47710-77ff-4a3d-9181-6aa50af424d0</t>
-  </si>
-  <si>
-    <t>Azure Database for MariaDB allows you to choose the redundancy option for your database server. It can be set to a geo-redundant backup storage in which the data is not only stored within the region in which your server is hosted, but is also replicated to a paired region to provide recovery option in case of a region failure. Configuring geo-redundant storage for backup is only allowed during server create.</t>
-  </si>
-  <si>
-    <t>Geo-redundant backup should be enabled for Azure Database for MariaDB</t>
-  </si>
-  <si>
-    <t>48af4db5-9b8b-401c-8e74-076be876a430</t>
-  </si>
-  <si>
-    <t>Azure Database for PostgreSQL allows you to choose the redundancy option for your database server. It can be set to a geo-redundant backup storage in which the data is not only stored within the region in which your server is hosted, but is also replicated to a paired region to provide recovery option in case of a region failure. Configuring geo-redundant storage for backup is only allowed during server create.</t>
-  </si>
-  <si>
-    <t>Geo-redundant backup should be enabled for Azure Database for PostgreSQL</t>
-  </si>
-  <si>
-    <t>82339799-d096-41ae-8538-b108becf0970</t>
-  </si>
-  <si>
-    <t>Azure Database for MySQL allows you to choose the redundancy option for your database server. It can be set to a geo-redundant backup storage in which the data is not only stored within the region in which your server is hosted, but is also replicated to a paired region to provide recovery option in case of a region failure. Configuring geo-redundant storage for backup is only allowed during server create.</t>
-  </si>
-  <si>
-    <t>Geo-redundant backup should be enabled for Azure Database for MySQL</t>
-  </si>
-  <si>
-    <t>0a15ec92-a229-4763-bb14-0ea34a568f8d</t>
-  </si>
-  <si>
-    <t>Azure Policy Add-on for Kubernetes service (AKS) extends Gatekeeper v3, an admission controller webhook for Open Policy Agent (OPA), to apply at-scale enforcements and safeguards on your clusters in a centralized, consistent manner.</t>
-  </si>
-  <si>
-    <t>Azure Policy Add-on for Kubernetes service (AKS) should be installed and enabled on your clusters</t>
-  </si>
-  <si>
-    <t>febd0533-8e55-448f-b837-bd0e06f16469</t>
-  </si>
-  <si>
-    <t>Use images from trusted registries to reduce the Kubernetes cluster's exposure risk to unknown vulnerabilities, security issues and malicious images. For more information, see https://aka.ms/kubepolicydoc.</t>
-  </si>
-  <si>
-    <t>Kubernetes cluster containers should only use allowed images</t>
-  </si>
-  <si>
-    <t>95edb821-ddaf-4404-9732-666045e056b4</t>
-  </si>
-  <si>
-    <t>Do not allow privileged containers creation in a Kubernetes cluster. This recommendation is part of CIS 5.2.1 which is intended to improve the security of your Kubernetes environments. This policy is generally available for Kubernetes Service (AKS), and preview for Azure Arc enabled Kubernetes. For more information, see https://aka.ms/kubepolicydoc.</t>
-  </si>
-  <si>
-    <t>Kubernetes cluster should not allow privileged containers</t>
-  </si>
-  <si>
-    <t>233a2a17-77ca-4fb1-9b6b-69223d272a44</t>
-  </si>
-  <si>
-    <t>Restrict services to listen only on allowed ports to secure access to the Kubernetes cluster. This policy is generally available for Kubernetes Service (AKS), and preview for Azure Arc enabled Kubernetes. For more information, see https://aka.ms/kubepolicydoc.</t>
-  </si>
-  <si>
-    <t>Kubernetes cluster services should listen only on allowed ports</t>
-  </si>
-  <si>
-    <t>e345eecc-fa47-480f-9e88-67dcc122b164</t>
-  </si>
-  <si>
-    <t>Enforce container CPU and memory resource limits to prevent resource exhaustion attacks in a Kubernetes cluster. This policy is generally available for Kubernetes Service (AKS), and preview for Azure Arc enabled Kubernetes. For more information, see https://aka.ms/kubepolicydoc.</t>
-  </si>
-  <si>
-    <t>Kubernetes cluster containers CPU and memory resource limits should not exceed the specified limits</t>
-  </si>
-  <si>
-    <t>f06ddb64-5fa3-4b77-b166-acb36f7f6042</t>
-  </si>
-  <si>
-    <t>Control the user, primary group, supplemental group and file system group IDs that pods and containers can use to run in a Kubernetes Cluster. This policy is generally available for Kubernetes Service (AKS), and preview for Azure Arc enabled Kubernetes. For more information, see https://aka.ms/kubepolicydoc.</t>
-  </si>
-  <si>
-    <t>Kubernetes cluster pods and containers should only run with approved user and group IDs</t>
-  </si>
-  <si>
-    <t>1c6e92c9-99f0-4e55-9cf2-0c234dc48f99</t>
-  </si>
-  <si>
-    <t>Do not allow containers to run with privilege escalation to root in a Kubernetes cluster. This recommendation is part of CIS 5.2.5 which is intended to improve the security of your Kubernetes environments. This policy is generally available for Kubernetes Service (AKS), and preview for Azure Arc enabled Kubernetes. For more information, see https://aka.ms/kubepolicydoc.</t>
-  </si>
-  <si>
-    <t>Kubernetes clusters should not allow container privilege escalation</t>
-  </si>
-  <si>
-    <t>47a1ee2f-2a2a-4576-bf2a-e0e36709c2b8</t>
-  </si>
-  <si>
-    <t>Block pod containers from sharing the host process ID namespace and host IPC namespace in a Kubernetes cluster. This recommendation is part of CIS 5.2.2 and CIS 5.2.3 which are intended to improve the security of your Kubernetes environments. This policy is generally available for Kubernetes Service (AKS), and preview for Azure Arc enabled Kubernetes. For more information, see https://aka.ms/kubepolicydoc.</t>
-  </si>
-  <si>
-    <t>Kubernetes cluster containers should not share host process ID or host IPC namespace</t>
-  </si>
-  <si>
-    <t>df49d893-a74c-421d-bc95-c663042e5b80</t>
-  </si>
-  <si>
-    <t>Run containers with a read only root file system to protect from changes at run-time with malicious binaries being added to PATH in a Kubernetes cluster. This policy is generally available for Kubernetes Service (AKS), and preview for Azure Arc enabled Kubernetes. For more information, see https://aka.ms/kubepolicydoc.</t>
-  </si>
-  <si>
-    <t>Kubernetes cluster containers should run with a read only root file system</t>
-  </si>
-  <si>
-    <t>c26596ff-4d70-4e6a-9a30-c2506bd2f80c</t>
-  </si>
-  <si>
-    <t>Restrict the capabilities to reduce the attack surface of containers in a Kubernetes cluster. This recommendation is part of CIS 5.2.8 and CIS 5.2.9 which are intended to improve the security of your Kubernetes environments. This policy is generally available for Kubernetes Service (AKS), and preview for Azure Arc enabled Kubernetes. For more information, see https://aka.ms/kubepolicydoc.</t>
-  </si>
-  <si>
-    <t>Kubernetes cluster containers should only use allowed capabilities</t>
-  </si>
-  <si>
-    <t>511f5417-5d12-434d-ab2e-816901e72a5e</t>
-  </si>
-  <si>
-    <t>Containers should only use allowed AppArmor profiles in a Kubernetes cluster. This policy is generally available for Kubernetes Service (AKS), and preview for Azure Arc enabled Kubernetes. For more information, see https://aka.ms/kubepolicydoc.</t>
-  </si>
-  <si>
-    <t>Kubernetes cluster containers should only use allowed AppArmor profiles</t>
-  </si>
-  <si>
-    <t>82985f06-dc18-4a48-bc1c-b9f4f0098cfe</t>
-  </si>
-  <si>
-    <t>Restrict pod access to the host network and the allowable host port range in a Kubernetes cluster. This recommendation is part of CIS 5.2.4 which is intended to improve the security of your Kubernetes environments. This policy is generally available for Kubernetes Service (AKS), and preview for Azure Arc enabled Kubernetes. For more information, see https://aka.ms/kubepolicydoc.</t>
-  </si>
-  <si>
-    <t>Kubernetes cluster pods should only use approved host network and port range</t>
-  </si>
-  <si>
-    <t>098fc59e-46c7-4d99-9b16-64990e543d75</t>
-  </si>
-  <si>
-    <t>Limit pod HostPath volume mounts to the allowed host paths in a Kubernetes Cluster. This policy is generally available for Kubernetes Service (AKS), and Azure Arc enabled Kubernetes. For more information, see https://aka.ms/kubepolicydoc.</t>
-  </si>
-  <si>
-    <t>Kubernetes cluster pod hostPath volumes should only use allowed host paths</t>
-  </si>
-  <si>
-    <t>9f061a12-e40d-4183-a00e-171812443373</t>
-  </si>
-  <si>
-    <t>Prevent usage of the default namespace in Kubernetes clusters to protect against unauthorized access for ConfigMap, Pod, Secret, Service, and ServiceAccount resource types. For more information, see https://aka.ms/kubepolicydoc.</t>
-  </si>
-  <si>
-    <t>Kubernetes clusters should not use the default namespace</t>
-  </si>
-  <si>
-    <t>423dd1ba-798e-40e4-9c4d-b6902674b423</t>
-  </si>
-  <si>
-    <t>Disable automounting API credentials to prevent a potentially compromised Pod resource to run API commands against Kubernetes clusters. For more information, see https://aka.ms/kubepolicydoc.</t>
-  </si>
-  <si>
-    <t>Kubernetes clusters should disable automounting API credentials</t>
-  </si>
-  <si>
-    <t>d2e7ea85-6b44-4317-a0be-1b951587f626</t>
-  </si>
-  <si>
-    <t>To reduce the attack surface of your containers, restrict CAP_SYS_ADMIN Linux capabilities. For more information, see https://aka.ms/kubepolicydoc.</t>
-  </si>
-  <si>
-    <t>Kubernetes clusters should not grant CAP_SYS_ADMIN security capabilities</t>
-  </si>
-  <si>
-    <t>ac4a19c2-fa67-49b4-8ae5-0b2e78c49457</t>
-  </si>
-  <si>
-    <t>To provide granular filtering on the actions that users can perform, use Azure Role-Based Access Control (RBAC) to manage permissions in Kubernetes Service Clusters and configure relevant authorization policies.</t>
-  </si>
-  <si>
-    <t>Azure Role-Based Access Control (RBAC) should be used on Kubernetes Services</t>
-  </si>
-  <si>
-    <t>9c25c9e4-ee12-4882-afd2-11fb9d87893f</t>
-  </si>
-  <si>
-    <t>Azure Virtual Networks provide enhanced security and isolation for your Azure Databricks Workspaces, as well as subnets, access control policies, and other features to further restrict access. Learn more at: https://docs.microsoft.com/azure/databricks/administration-guide/cloud-configurations/azure/vnet-inject.</t>
-  </si>
-  <si>
-    <t>Azure Databricks Workspaces should be in a virtual network</t>
-  </si>
-  <si>
-    <t>0e60b895-3786-45da-8377-9c6b4b6ac5f9</t>
-  </si>
-  <si>
-    <t>Remote debugging requires inbound ports to be opened on Function apps. Remote debugging should be turned off.</t>
-  </si>
-  <si>
-    <t>Function apps should have remote debugging turned off</t>
-  </si>
-  <si>
-    <t>cb510bfd-1cba-4d9f-a230-cb0976f4bb71</t>
-  </si>
-  <si>
-    <t>Remote debugging requires inbound ports to be opened on an App Service app. Remote debugging should be turned off.</t>
-  </si>
-  <si>
-    <t>App Service apps should have remote debugging turned off</t>
-  </si>
-  <si>
-    <t>0820b7b9-23aa-4725-a1ce-ae4558f718e5</t>
-  </si>
-  <si>
-    <t>Cross-Origin Resource Sharing (CORS) should not allow all domains to access your Function app. Allow only required domains to interact with your Function app.</t>
-  </si>
-  <si>
-    <t>Function apps should not have CORS configured to allow every resource to access your apps</t>
-  </si>
-  <si>
-    <t>5744710e-cc2f-4ee8-8809-3b11e89f4bc9</t>
-  </si>
-  <si>
-    <t>Cross-Origin Resource Sharing (CORS) should not allow all domains to access your app. Allow only required domains to interact with your app.</t>
-  </si>
-  <si>
-    <t>App Service apps should not have CORS configured to allow every resource to access your apps</t>
-  </si>
-  <si>
-    <t>6ba6d016-e7c3-4842-b8f2-4992ebc0d72d</t>
-  </si>
-  <si>
-    <t>SQL vulnerability assessment scans your database for security vulnerabilities, and exposes any deviations from best practices such as misconfigurations, excessive permissions, and unprotected sensitive data. Resolving the vulnerabilities found can greatly improve your database security posture.</t>
-  </si>
-  <si>
-    <t>SQL servers on machines should have vulnerability findings resolved</t>
-  </si>
-  <si>
-    <t>e8cbc669-f12d-49eb-93e7-9273119e9933</t>
-  </si>
-  <si>
-    <t>Audit vulnerabilities in security configuration on machines with Docker installed and display as recommendations in Azure Security Center.</t>
-  </si>
-  <si>
-    <t>Vulnerabilities in container security configurations should be remediated</t>
-  </si>
-  <si>
-    <t>4f4f78b8-e367-4b10-a341-d9a4ad5cf1c7</t>
-  </si>
-  <si>
-    <t>To ensure the relevant people in your organization are notified when there is a potential security breach in one of your subscriptions, set a security contact to receive email notifications from Security Center.</t>
-  </si>
-  <si>
-    <t>Subscriptions should have a contact email address for security issues</t>
-  </si>
-  <si>
-    <t>6e2593d9-add6-4083-9c9b-4b7d2188c899</t>
-  </si>
-  <si>
-    <t>To ensure the relevant people in your organization are notified when there is a potential security breach in one of your subscriptions, enable email notifications for high severity alerts in Security Center.</t>
-  </si>
-  <si>
-    <t>Email notification for high severity alerts should be enabled</t>
-  </si>
-  <si>
-    <t>0b15565f-aa9e-48ba-8619-45960f2c314d</t>
-  </si>
-  <si>
-    <t>To ensure your subscription owners are notified when there is a potential security breach in their subscription, set email notifications to subscription owners for high severity alerts in Security Center.</t>
-  </si>
-  <si>
-    <t>Email notification to subscription owner for high severity alerts should be enabled</t>
-  </si>
-  <si>
-    <t>91a78b24-f231-4a8a-8da9-02c35b2b6510</t>
-  </si>
-  <si>
-    <t>Audit enabling of resource logs on the app. This enables you to recreate activity trails for investigation purposes if a security incident occurs or your network is compromised.</t>
-  </si>
-  <si>
-    <t>App Service apps should have resource logs enabled</t>
-  </si>
-  <si>
-    <t>afe0c3be-ba3b-4544-ba52-0c99672a8ad6</t>
-  </si>
-  <si>
-    <t>Resource logs enable recreating activity trails to use for investigation purposes when a security incident occurs or when your network is compromised.</t>
-  </si>
-  <si>
-    <t>Resource logs in Azure Machine Learning Workspaces should be enabled</t>
-  </si>
-  <si>
-    <t>138ff14d-b687-4faa-a81c-898c91a87fa2</t>
-  </si>
-  <si>
-    <t>Resource logs in Azure Databricks Workspaces should be enabled</t>
-  </si>
-  <si>
-    <t>5bb220d9-2698-4ee4-8404-b9c30c9df609</t>
-  </si>
-  <si>
-    <t>Client certificates allow for the app to request a certificate for incoming requests. Only clients that have a valid certificate will be able to reach the app. This policy has been replaced by a new policy with the same name because Http 2.0 doesn't support client certificates.</t>
-  </si>
-  <si>
-    <t>[Deprecated]: App Service apps should have 'Client Certificates (Incoming client certificates)' enabled</t>
+    <t>b4dec045-250a-48c2-b5cc-e0c4eec8b5b4</t>
+  </si>
+  <si>
+    <t>Audit provisioning of a Microsoft Entra administrator for your PostgreSQL server to enable Microsoft Entra authentication. Microsoft Entra authentication enables simplified permission management and centralized identity management of database users and other Microsoft services</t>
+  </si>
+  <si>
+    <t>A Microsoft Entra administrator should be provisioned for PostgreSQL servers</t>
   </si>
   <si>
     <t>eaebaea7-8013-4ceb-9d14-7eb32271373c</t>
@@ -2255,127 +2429,58 @@
     <t>[Deprecated]: Function apps should have 'Client Certificates (Incoming client certificates)' enabled</t>
   </si>
   <si>
-    <t>89099bee-89e0-4b26-a5f4-165451757743</t>
-  </si>
-  <si>
-    <t>For incident investigation purposes, we recommend setting the data retention for your SQL Server' auditing to storage account destination to at least 90 days. Confirm that you are meeting the necessary retention rules for the regions in which you are operating. This is sometimes required for compliance with regulatory standards.</t>
-  </si>
-  <si>
-    <t>SQL servers with auditing to storage account destination should be configured with 90 days retention or higher</t>
-  </si>
-  <si>
-    <t>e96a9a5f-07ca-471b-9bc5-6a0f33cbd68f</t>
-  </si>
-  <si>
-    <t>Disabling local authentication methods improves security by ensuring that Machine Learning Computes require Azure Active Directory identities exclusively for authentication. Learn more at: https://aka.ms/azure-ml-aad-policy.</t>
-  </si>
-  <si>
-    <t>Azure Machine Learning Computes should have local authentication methods disabled</t>
-  </si>
-  <si>
-    <t>f110a506-2dcb-422e-bcea-d533fc8c35e2</t>
-  </si>
-  <si>
-    <t>Ensure Azure Machine Learning compute instances run on the latest available operating system. Security is improved and vulnerabilities reduced by running with the latest security patches. For more information, visit https://aka.ms/azureml-ci-updates/.</t>
-  </si>
-  <si>
-    <t>Azure Machine Learning compute instances should be recreated to get the latest software updates</t>
-  </si>
-  <si>
-    <t>090c7b07-b4ed-4561-ad20-e9075f3ccaff</t>
-  </si>
-  <si>
-    <t>Container image vulnerability assessment scans your registry for commonly known vulnerabilities (CVEs) and provides a detailed vulnerability report for each image. Resolving vulnerabilities can greatly improve your security posture, ensuring images are safe to use prior to deployment.</t>
-  </si>
-  <si>
-    <t>Container registry images should have vulnerability findings resolved (powered by Microsoft Defender Vulnerability Management)</t>
-  </si>
-  <si>
-    <t>onlyInMSBaseline</t>
-  </si>
-  <si>
-    <t>17f4b1cc-c55c-4d94-b1f9-2978f6ac2957</t>
-  </si>
-  <si>
-    <t>Container image vulnerability assessment scans your registry for commonly known vulnerabilities (CVEs) and provides a detailed vulnerability report for each image. This recommendation provides visibility to vulnerable images currently running in your Kubernetes clusters. Remediating vulnerabilities in container images that are currently running is key to improving your security posture, significantly reducing the attack surface for your containerized workloads.</t>
-  </si>
-  <si>
-    <t>Running container images should have vulnerability findings resolved (powered by Microsoft Defender Vulnerability Management)</t>
-  </si>
-  <si>
-    <t>47a6b606-51aa-4496-8bb7-64b11cf66adc</t>
-  </si>
-  <si>
-    <t>Enable application controls to define the list of known-safe applications running on your machines, and alert you when other applications run. This helps harden your machines against malware. To simplify the process of configuring and maintaining your rules, Security Center uses machine learning to analyze the applications running on each machine and suggest the list of known-safe applications.</t>
-  </si>
-  <si>
-    <t>Adaptive application controls for defining safe applications should be enabled on your machines</t>
-  </si>
-  <si>
-    <t>123a3936-f020-408a-ba0c-47873faf1534</t>
-  </si>
-  <si>
-    <t>Monitor for changes in behavior on groups of machines configured for auditing by Azure Security Center's adaptive application controls. Security Center uses machine learning to analyze the running processes on your machines and suggest a list of known-safe applications. These are presented as recommended apps to allow in adaptive application control policies.</t>
-  </si>
-  <si>
-    <t>Allowlist rules in your adaptive application control policy should be updated</t>
-  </si>
-  <si>
-    <t>9df61aa2-b10c-4efe-aae0-295cc936930b</t>
-  </si>
-  <si>
-    <t>19dd1db6-f442-49cf-a838-b0786b4401ef</t>
-  </si>
-  <si>
-    <t>Client certificates allow for the app to request a certificate for incoming requests. Only clients that have a valid certificate will be able to reach the app. This policy applies to apps with Http version set to 1.1.</t>
-  </si>
-  <si>
-    <t>App Service apps should have Client Certificates (Incoming client certificates) enabled</t>
-  </si>
-  <si>
-    <t>797b37f7-06b8-444c-b1ad-fc62867f335a</t>
-  </si>
-  <si>
-    <t>Disabling public network access improves security by ensuring that your CosmosDB account isn't exposed on the public internet. Creating private endpoints can limit exposure of your CosmosDB account. Learn more at: https://docs.microsoft.com/azure/cosmos-db/how-to-configure-private-endpoints#blocking-public-network-access-during-account-creation.</t>
-  </si>
-  <si>
-    <t>Azure Cosmos DB should disable public network access</t>
-  </si>
-  <si>
-    <t>21a6bc25-125e-4d13-b82d-2e19b7208ab7</t>
-  </si>
-  <si>
-    <t>Disabling local authentication methods improves security by ensuring that VPN Gateways use only Azure Active Directory identities for authentication. Learn more about Azure AD authentication at https://docs.microsoft.com/azure/vpn-gateway/openvpn-azure-ad-tenant</t>
-  </si>
-  <si>
-    <t>VPN gateways should use only Azure Active Directory (Azure AD) authentication for point-to-site users</t>
-  </si>
-  <si>
-    <t>32e6bbec-16b6-44c2-be37-c5b672d103cf</t>
-  </si>
-  <si>
-    <t>Setting TLS version to 1.2 or newer improves security by ensuring your Azure SQL Database can only be accessed from clients using TLS 1.2 or newer. Using versions of TLS less than 1.2 is not recommended since they have well documented security vulnerabilities.</t>
-  </si>
-  <si>
-    <t>Azure SQL Database should be running TLS version 1.2 or newer</t>
-  </si>
-  <si>
-    <t>9dfea752-dd46-4766-aed1-c355fa93fb91</t>
-  </si>
-  <si>
-    <t>Disabling public network access (public endpoint) on Azure SQL Managed Instances improves security by ensuring that they can only be accessed from inside their virtual networks or via Private Endpoints. To learn more about public network access, visit https://aka.ms/mi-public-endpoint.</t>
-  </si>
-  <si>
-    <t>Azure SQL Managed Instances should disable public network access</t>
-  </si>
-  <si>
-    <t>8c6a50c6-9ffd-4ae7-986f-5fa6111f9a54</t>
-  </si>
-  <si>
-    <t>Audit requirement of Azure Active Directory (Azure AD) to authorize requests for your storage account. By default, requests can be authorized with either Azure Active Directory credentials, or by using the account access key for Shared Key authorization. Of these two types of authorization, Azure AD provides superior security and ease of use over Shared Key, and is recommended by Microsoft.</t>
-  </si>
-  <si>
-    <t>Storage accounts should prevent shared key access</t>
+    <t>abda6d70-9778-44e7-84a8-06713e6db027</t>
+  </si>
+  <si>
+    <t>Require Azure SQL logical servers to be created with Microsoft Entra-only authentication. This policy doesn't block local authentication from being re-enabled on resources after create. Consider using the 'Microsoft Entra-only authentication' initiative instead to require both. Learn more at: https://aka.ms/adonlycreate.</t>
+  </si>
+  <si>
+    <t>Azure SQL Database should have Microsoft Entra-only authentication enabled during creation</t>
+  </si>
+  <si>
+    <t>b3a22bc9-66de-45fb-98fa-00f5df42f41a</t>
+  </si>
+  <si>
+    <t>Require Azure SQL logical servers to use Microsoft Entra-only authentication. This policy doesn't block servers from being created with local authentication enabled. It does block local authentication from being enabled on resources after create. Consider using the 'Microsoft Entra-only authentication' initiative instead to require both. Learn more at: https://aka.ms/adonlycreate.</t>
+  </si>
+  <si>
+    <t>Azure SQL Database should have Microsoft Entra-only authentication enabled</t>
+  </si>
+  <si>
+    <t>78215662-041e-49ed-a9dd-5385911b3a1f</t>
+  </si>
+  <si>
+    <t>Require Azure SQL Managed Instance to be created with Microsoft Entra-only authentication. This policy doesn't block local authentication from being re-enabled on resources after create. Consider using the 'Microsoft Entra-only authentication' initiative instead to require both. Learn more at: https://aka.ms/adonlycreate.</t>
+  </si>
+  <si>
+    <t>Azure SQL Managed Instances should have Microsoft Entra-only authentication enabled during creation</t>
+  </si>
+  <si>
+    <t>0c28c3fb-c244-42d5-a9bf-f35f2999577b</t>
+  </si>
+  <si>
+    <t>Require Azure SQL Managed Instance to use Microsoft Entra-only authentication. This policy doesn't block Azure SQL Managed instances from being created with local authentication enabled. It does block local authentication from being enabled on resources after create. Consider using the 'Microsoft Entra-only authentication' initiative instead to require both. Learn more at: https://aka.ms/adonlycreate.</t>
+  </si>
+  <si>
+    <t>Azure SQL Managed Instance should have Microsoft Entra-only authentication enabled</t>
+  </si>
+  <si>
+    <t>2158ddbe-fefa-408e-b43f-d4faef8ff3b8</t>
+  </si>
+  <si>
+    <t>Require Synapse Workspaces to be created with Microsoft Entra-only authentication. This policy doesn't block local authentication from being re-enabled on resources after create. Consider using the 'Microsoft Entra-only authentication' initiative instead to require both. Learn more at: https://aka.ms/Synapse.</t>
+  </si>
+  <si>
+    <t>Synapse Workspaces should use only Microsoft Entra identities for authentication during workspace creation</t>
+  </si>
+  <si>
+    <t>6ea81a52-5ca7-4575-9669-eaa910b7edf8</t>
+  </si>
+  <si>
+    <t>Require Synapse Workspaces to use Microsoft Entra-only authentication. This policy doesn't block workspaces from being created with local authentication enabled. It does block local authentication from being enabled on resources after create. Consider using the 'Microsoft Entra-only authentication' initiative instead to require both. Learn more at: https://aka.ms/Synapse.</t>
+  </si>
+  <si>
+    <t>Synapse Workspaces should have Microsoft Entra-only authentication enabled</t>
   </si>
 </sst>
 </file>
@@ -2421,7 +2526,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H265"/>
+  <dimension ref="A1:H277"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2629,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>13</v>
@@ -2759,7 +2864,7 @@
         <v>13</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H13" s="0" t="s">
         <v>13</v>
@@ -2802,16 +2907,16 @@
         <v>52</v>
       </c>
       <c r="D15" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="0" t="s">
-        <v>54</v>
-      </c>
       <c r="F15" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H15" s="0" t="s">
         <v>13</v>
@@ -2825,10 +2930,10 @@
         <v>9</v>
       </c>
       <c r="C16" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="0" t="s">
         <v>55</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>38</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>56</v>
@@ -2863,7 +2968,7 @@
         <v>13</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H17" s="0" t="s">
         <v>13</v>
@@ -2915,7 +3020,7 @@
         <v>13</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H19" s="0" t="s">
         <v>13</v>
@@ -3019,7 +3124,7 @@
         <v>13</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H23" s="0" t="s">
         <v>13</v>
@@ -3071,7 +3176,7 @@
         <v>13</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H25" s="0" t="s">
         <v>13</v>
@@ -3097,7 +3202,7 @@
         <v>13</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H26" s="0" t="s">
         <v>13</v>
@@ -3175,7 +3280,7 @@
         <v>13</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H29" s="0" t="s">
         <v>13</v>
@@ -3218,16 +3323,16 @@
         <v>99</v>
       </c>
       <c r="D31" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="E31" s="0" t="s">
-        <v>101</v>
-      </c>
       <c r="F31" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H31" s="0" t="s">
         <v>13</v>
@@ -3241,13 +3346,13 @@
         <v>9</v>
       </c>
       <c r="C32" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="D32" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="D32" s="0" t="s">
+      <c r="E32" s="0" t="s">
         <v>103</v>
-      </c>
-      <c r="E32" s="0" t="s">
-        <v>104</v>
       </c>
       <c r="F32" s="0" t="s">
         <v>13</v>
@@ -3267,10 +3372,10 @@
         <v>9</v>
       </c>
       <c r="C33" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="D33" s="0" t="s">
         <v>105</v>
-      </c>
-      <c r="D33" s="0" t="s">
-        <v>44</v>
       </c>
       <c r="E33" s="0" t="s">
         <v>106</v>
@@ -3279,7 +3384,7 @@
         <v>13</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H33" s="0" t="s">
         <v>13</v>
@@ -3331,7 +3436,7 @@
         <v>13</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H35" s="0" t="s">
         <v>13</v>
@@ -3383,7 +3488,7 @@
         <v>13</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H37" s="0" t="s">
         <v>13</v>
@@ -3426,16 +3531,16 @@
         <v>122</v>
       </c>
       <c r="D39" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="E39" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="E39" s="0" t="s">
-        <v>124</v>
-      </c>
       <c r="F39" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H39" s="0" t="s">
         <v>13</v>
@@ -3449,13 +3554,13 @@
         <v>9</v>
       </c>
       <c r="C40" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="D40" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="D40" s="0" t="s">
+      <c r="E40" s="0" t="s">
         <v>126</v>
-      </c>
-      <c r="E40" s="0" t="s">
-        <v>127</v>
       </c>
       <c r="F40" s="0" t="s">
         <v>13</v>
@@ -3475,10 +3580,10 @@
         <v>9</v>
       </c>
       <c r="C41" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="D41" s="0" t="s">
         <v>128</v>
-      </c>
-      <c r="D41" s="0" t="s">
-        <v>126</v>
       </c>
       <c r="E41" s="0" t="s">
         <v>129</v>
@@ -3513,7 +3618,7 @@
         <v>13</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H42" s="0" t="s">
         <v>13</v>
@@ -3565,7 +3670,7 @@
         <v>13</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H44" s="0" t="s">
         <v>13</v>
@@ -3643,7 +3748,7 @@
         <v>13</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H47" s="0" t="s">
         <v>13</v>
@@ -3669,7 +3774,7 @@
         <v>13</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H48" s="0" t="s">
         <v>13</v>
@@ -3686,16 +3791,16 @@
         <v>151</v>
       </c>
       <c r="D49" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="E49" s="0" t="s">
         <v>152</v>
       </c>
-      <c r="E49" s="0" t="s">
-        <v>153</v>
-      </c>
       <c r="F49" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H49" s="0" t="s">
         <v>13</v>
@@ -3709,19 +3814,19 @@
         <v>9</v>
       </c>
       <c r="C50" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="D50" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="D50" s="0" t="s">
+      <c r="E50" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="E50" s="0" t="s">
-        <v>156</v>
-      </c>
       <c r="F50" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H50" s="0" t="s">
         <v>13</v>
@@ -3735,10 +3840,10 @@
         <v>9</v>
       </c>
       <c r="C51" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="D51" s="0" t="s">
         <v>157</v>
-      </c>
-      <c r="D51" s="0" t="s">
-        <v>146</v>
       </c>
       <c r="E51" s="0" t="s">
         <v>158</v>
@@ -3747,7 +3852,7 @@
         <v>13</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H51" s="0" t="s">
         <v>13</v>
@@ -3773,7 +3878,7 @@
         <v>13</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H52" s="0" t="s">
         <v>13</v>
@@ -3825,7 +3930,7 @@
         <v>13</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H54" s="0" t="s">
         <v>13</v>
@@ -3955,7 +4060,7 @@
         <v>13</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H59" s="0" t="s">
         <v>13</v>
@@ -4059,7 +4164,7 @@
         <v>13</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H63" s="0" t="s">
         <v>13</v>
@@ -4189,7 +4294,7 @@
         <v>13</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H68" s="0" t="s">
         <v>13</v>
@@ -4215,7 +4320,7 @@
         <v>13</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H69" s="0" t="s">
         <v>13</v>
@@ -4241,7 +4346,7 @@
         <v>13</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H70" s="0" t="s">
         <v>13</v>
@@ -4267,7 +4372,7 @@
         <v>13</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H71" s="0" t="s">
         <v>13</v>
@@ -4449,7 +4554,7 @@
         <v>13</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H78" s="0" t="s">
         <v>13</v>
@@ -4553,7 +4658,7 @@
         <v>13</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H82" s="0" t="s">
         <v>13</v>
@@ -4735,7 +4840,7 @@
         <v>13</v>
       </c>
       <c r="G89" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H89" s="0" t="s">
         <v>13</v>
@@ -4787,7 +4892,7 @@
         <v>13</v>
       </c>
       <c r="G91" s="0" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H91" s="0" t="s">
         <v>13</v>
@@ -4865,7 +4970,7 @@
         <v>13</v>
       </c>
       <c r="G94" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H94" s="0" t="s">
         <v>13</v>
@@ -4891,7 +4996,7 @@
         <v>13</v>
       </c>
       <c r="G95" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H95" s="0" t="s">
         <v>13</v>
@@ -4917,7 +5022,7 @@
         <v>13</v>
       </c>
       <c r="G96" s="0" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H96" s="0" t="s">
         <v>13</v>
@@ -5047,7 +5152,7 @@
         <v>13</v>
       </c>
       <c r="G101" s="0" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H101" s="0" t="s">
         <v>13</v>
@@ -5073,7 +5178,7 @@
         <v>13</v>
       </c>
       <c r="G102" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H102" s="0" t="s">
         <v>13</v>
@@ -5099,7 +5204,7 @@
         <v>13</v>
       </c>
       <c r="G103" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H103" s="0" t="s">
         <v>13</v>
@@ -5151,7 +5256,7 @@
         <v>13</v>
       </c>
       <c r="G105" s="0" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H105" s="0" t="s">
         <v>13</v>
@@ -5203,7 +5308,7 @@
         <v>13</v>
       </c>
       <c r="G107" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H107" s="0" t="s">
         <v>13</v>
@@ -5229,7 +5334,7 @@
         <v>13</v>
       </c>
       <c r="G108" s="0" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H108" s="0" t="s">
         <v>13</v>
@@ -5281,7 +5386,7 @@
         <v>13</v>
       </c>
       <c r="G110" s="0" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H110" s="0" t="s">
         <v>13</v>
@@ -5307,7 +5412,7 @@
         <v>13</v>
       </c>
       <c r="G111" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H111" s="0" t="s">
         <v>13</v>
@@ -5411,7 +5516,7 @@
         <v>13</v>
       </c>
       <c r="G115" s="0" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H115" s="0" t="s">
         <v>13</v>
@@ -5463,7 +5568,7 @@
         <v>13</v>
       </c>
       <c r="G117" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H117" s="0" t="s">
         <v>13</v>
@@ -5515,7 +5620,7 @@
         <v>13</v>
       </c>
       <c r="G119" s="0" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H119" s="0" t="s">
         <v>13</v>
@@ -5541,7 +5646,7 @@
         <v>13</v>
       </c>
       <c r="G120" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H120" s="0" t="s">
         <v>13</v>
@@ -5567,7 +5672,7 @@
         <v>13</v>
       </c>
       <c r="G121" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H121" s="0" t="s">
         <v>13</v>
@@ -5619,7 +5724,7 @@
         <v>13</v>
       </c>
       <c r="G123" s="0" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H123" s="0" t="s">
         <v>13</v>
@@ -5775,7 +5880,7 @@
         <v>13</v>
       </c>
       <c r="G129" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H129" s="0" t="s">
         <v>13</v>
@@ -5905,7 +6010,7 @@
         <v>13</v>
       </c>
       <c r="G134" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H134" s="0" t="s">
         <v>13</v>
@@ -5974,10 +6079,10 @@
         <v>414</v>
       </c>
       <c r="D137" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="E137" s="0" t="s">
         <v>415</v>
-      </c>
-      <c r="E137" s="0" t="s">
-        <v>416</v>
       </c>
       <c r="F137" s="0" t="s">
         <v>13</v>
@@ -5997,19 +6102,19 @@
         <v>9</v>
       </c>
       <c r="C138" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="D138" s="0" t="s">
         <v>417</v>
       </c>
-      <c r="D138" s="0" t="s">
+      <c r="E138" s="0" t="s">
         <v>418</v>
       </c>
-      <c r="E138" s="0" t="s">
-        <v>419</v>
-      </c>
       <c r="F138" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G138" s="0" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H138" s="0" t="s">
         <v>13</v>
@@ -6023,10 +6128,10 @@
         <v>9</v>
       </c>
       <c r="C139" s="0" t="s">
+        <v>419</v>
+      </c>
+      <c r="D139" s="0" t="s">
         <v>420</v>
-      </c>
-      <c r="D139" s="0" t="s">
-        <v>361</v>
       </c>
       <c r="E139" s="0" t="s">
         <v>421</v>
@@ -6061,7 +6166,7 @@
         <v>13</v>
       </c>
       <c r="G140" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H140" s="0" t="s">
         <v>13</v>
@@ -6087,7 +6192,7 @@
         <v>13</v>
       </c>
       <c r="G141" s="0" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H141" s="0" t="s">
         <v>13</v>
@@ -6139,7 +6244,7 @@
         <v>13</v>
       </c>
       <c r="G143" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H143" s="0" t="s">
         <v>13</v>
@@ -6234,10 +6339,10 @@
         <v>443</v>
       </c>
       <c r="D147" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="E147" s="0" t="s">
         <v>444</v>
-      </c>
-      <c r="E147" s="0" t="s">
-        <v>445</v>
       </c>
       <c r="F147" s="0" t="s">
         <v>13</v>
@@ -6257,13 +6362,13 @@
         <v>9</v>
       </c>
       <c r="C148" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="D148" s="0" t="s">
         <v>446</v>
       </c>
-      <c r="D148" s="0" t="s">
+      <c r="E148" s="0" t="s">
         <v>447</v>
-      </c>
-      <c r="E148" s="0" t="s">
-        <v>448</v>
       </c>
       <c r="F148" s="0" t="s">
         <v>13</v>
@@ -6283,10 +6388,10 @@
         <v>9</v>
       </c>
       <c r="C149" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="D149" s="0" t="s">
         <v>449</v>
-      </c>
-      <c r="D149" s="0" t="s">
-        <v>435</v>
       </c>
       <c r="E149" s="0" t="s">
         <v>450</v>
@@ -6295,7 +6400,7 @@
         <v>13</v>
       </c>
       <c r="G149" s="0" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H149" s="0" t="s">
         <v>13</v>
@@ -6399,7 +6504,7 @@
         <v>13</v>
       </c>
       <c r="G153" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H153" s="0" t="s">
         <v>13</v>
@@ -6425,7 +6530,7 @@
         <v>13</v>
       </c>
       <c r="G154" s="0" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H154" s="0" t="s">
         <v>13</v>
@@ -6451,7 +6556,7 @@
         <v>13</v>
       </c>
       <c r="G155" s="0" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H155" s="0" t="s">
         <v>13</v>
@@ -6477,7 +6582,7 @@
         <v>13</v>
       </c>
       <c r="G156" s="0" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H156" s="0" t="s">
         <v>13</v>
@@ -6503,7 +6608,7 @@
         <v>13</v>
       </c>
       <c r="G157" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H157" s="0" t="s">
         <v>13</v>
@@ -6520,10 +6625,10 @@
         <v>475</v>
       </c>
       <c r="D158" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="E158" s="0" t="s">
         <v>476</v>
-      </c>
-      <c r="E158" s="0" t="s">
-        <v>477</v>
       </c>
       <c r="F158" s="0" t="s">
         <v>13</v>
@@ -6543,19 +6648,19 @@
         <v>9</v>
       </c>
       <c r="C159" s="0" t="s">
+        <v>477</v>
+      </c>
+      <c r="D159" s="0" t="s">
         <v>478</v>
       </c>
-      <c r="D159" s="0" t="s">
+      <c r="E159" s="0" t="s">
         <v>479</v>
       </c>
-      <c r="E159" s="0" t="s">
-        <v>480</v>
-      </c>
       <c r="F159" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G159" s="0" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H159" s="0" t="s">
         <v>13</v>
@@ -6569,13 +6674,13 @@
         <v>9</v>
       </c>
       <c r="C160" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="D160" s="0" t="s">
         <v>481</v>
       </c>
-      <c r="D160" s="0" t="s">
+      <c r="E160" s="0" t="s">
         <v>482</v>
-      </c>
-      <c r="E160" s="0" t="s">
-        <v>483</v>
       </c>
       <c r="F160" s="0" t="s">
         <v>13</v>
@@ -6595,19 +6700,19 @@
         <v>9</v>
       </c>
       <c r="C161" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="D161" s="0" t="s">
         <v>484</v>
       </c>
-      <c r="D161" s="0" t="s">
+      <c r="E161" s="0" t="s">
         <v>485</v>
       </c>
-      <c r="E161" s="0" t="s">
-        <v>486</v>
-      </c>
       <c r="F161" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G161" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H161" s="0" t="s">
         <v>13</v>
@@ -6621,13 +6726,13 @@
         <v>9</v>
       </c>
       <c r="C162" s="0" t="s">
+        <v>486</v>
+      </c>
+      <c r="D162" s="0" t="s">
         <v>487</v>
       </c>
-      <c r="D162" s="0" t="s">
+      <c r="E162" s="0" t="s">
         <v>488</v>
-      </c>
-      <c r="E162" s="0" t="s">
-        <v>489</v>
       </c>
       <c r="F162" s="0" t="s">
         <v>13</v>
@@ -6647,13 +6752,13 @@
         <v>9</v>
       </c>
       <c r="C163" s="0" t="s">
+        <v>489</v>
+      </c>
+      <c r="D163" s="0" t="s">
         <v>490</v>
       </c>
-      <c r="D163" s="0" t="s">
+      <c r="E163" s="0" t="s">
         <v>491</v>
-      </c>
-      <c r="E163" s="0" t="s">
-        <v>492</v>
       </c>
       <c r="F163" s="0" t="s">
         <v>13</v>
@@ -6673,13 +6778,13 @@
         <v>9</v>
       </c>
       <c r="C164" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="D164" s="0" t="s">
         <v>493</v>
       </c>
-      <c r="D164" s="0" t="s">
+      <c r="E164" s="0" t="s">
         <v>494</v>
-      </c>
-      <c r="E164" s="0" t="s">
-        <v>495</v>
       </c>
       <c r="F164" s="0" t="s">
         <v>13</v>
@@ -6699,13 +6804,13 @@
         <v>9</v>
       </c>
       <c r="C165" s="0" t="s">
+        <v>495</v>
+      </c>
+      <c r="D165" s="0" t="s">
         <v>496</v>
       </c>
-      <c r="D165" s="0" t="s">
+      <c r="E165" s="0" t="s">
         <v>497</v>
-      </c>
-      <c r="E165" s="0" t="s">
-        <v>498</v>
       </c>
       <c r="F165" s="0" t="s">
         <v>13</v>
@@ -6725,19 +6830,19 @@
         <v>9</v>
       </c>
       <c r="C166" s="0" t="s">
+        <v>498</v>
+      </c>
+      <c r="D166" s="0" t="s">
+        <v>496</v>
+      </c>
+      <c r="E166" s="0" t="s">
         <v>499</v>
       </c>
-      <c r="D166" s="0" t="s">
-        <v>500</v>
-      </c>
-      <c r="E166" s="0" t="s">
-        <v>501</v>
-      </c>
       <c r="F166" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G166" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H166" s="0" t="s">
         <v>13</v>
@@ -6751,19 +6856,19 @@
         <v>9</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D167" s="0" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="E167" s="0" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="F167" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G167" s="0" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H167" s="0" t="s">
         <v>13</v>
@@ -6777,13 +6882,13 @@
         <v>9</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D168" s="0" t="s">
         <v>503</v>
       </c>
       <c r="E168" s="0" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="F168" s="0" t="s">
         <v>13</v>
@@ -6803,19 +6908,19 @@
         <v>9</v>
       </c>
       <c r="C169" s="0" t="s">
+        <v>505</v>
+      </c>
+      <c r="D169" s="0" t="s">
+        <v>506</v>
+      </c>
+      <c r="E169" s="0" t="s">
         <v>507</v>
       </c>
-      <c r="D169" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="E169" s="0" t="s">
-        <v>508</v>
-      </c>
       <c r="F169" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G169" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H169" s="0" t="s">
         <v>13</v>
@@ -6829,13 +6934,13 @@
         <v>9</v>
       </c>
       <c r="C170" s="0" t="s">
+        <v>508</v>
+      </c>
+      <c r="D170" s="0" t="s">
+        <v>496</v>
+      </c>
+      <c r="E170" s="0" t="s">
         <v>509</v>
-      </c>
-      <c r="D170" s="0" t="s">
-        <v>510</v>
-      </c>
-      <c r="E170" s="0" t="s">
-        <v>511</v>
       </c>
       <c r="F170" s="0" t="s">
         <v>13</v>
@@ -6855,13 +6960,13 @@
         <v>9</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D171" s="0" t="s">
-        <v>513</v>
+        <v>496</v>
       </c>
       <c r="E171" s="0" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="F171" s="0" t="s">
         <v>13</v>
@@ -6881,19 +6986,19 @@
         <v>9</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D172" s="0" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="E172" s="0" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="F172" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G172" s="0" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H172" s="0" t="s">
         <v>13</v>
@@ -6907,13 +7012,13 @@
         <v>9</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D173" s="0" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="E173" s="0" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F173" s="0" t="s">
         <v>13</v>
@@ -6933,13 +7038,13 @@
         <v>9</v>
       </c>
       <c r="C174" s="0" t="s">
+        <v>517</v>
+      </c>
+      <c r="D174" s="0" t="s">
+        <v>518</v>
+      </c>
+      <c r="E174" s="0" t="s">
         <v>519</v>
-      </c>
-      <c r="D174" s="0" t="s">
-        <v>520</v>
-      </c>
-      <c r="E174" s="0" t="s">
-        <v>521</v>
       </c>
       <c r="F174" s="0" t="s">
         <v>13</v>
@@ -6959,13 +7064,13 @@
         <v>9</v>
       </c>
       <c r="C175" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="D175" s="0" t="s">
+        <v>521</v>
+      </c>
+      <c r="E175" s="0" t="s">
         <v>522</v>
-      </c>
-      <c r="D175" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="E175" s="0" t="s">
-        <v>523</v>
       </c>
       <c r="F175" s="0" t="s">
         <v>13</v>
@@ -6985,19 +7090,19 @@
         <v>9</v>
       </c>
       <c r="C176" s="0" t="s">
+        <v>523</v>
+      </c>
+      <c r="D176" s="0" t="s">
         <v>524</v>
       </c>
-      <c r="D176" s="0" t="s">
+      <c r="E176" s="0" t="s">
         <v>525</v>
       </c>
-      <c r="E176" s="0" t="s">
-        <v>526</v>
-      </c>
       <c r="F176" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G176" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H176" s="0" t="s">
         <v>13</v>
@@ -7011,13 +7116,13 @@
         <v>9</v>
       </c>
       <c r="C177" s="0" t="s">
+        <v>526</v>
+      </c>
+      <c r="D177" s="0" t="s">
         <v>527</v>
       </c>
-      <c r="D177" s="0" t="s">
+      <c r="E177" s="0" t="s">
         <v>528</v>
-      </c>
-      <c r="E177" s="0" t="s">
-        <v>529</v>
       </c>
       <c r="F177" s="0" t="s">
         <v>13</v>
@@ -7037,13 +7142,13 @@
         <v>9</v>
       </c>
       <c r="C178" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="D178" s="0" t="s">
         <v>530</v>
       </c>
-      <c r="D178" s="0" t="s">
+      <c r="E178" s="0" t="s">
         <v>531</v>
-      </c>
-      <c r="E178" s="0" t="s">
-        <v>532</v>
       </c>
       <c r="F178" s="0" t="s">
         <v>13</v>
@@ -7063,13 +7168,13 @@
         <v>9</v>
       </c>
       <c r="C179" s="0" t="s">
+        <v>532</v>
+      </c>
+      <c r="D179" s="0" t="s">
         <v>533</v>
       </c>
-      <c r="D179" s="0" t="s">
+      <c r="E179" s="0" t="s">
         <v>534</v>
-      </c>
-      <c r="E179" s="0" t="s">
-        <v>535</v>
       </c>
       <c r="F179" s="0" t="s">
         <v>13</v>
@@ -7089,13 +7194,13 @@
         <v>9</v>
       </c>
       <c r="C180" s="0" t="s">
+        <v>535</v>
+      </c>
+      <c r="D180" s="0" t="s">
+        <v>496</v>
+      </c>
+      <c r="E180" s="0" t="s">
         <v>536</v>
-      </c>
-      <c r="D180" s="0" t="s">
-        <v>537</v>
-      </c>
-      <c r="E180" s="0" t="s">
-        <v>538</v>
       </c>
       <c r="F180" s="0" t="s">
         <v>13</v>
@@ -7115,13 +7220,13 @@
         <v>9</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D181" s="0" t="s">
-        <v>540</v>
+        <v>496</v>
       </c>
       <c r="E181" s="0" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="F181" s="0" t="s">
         <v>13</v>
@@ -7141,19 +7246,19 @@
         <v>9</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="D182" s="0" t="s">
-        <v>503</v>
+        <v>540</v>
       </c>
       <c r="E182" s="0" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="F182" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G182" s="0" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H182" s="0" t="s">
         <v>13</v>
@@ -7167,13 +7272,13 @@
         <v>9</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D183" s="0" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="E183" s="0" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F183" s="0" t="s">
         <v>13</v>
@@ -7193,13 +7298,13 @@
         <v>9</v>
       </c>
       <c r="C184" s="0" t="s">
+        <v>544</v>
+      </c>
+      <c r="D184" s="0" t="s">
+        <v>545</v>
+      </c>
+      <c r="E184" s="0" t="s">
         <v>546</v>
-      </c>
-      <c r="D184" s="0" t="s">
-        <v>547</v>
-      </c>
-      <c r="E184" s="0" t="s">
-        <v>548</v>
       </c>
       <c r="F184" s="0" t="s">
         <v>13</v>
@@ -7219,19 +7324,19 @@
         <v>9</v>
       </c>
       <c r="C185" s="0" t="s">
+        <v>547</v>
+      </c>
+      <c r="D185" s="0" t="s">
+        <v>548</v>
+      </c>
+      <c r="E185" s="0" t="s">
         <v>549</v>
       </c>
-      <c r="D185" s="0" t="s">
-        <v>503</v>
-      </c>
-      <c r="E185" s="0" t="s">
-        <v>550</v>
-      </c>
       <c r="F185" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G185" s="0" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H185" s="0" t="s">
         <v>13</v>
@@ -7245,19 +7350,19 @@
         <v>9</v>
       </c>
       <c r="C186" s="0" t="s">
+        <v>550</v>
+      </c>
+      <c r="D186" s="0" t="s">
         <v>551</v>
       </c>
-      <c r="D186" s="0" t="s">
+      <c r="E186" s="0" t="s">
         <v>552</v>
       </c>
-      <c r="E186" s="0" t="s">
-        <v>553</v>
-      </c>
       <c r="F186" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G186" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H186" s="0" t="s">
         <v>13</v>
@@ -7271,13 +7376,13 @@
         <v>9</v>
       </c>
       <c r="C187" s="0" t="s">
+        <v>553</v>
+      </c>
+      <c r="D187" s="0" t="s">
         <v>554</v>
       </c>
-      <c r="D187" s="0" t="s">
+      <c r="E187" s="0" t="s">
         <v>555</v>
-      </c>
-      <c r="E187" s="0" t="s">
-        <v>556</v>
       </c>
       <c r="F187" s="0" t="s">
         <v>13</v>
@@ -7297,19 +7402,19 @@
         <v>9</v>
       </c>
       <c r="C188" s="0" t="s">
+        <v>556</v>
+      </c>
+      <c r="D188" s="0" t="s">
         <v>557</v>
       </c>
-      <c r="D188" s="0" t="s">
+      <c r="E188" s="0" t="s">
         <v>558</v>
       </c>
-      <c r="E188" s="0" t="s">
-        <v>559</v>
-      </c>
       <c r="F188" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G188" s="0" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H188" s="0" t="s">
         <v>13</v>
@@ -7323,13 +7428,13 @@
         <v>9</v>
       </c>
       <c r="C189" s="0" t="s">
+        <v>559</v>
+      </c>
+      <c r="D189" s="0" t="s">
         <v>560</v>
       </c>
-      <c r="D189" s="0" t="s">
+      <c r="E189" s="0" t="s">
         <v>561</v>
-      </c>
-      <c r="E189" s="0" t="s">
-        <v>562</v>
       </c>
       <c r="F189" s="0" t="s">
         <v>13</v>
@@ -7349,13 +7454,13 @@
         <v>9</v>
       </c>
       <c r="C190" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="D190" s="0" t="s">
+        <v>540</v>
+      </c>
+      <c r="E190" s="0" t="s">
         <v>563</v>
-      </c>
-      <c r="D190" s="0" t="s">
-        <v>564</v>
-      </c>
-      <c r="E190" s="0" t="s">
-        <v>565</v>
       </c>
       <c r="F190" s="0" t="s">
         <v>13</v>
@@ -7375,19 +7480,19 @@
         <v>9</v>
       </c>
       <c r="C191" s="0" t="s">
+        <v>564</v>
+      </c>
+      <c r="D191" s="0" t="s">
+        <v>565</v>
+      </c>
+      <c r="E191" s="0" t="s">
         <v>566</v>
       </c>
-      <c r="D191" s="0" t="s">
-        <v>567</v>
-      </c>
-      <c r="E191" s="0" t="s">
-        <v>568</v>
-      </c>
       <c r="F191" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G191" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H191" s="0" t="s">
         <v>13</v>
@@ -7401,19 +7506,19 @@
         <v>9</v>
       </c>
       <c r="C192" s="0" t="s">
+        <v>567</v>
+      </c>
+      <c r="D192" s="0" t="s">
+        <v>568</v>
+      </c>
+      <c r="E192" s="0" t="s">
         <v>569</v>
       </c>
-      <c r="D192" s="0" t="s">
-        <v>547</v>
-      </c>
-      <c r="E192" s="0" t="s">
-        <v>570</v>
-      </c>
       <c r="F192" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G192" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H192" s="0" t="s">
         <v>13</v>
@@ -7427,13 +7532,13 @@
         <v>9</v>
       </c>
       <c r="C193" s="0" t="s">
+        <v>570</v>
+      </c>
+      <c r="D193" s="0" t="s">
         <v>571</v>
       </c>
-      <c r="D193" s="0" t="s">
+      <c r="E193" s="0" t="s">
         <v>572</v>
-      </c>
-      <c r="E193" s="0" t="s">
-        <v>573</v>
       </c>
       <c r="F193" s="0" t="s">
         <v>13</v>
@@ -7453,13 +7558,13 @@
         <v>9</v>
       </c>
       <c r="C194" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="D194" s="0" t="s">
         <v>574</v>
       </c>
-      <c r="D194" s="0" t="s">
+      <c r="E194" s="0" t="s">
         <v>575</v>
-      </c>
-      <c r="E194" s="0" t="s">
-        <v>576</v>
       </c>
       <c r="F194" s="0" t="s">
         <v>13</v>
@@ -7479,13 +7584,13 @@
         <v>9</v>
       </c>
       <c r="C195" s="0" t="s">
+        <v>576</v>
+      </c>
+      <c r="D195" s="0" t="s">
         <v>577</v>
       </c>
-      <c r="D195" s="0" t="s">
+      <c r="E195" s="0" t="s">
         <v>578</v>
-      </c>
-      <c r="E195" s="0" t="s">
-        <v>579</v>
       </c>
       <c r="F195" s="0" t="s">
         <v>13</v>
@@ -7505,19 +7610,19 @@
         <v>9</v>
       </c>
       <c r="C196" s="0" t="s">
+        <v>579</v>
+      </c>
+      <c r="D196" s="0" t="s">
         <v>580</v>
       </c>
-      <c r="D196" s="0" t="s">
+      <c r="E196" s="0" t="s">
         <v>581</v>
       </c>
-      <c r="E196" s="0" t="s">
-        <v>582</v>
-      </c>
       <c r="F196" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G196" s="0" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H196" s="0" t="s">
         <v>13</v>
@@ -7531,19 +7636,19 @@
         <v>9</v>
       </c>
       <c r="C197" s="0" t="s">
+        <v>582</v>
+      </c>
+      <c r="D197" s="0" t="s">
         <v>583</v>
       </c>
-      <c r="D197" s="0" t="s">
+      <c r="E197" s="0" t="s">
         <v>584</v>
       </c>
-      <c r="E197" s="0" t="s">
-        <v>585</v>
-      </c>
       <c r="F197" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G197" s="0" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H197" s="0" t="s">
         <v>13</v>
@@ -7557,19 +7662,19 @@
         <v>9</v>
       </c>
       <c r="C198" s="0" t="s">
+        <v>585</v>
+      </c>
+      <c r="D198" s="0" t="s">
         <v>586</v>
       </c>
-      <c r="D198" s="0" t="s">
+      <c r="E198" s="0" t="s">
         <v>587</v>
       </c>
-      <c r="E198" s="0" t="s">
-        <v>588</v>
-      </c>
       <c r="F198" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G198" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H198" s="0" t="s">
         <v>13</v>
@@ -7583,19 +7688,19 @@
         <v>9</v>
       </c>
       <c r="C199" s="0" t="s">
+        <v>588</v>
+      </c>
+      <c r="D199" s="0" t="s">
         <v>589</v>
       </c>
-      <c r="D199" s="0" t="s">
+      <c r="E199" s="0" t="s">
         <v>590</v>
       </c>
-      <c r="E199" s="0" t="s">
-        <v>591</v>
-      </c>
       <c r="F199" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G199" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H199" s="0" t="s">
         <v>13</v>
@@ -7609,13 +7714,13 @@
         <v>9</v>
       </c>
       <c r="C200" s="0" t="s">
+        <v>591</v>
+      </c>
+      <c r="D200" s="0" t="s">
         <v>592</v>
       </c>
-      <c r="D200" s="0" t="s">
+      <c r="E200" s="0" t="s">
         <v>593</v>
-      </c>
-      <c r="E200" s="0" t="s">
-        <v>594</v>
       </c>
       <c r="F200" s="0" t="s">
         <v>13</v>
@@ -7635,13 +7740,13 @@
         <v>9</v>
       </c>
       <c r="C201" s="0" t="s">
+        <v>594</v>
+      </c>
+      <c r="D201" s="0" t="s">
         <v>595</v>
       </c>
-      <c r="D201" s="0" t="s">
+      <c r="E201" s="0" t="s">
         <v>596</v>
-      </c>
-      <c r="E201" s="0" t="s">
-        <v>597</v>
       </c>
       <c r="F201" s="0" t="s">
         <v>13</v>
@@ -7661,13 +7766,13 @@
         <v>9</v>
       </c>
       <c r="C202" s="0" t="s">
+        <v>597</v>
+      </c>
+      <c r="D202" s="0" t="s">
         <v>598</v>
       </c>
-      <c r="D202" s="0" t="s">
+      <c r="E202" s="0" t="s">
         <v>599</v>
-      </c>
-      <c r="E202" s="0" t="s">
-        <v>600</v>
       </c>
       <c r="F202" s="0" t="s">
         <v>13</v>
@@ -7687,13 +7792,13 @@
         <v>9</v>
       </c>
       <c r="C203" s="0" t="s">
+        <v>600</v>
+      </c>
+      <c r="D203" s="0" t="s">
         <v>601</v>
       </c>
-      <c r="D203" s="0" t="s">
+      <c r="E203" s="0" t="s">
         <v>602</v>
-      </c>
-      <c r="E203" s="0" t="s">
-        <v>603</v>
       </c>
       <c r="F203" s="0" t="s">
         <v>13</v>
@@ -7713,13 +7818,13 @@
         <v>9</v>
       </c>
       <c r="C204" s="0" t="s">
+        <v>603</v>
+      </c>
+      <c r="D204" s="0" t="s">
         <v>604</v>
       </c>
-      <c r="D204" s="0" t="s">
+      <c r="E204" s="0" t="s">
         <v>605</v>
-      </c>
-      <c r="E204" s="0" t="s">
-        <v>606</v>
       </c>
       <c r="F204" s="0" t="s">
         <v>13</v>
@@ -7739,13 +7844,13 @@
         <v>9</v>
       </c>
       <c r="C205" s="0" t="s">
+        <v>606</v>
+      </c>
+      <c r="D205" s="0" t="s">
         <v>607</v>
       </c>
-      <c r="D205" s="0" t="s">
+      <c r="E205" s="0" t="s">
         <v>608</v>
-      </c>
-      <c r="E205" s="0" t="s">
-        <v>609</v>
       </c>
       <c r="F205" s="0" t="s">
         <v>13</v>
@@ -7765,13 +7870,13 @@
         <v>9</v>
       </c>
       <c r="C206" s="0" t="s">
+        <v>609</v>
+      </c>
+      <c r="D206" s="0" t="s">
         <v>610</v>
       </c>
-      <c r="D206" s="0" t="s">
+      <c r="E206" s="0" t="s">
         <v>611</v>
-      </c>
-      <c r="E206" s="0" t="s">
-        <v>612</v>
       </c>
       <c r="F206" s="0" t="s">
         <v>13</v>
@@ -7791,13 +7896,13 @@
         <v>9</v>
       </c>
       <c r="C207" s="0" t="s">
+        <v>612</v>
+      </c>
+      <c r="D207" s="0" t="s">
         <v>613</v>
       </c>
-      <c r="D207" s="0" t="s">
+      <c r="E207" s="0" t="s">
         <v>614</v>
-      </c>
-      <c r="E207" s="0" t="s">
-        <v>615</v>
       </c>
       <c r="F207" s="0" t="s">
         <v>13</v>
@@ -7817,13 +7922,13 @@
         <v>9</v>
       </c>
       <c r="C208" s="0" t="s">
+        <v>615</v>
+      </c>
+      <c r="D208" s="0" t="s">
         <v>616</v>
       </c>
-      <c r="D208" s="0" t="s">
+      <c r="E208" s="0" t="s">
         <v>617</v>
-      </c>
-      <c r="E208" s="0" t="s">
-        <v>618</v>
       </c>
       <c r="F208" s="0" t="s">
         <v>13</v>
@@ -7843,13 +7948,13 @@
         <v>9</v>
       </c>
       <c r="C209" s="0" t="s">
+        <v>618</v>
+      </c>
+      <c r="D209" s="0" t="s">
         <v>619</v>
       </c>
-      <c r="D209" s="0" t="s">
+      <c r="E209" s="0" t="s">
         <v>620</v>
-      </c>
-      <c r="E209" s="0" t="s">
-        <v>621</v>
       </c>
       <c r="F209" s="0" t="s">
         <v>13</v>
@@ -7869,13 +7974,13 @@
         <v>9</v>
       </c>
       <c r="C210" s="0" t="s">
+        <v>621</v>
+      </c>
+      <c r="D210" s="0" t="s">
         <v>622</v>
       </c>
-      <c r="D210" s="0" t="s">
+      <c r="E210" s="0" t="s">
         <v>623</v>
-      </c>
-      <c r="E210" s="0" t="s">
-        <v>624</v>
       </c>
       <c r="F210" s="0" t="s">
         <v>13</v>
@@ -7895,13 +8000,13 @@
         <v>9</v>
       </c>
       <c r="C211" s="0" t="s">
+        <v>624</v>
+      </c>
+      <c r="D211" s="0" t="s">
         <v>625</v>
       </c>
-      <c r="D211" s="0" t="s">
+      <c r="E211" s="0" t="s">
         <v>626</v>
-      </c>
-      <c r="E211" s="0" t="s">
-        <v>627</v>
       </c>
       <c r="F211" s="0" t="s">
         <v>13</v>
@@ -7921,13 +8026,13 @@
         <v>9</v>
       </c>
       <c r="C212" s="0" t="s">
+        <v>627</v>
+      </c>
+      <c r="D212" s="0" t="s">
         <v>628</v>
       </c>
-      <c r="D212" s="0" t="s">
+      <c r="E212" s="0" t="s">
         <v>629</v>
-      </c>
-      <c r="E212" s="0" t="s">
-        <v>630</v>
       </c>
       <c r="F212" s="0" t="s">
         <v>13</v>
@@ -7947,13 +8052,13 @@
         <v>9</v>
       </c>
       <c r="C213" s="0" t="s">
+        <v>630</v>
+      </c>
+      <c r="D213" s="0" t="s">
         <v>631</v>
       </c>
-      <c r="D213" s="0" t="s">
+      <c r="E213" s="0" t="s">
         <v>632</v>
-      </c>
-      <c r="E213" s="0" t="s">
-        <v>633</v>
       </c>
       <c r="F213" s="0" t="s">
         <v>13</v>
@@ -7973,13 +8078,13 @@
         <v>9</v>
       </c>
       <c r="C214" s="0" t="s">
+        <v>633</v>
+      </c>
+      <c r="D214" s="0" t="s">
         <v>634</v>
       </c>
-      <c r="D214" s="0" t="s">
+      <c r="E214" s="0" t="s">
         <v>635</v>
-      </c>
-      <c r="E214" s="0" t="s">
-        <v>636</v>
       </c>
       <c r="F214" s="0" t="s">
         <v>13</v>
@@ -7999,13 +8104,13 @@
         <v>9</v>
       </c>
       <c r="C215" s="0" t="s">
+        <v>636</v>
+      </c>
+      <c r="D215" s="0" t="s">
         <v>637</v>
       </c>
-      <c r="D215" s="0" t="s">
+      <c r="E215" s="0" t="s">
         <v>638</v>
-      </c>
-      <c r="E215" s="0" t="s">
-        <v>639</v>
       </c>
       <c r="F215" s="0" t="s">
         <v>13</v>
@@ -8025,13 +8130,13 @@
         <v>9</v>
       </c>
       <c r="C216" s="0" t="s">
+        <v>639</v>
+      </c>
+      <c r="D216" s="0" t="s">
         <v>640</v>
       </c>
-      <c r="D216" s="0" t="s">
+      <c r="E216" s="0" t="s">
         <v>641</v>
-      </c>
-      <c r="E216" s="0" t="s">
-        <v>642</v>
       </c>
       <c r="F216" s="0" t="s">
         <v>13</v>
@@ -8051,13 +8156,13 @@
         <v>9</v>
       </c>
       <c r="C217" s="0" t="s">
+        <v>642</v>
+      </c>
+      <c r="D217" s="0" t="s">
         <v>643</v>
       </c>
-      <c r="D217" s="0" t="s">
+      <c r="E217" s="0" t="s">
         <v>644</v>
-      </c>
-      <c r="E217" s="0" t="s">
-        <v>645</v>
       </c>
       <c r="F217" s="0" t="s">
         <v>13</v>
@@ -8077,13 +8182,13 @@
         <v>9</v>
       </c>
       <c r="C218" s="0" t="s">
+        <v>645</v>
+      </c>
+      <c r="D218" s="0" t="s">
         <v>646</v>
       </c>
-      <c r="D218" s="0" t="s">
+      <c r="E218" s="0" t="s">
         <v>647</v>
-      </c>
-      <c r="E218" s="0" t="s">
-        <v>648</v>
       </c>
       <c r="F218" s="0" t="s">
         <v>13</v>
@@ -8103,13 +8208,13 @@
         <v>9</v>
       </c>
       <c r="C219" s="0" t="s">
+        <v>648</v>
+      </c>
+      <c r="D219" s="0" t="s">
         <v>649</v>
       </c>
-      <c r="D219" s="0" t="s">
+      <c r="E219" s="0" t="s">
         <v>650</v>
-      </c>
-      <c r="E219" s="0" t="s">
-        <v>651</v>
       </c>
       <c r="F219" s="0" t="s">
         <v>13</v>
@@ -8129,13 +8234,13 @@
         <v>9</v>
       </c>
       <c r="C220" s="0" t="s">
+        <v>651</v>
+      </c>
+      <c r="D220" s="0" t="s">
         <v>652</v>
       </c>
-      <c r="D220" s="0" t="s">
+      <c r="E220" s="0" t="s">
         <v>653</v>
-      </c>
-      <c r="E220" s="0" t="s">
-        <v>654</v>
       </c>
       <c r="F220" s="0" t="s">
         <v>13</v>
@@ -8155,13 +8260,13 @@
         <v>9</v>
       </c>
       <c r="C221" s="0" t="s">
+        <v>654</v>
+      </c>
+      <c r="D221" s="0" t="s">
         <v>655</v>
       </c>
-      <c r="D221" s="0" t="s">
+      <c r="E221" s="0" t="s">
         <v>656</v>
-      </c>
-      <c r="E221" s="0" t="s">
-        <v>657</v>
       </c>
       <c r="F221" s="0" t="s">
         <v>13</v>
@@ -8181,13 +8286,13 @@
         <v>9</v>
       </c>
       <c r="C222" s="0" t="s">
+        <v>657</v>
+      </c>
+      <c r="D222" s="0" t="s">
         <v>658</v>
       </c>
-      <c r="D222" s="0" t="s">
+      <c r="E222" s="0" t="s">
         <v>659</v>
-      </c>
-      <c r="E222" s="0" t="s">
-        <v>660</v>
       </c>
       <c r="F222" s="0" t="s">
         <v>13</v>
@@ -8207,13 +8312,13 @@
         <v>9</v>
       </c>
       <c r="C223" s="0" t="s">
+        <v>660</v>
+      </c>
+      <c r="D223" s="0" t="s">
         <v>661</v>
       </c>
-      <c r="D223" s="0" t="s">
+      <c r="E223" s="0" t="s">
         <v>662</v>
-      </c>
-      <c r="E223" s="0" t="s">
-        <v>663</v>
       </c>
       <c r="F223" s="0" t="s">
         <v>13</v>
@@ -8233,13 +8338,13 @@
         <v>9</v>
       </c>
       <c r="C224" s="0" t="s">
+        <v>663</v>
+      </c>
+      <c r="D224" s="0" t="s">
         <v>664</v>
       </c>
-      <c r="D224" s="0" t="s">
+      <c r="E224" s="0" t="s">
         <v>665</v>
-      </c>
-      <c r="E224" s="0" t="s">
-        <v>666</v>
       </c>
       <c r="F224" s="0" t="s">
         <v>13</v>
@@ -8259,13 +8364,13 @@
         <v>9</v>
       </c>
       <c r="C225" s="0" t="s">
+        <v>666</v>
+      </c>
+      <c r="D225" s="0" t="s">
         <v>667</v>
       </c>
-      <c r="D225" s="0" t="s">
+      <c r="E225" s="0" t="s">
         <v>668</v>
-      </c>
-      <c r="E225" s="0" t="s">
-        <v>669</v>
       </c>
       <c r="F225" s="0" t="s">
         <v>13</v>
@@ -8285,13 +8390,13 @@
         <v>9</v>
       </c>
       <c r="C226" s="0" t="s">
+        <v>669</v>
+      </c>
+      <c r="D226" s="0" t="s">
         <v>670</v>
       </c>
-      <c r="D226" s="0" t="s">
+      <c r="E226" s="0" t="s">
         <v>671</v>
-      </c>
-      <c r="E226" s="0" t="s">
-        <v>672</v>
       </c>
       <c r="F226" s="0" t="s">
         <v>13</v>
@@ -8311,13 +8416,13 @@
         <v>9</v>
       </c>
       <c r="C227" s="0" t="s">
+        <v>672</v>
+      </c>
+      <c r="D227" s="0" t="s">
         <v>673</v>
       </c>
-      <c r="D227" s="0" t="s">
+      <c r="E227" s="0" t="s">
         <v>674</v>
-      </c>
-      <c r="E227" s="0" t="s">
-        <v>675</v>
       </c>
       <c r="F227" s="0" t="s">
         <v>13</v>
@@ -8337,13 +8442,13 @@
         <v>9</v>
       </c>
       <c r="C228" s="0" t="s">
+        <v>675</v>
+      </c>
+      <c r="D228" s="0" t="s">
         <v>676</v>
       </c>
-      <c r="D228" s="0" t="s">
+      <c r="E228" s="0" t="s">
         <v>677</v>
-      </c>
-      <c r="E228" s="0" t="s">
-        <v>678</v>
       </c>
       <c r="F228" s="0" t="s">
         <v>13</v>
@@ -8363,13 +8468,13 @@
         <v>9</v>
       </c>
       <c r="C229" s="0" t="s">
+        <v>678</v>
+      </c>
+      <c r="D229" s="0" t="s">
         <v>679</v>
       </c>
-      <c r="D229" s="0" t="s">
+      <c r="E229" s="0" t="s">
         <v>680</v>
-      </c>
-      <c r="E229" s="0" t="s">
-        <v>681</v>
       </c>
       <c r="F229" s="0" t="s">
         <v>13</v>
@@ -8389,13 +8494,13 @@
         <v>9</v>
       </c>
       <c r="C230" s="0" t="s">
+        <v>681</v>
+      </c>
+      <c r="D230" s="0" t="s">
         <v>682</v>
       </c>
-      <c r="D230" s="0" t="s">
+      <c r="E230" s="0" t="s">
         <v>683</v>
-      </c>
-      <c r="E230" s="0" t="s">
-        <v>684</v>
       </c>
       <c r="F230" s="0" t="s">
         <v>13</v>
@@ -8415,13 +8520,13 @@
         <v>9</v>
       </c>
       <c r="C231" s="0" t="s">
+        <v>684</v>
+      </c>
+      <c r="D231" s="0" t="s">
         <v>685</v>
       </c>
-      <c r="D231" s="0" t="s">
+      <c r="E231" s="0" t="s">
         <v>686</v>
-      </c>
-      <c r="E231" s="0" t="s">
-        <v>687</v>
       </c>
       <c r="F231" s="0" t="s">
         <v>13</v>
@@ -8441,13 +8546,13 @@
         <v>9</v>
       </c>
       <c r="C232" s="0" t="s">
+        <v>687</v>
+      </c>
+      <c r="D232" s="0" t="s">
         <v>688</v>
       </c>
-      <c r="D232" s="0" t="s">
+      <c r="E232" s="0" t="s">
         <v>689</v>
-      </c>
-      <c r="E232" s="0" t="s">
-        <v>690</v>
       </c>
       <c r="F232" s="0" t="s">
         <v>13</v>
@@ -8467,13 +8572,13 @@
         <v>9</v>
       </c>
       <c r="C233" s="0" t="s">
+        <v>690</v>
+      </c>
+      <c r="D233" s="0" t="s">
         <v>691</v>
       </c>
-      <c r="D233" s="0" t="s">
+      <c r="E233" s="0" t="s">
         <v>692</v>
-      </c>
-      <c r="E233" s="0" t="s">
-        <v>693</v>
       </c>
       <c r="F233" s="0" t="s">
         <v>13</v>
@@ -8493,13 +8598,13 @@
         <v>9</v>
       </c>
       <c r="C234" s="0" t="s">
+        <v>693</v>
+      </c>
+      <c r="D234" s="0" t="s">
         <v>694</v>
       </c>
-      <c r="D234" s="0" t="s">
+      <c r="E234" s="0" t="s">
         <v>695</v>
-      </c>
-      <c r="E234" s="0" t="s">
-        <v>696</v>
       </c>
       <c r="F234" s="0" t="s">
         <v>13</v>
@@ -8519,13 +8624,13 @@
         <v>9</v>
       </c>
       <c r="C235" s="0" t="s">
+        <v>696</v>
+      </c>
+      <c r="D235" s="0" t="s">
         <v>697</v>
       </c>
-      <c r="D235" s="0" t="s">
+      <c r="E235" s="0" t="s">
         <v>698</v>
-      </c>
-      <c r="E235" s="0" t="s">
-        <v>699</v>
       </c>
       <c r="F235" s="0" t="s">
         <v>13</v>
@@ -8545,13 +8650,13 @@
         <v>9</v>
       </c>
       <c r="C236" s="0" t="s">
+        <v>699</v>
+      </c>
+      <c r="D236" s="0" t="s">
         <v>700</v>
       </c>
-      <c r="D236" s="0" t="s">
+      <c r="E236" s="0" t="s">
         <v>701</v>
-      </c>
-      <c r="E236" s="0" t="s">
-        <v>702</v>
       </c>
       <c r="F236" s="0" t="s">
         <v>13</v>
@@ -8571,13 +8676,13 @@
         <v>9</v>
       </c>
       <c r="C237" s="0" t="s">
+        <v>702</v>
+      </c>
+      <c r="D237" s="0" t="s">
         <v>703</v>
       </c>
-      <c r="D237" s="0" t="s">
+      <c r="E237" s="0" t="s">
         <v>704</v>
-      </c>
-      <c r="E237" s="0" t="s">
-        <v>705</v>
       </c>
       <c r="F237" s="0" t="s">
         <v>13</v>
@@ -8597,13 +8702,13 @@
         <v>9</v>
       </c>
       <c r="C238" s="0" t="s">
+        <v>705</v>
+      </c>
+      <c r="D238" s="0" t="s">
         <v>706</v>
       </c>
-      <c r="D238" s="0" t="s">
+      <c r="E238" s="0" t="s">
         <v>707</v>
-      </c>
-      <c r="E238" s="0" t="s">
-        <v>708</v>
       </c>
       <c r="F238" s="0" t="s">
         <v>13</v>
@@ -8623,13 +8728,13 @@
         <v>9</v>
       </c>
       <c r="C239" s="0" t="s">
+        <v>708</v>
+      </c>
+      <c r="D239" s="0" t="s">
         <v>709</v>
       </c>
-      <c r="D239" s="0" t="s">
+      <c r="E239" s="0" t="s">
         <v>710</v>
-      </c>
-      <c r="E239" s="0" t="s">
-        <v>711</v>
       </c>
       <c r="F239" s="0" t="s">
         <v>13</v>
@@ -8649,13 +8754,13 @@
         <v>9</v>
       </c>
       <c r="C240" s="0" t="s">
+        <v>711</v>
+      </c>
+      <c r="D240" s="0" t="s">
         <v>712</v>
       </c>
-      <c r="D240" s="0" t="s">
+      <c r="E240" s="0" t="s">
         <v>713</v>
-      </c>
-      <c r="E240" s="0" t="s">
-        <v>714</v>
       </c>
       <c r="F240" s="0" t="s">
         <v>13</v>
@@ -8675,13 +8780,13 @@
         <v>9</v>
       </c>
       <c r="C241" s="0" t="s">
+        <v>714</v>
+      </c>
+      <c r="D241" s="0" t="s">
         <v>715</v>
       </c>
-      <c r="D241" s="0" t="s">
+      <c r="E241" s="0" t="s">
         <v>716</v>
-      </c>
-      <c r="E241" s="0" t="s">
-        <v>717</v>
       </c>
       <c r="F241" s="0" t="s">
         <v>13</v>
@@ -8701,13 +8806,13 @@
         <v>9</v>
       </c>
       <c r="C242" s="0" t="s">
+        <v>717</v>
+      </c>
+      <c r="D242" s="0" t="s">
         <v>718</v>
       </c>
-      <c r="D242" s="0" t="s">
+      <c r="E242" s="0" t="s">
         <v>719</v>
-      </c>
-      <c r="E242" s="0" t="s">
-        <v>720</v>
       </c>
       <c r="F242" s="0" t="s">
         <v>13</v>
@@ -8727,13 +8832,13 @@
         <v>9</v>
       </c>
       <c r="C243" s="0" t="s">
+        <v>720</v>
+      </c>
+      <c r="D243" s="0" t="s">
         <v>721</v>
       </c>
-      <c r="D243" s="0" t="s">
+      <c r="E243" s="0" t="s">
         <v>722</v>
-      </c>
-      <c r="E243" s="0" t="s">
-        <v>723</v>
       </c>
       <c r="F243" s="0" t="s">
         <v>13</v>
@@ -8753,13 +8858,13 @@
         <v>9</v>
       </c>
       <c r="C244" s="0" t="s">
+        <v>723</v>
+      </c>
+      <c r="D244" s="0" t="s">
         <v>724</v>
       </c>
-      <c r="D244" s="0" t="s">
+      <c r="E244" s="0" t="s">
         <v>725</v>
-      </c>
-      <c r="E244" s="0" t="s">
-        <v>726</v>
       </c>
       <c r="F244" s="0" t="s">
         <v>13</v>
@@ -8779,13 +8884,13 @@
         <v>9</v>
       </c>
       <c r="C245" s="0" t="s">
+        <v>726</v>
+      </c>
+      <c r="D245" s="0" t="s">
+        <v>724</v>
+      </c>
+      <c r="E245" s="0" t="s">
         <v>727</v>
-      </c>
-      <c r="D245" s="0" t="s">
-        <v>728</v>
-      </c>
-      <c r="E245" s="0" t="s">
-        <v>729</v>
       </c>
       <c r="F245" s="0" t="s">
         <v>13</v>
@@ -8805,13 +8910,13 @@
         <v>9</v>
       </c>
       <c r="C246" s="0" t="s">
+        <v>728</v>
+      </c>
+      <c r="D246" s="0" t="s">
+        <v>729</v>
+      </c>
+      <c r="E246" s="0" t="s">
         <v>730</v>
-      </c>
-      <c r="D246" s="0" t="s">
-        <v>731</v>
-      </c>
-      <c r="E246" s="0" t="s">
-        <v>732</v>
       </c>
       <c r="F246" s="0" t="s">
         <v>13</v>
@@ -8831,13 +8936,13 @@
         <v>9</v>
       </c>
       <c r="C247" s="0" t="s">
+        <v>731</v>
+      </c>
+      <c r="D247" s="0" t="s">
+        <v>732</v>
+      </c>
+      <c r="E247" s="0" t="s">
         <v>733</v>
-      </c>
-      <c r="D247" s="0" t="s">
-        <v>734</v>
-      </c>
-      <c r="E247" s="0" t="s">
-        <v>735</v>
       </c>
       <c r="F247" s="0" t="s">
         <v>13</v>
@@ -8857,13 +8962,13 @@
         <v>9</v>
       </c>
       <c r="C248" s="0" t="s">
+        <v>734</v>
+      </c>
+      <c r="D248" s="0" t="s">
+        <v>735</v>
+      </c>
+      <c r="E248" s="0" t="s">
         <v>736</v>
-      </c>
-      <c r="D248" s="0" t="s">
-        <v>737</v>
-      </c>
-      <c r="E248" s="0" t="s">
-        <v>738</v>
       </c>
       <c r="F248" s="0" t="s">
         <v>13</v>
@@ -8883,13 +8988,13 @@
         <v>9</v>
       </c>
       <c r="C249" s="0" t="s">
+        <v>737</v>
+      </c>
+      <c r="D249" s="0" t="s">
+        <v>738</v>
+      </c>
+      <c r="E249" s="0" t="s">
         <v>739</v>
-      </c>
-      <c r="D249" s="0" t="s">
-        <v>737</v>
-      </c>
-      <c r="E249" s="0" t="s">
-        <v>740</v>
       </c>
       <c r="F249" s="0" t="s">
         <v>13</v>
@@ -8909,19 +9014,19 @@
         <v>9</v>
       </c>
       <c r="C250" s="0" t="s">
+        <v>740</v>
+      </c>
+      <c r="D250" s="0" t="s">
         <v>741</v>
       </c>
-      <c r="D250" s="0" t="s">
+      <c r="E250" s="0" t="s">
         <v>742</v>
       </c>
-      <c r="E250" s="0" t="s">
-        <v>743</v>
-      </c>
       <c r="F250" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G250" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H250" s="0" t="s">
         <v>13</v>
@@ -8935,13 +9040,13 @@
         <v>9</v>
       </c>
       <c r="C251" s="0" t="s">
+        <v>743</v>
+      </c>
+      <c r="D251" s="0" t="s">
         <v>744</v>
       </c>
-      <c r="D251" s="0" t="s">
+      <c r="E251" s="0" t="s">
         <v>745</v>
-      </c>
-      <c r="E251" s="0" t="s">
-        <v>746</v>
       </c>
       <c r="F251" s="0" t="s">
         <v>13</v>
@@ -8961,13 +9066,13 @@
         <v>9</v>
       </c>
       <c r="C252" s="0" t="s">
+        <v>746</v>
+      </c>
+      <c r="D252" s="0" t="s">
         <v>747</v>
       </c>
-      <c r="D252" s="0" t="s">
+      <c r="E252" s="0" t="s">
         <v>748</v>
-      </c>
-      <c r="E252" s="0" t="s">
-        <v>749</v>
       </c>
       <c r="F252" s="0" t="s">
         <v>13</v>
@@ -8987,13 +9092,13 @@
         <v>9</v>
       </c>
       <c r="C253" s="0" t="s">
+        <v>749</v>
+      </c>
+      <c r="D253" s="0" t="s">
         <v>750</v>
       </c>
-      <c r="D253" s="0" t="s">
+      <c r="E253" s="0" t="s">
         <v>751</v>
-      </c>
-      <c r="E253" s="0" t="s">
-        <v>752</v>
       </c>
       <c r="F253" s="0" t="s">
         <v>13</v>
@@ -9013,13 +9118,13 @@
         <v>9</v>
       </c>
       <c r="C254" s="0" t="s">
+        <v>752</v>
+      </c>
+      <c r="D254" s="0" t="s">
         <v>753</v>
       </c>
-      <c r="D254" s="0" t="s">
+      <c r="E254" s="0" t="s">
         <v>754</v>
-      </c>
-      <c r="E254" s="0" t="s">
-        <v>755</v>
       </c>
       <c r="F254" s="0" t="s">
         <v>13</v>
@@ -9039,19 +9144,19 @@
         <v>9</v>
       </c>
       <c r="C255" s="0" t="s">
+        <v>755</v>
+      </c>
+      <c r="D255" s="0" t="s">
         <v>756</v>
       </c>
-      <c r="D255" s="0" t="s">
+      <c r="E255" s="0" t="s">
         <v>757</v>
       </c>
-      <c r="E255" s="0" t="s">
-        <v>758</v>
-      </c>
       <c r="F255" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G255" s="0" t="s">
-        <v>759</v>
+        <v>14</v>
       </c>
       <c r="H255" s="0" t="s">
         <v>13</v>
@@ -9065,19 +9170,19 @@
         <v>9</v>
       </c>
       <c r="C256" s="0" t="s">
+        <v>758</v>
+      </c>
+      <c r="D256" s="0" t="s">
+        <v>759</v>
+      </c>
+      <c r="E256" s="0" t="s">
         <v>760</v>
       </c>
-      <c r="D256" s="0" t="s">
-        <v>761</v>
-      </c>
-      <c r="E256" s="0" t="s">
-        <v>762</v>
-      </c>
       <c r="F256" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G256" s="0" t="s">
-        <v>759</v>
+        <v>14</v>
       </c>
       <c r="H256" s="0" t="s">
         <v>13</v>
@@ -9091,19 +9196,19 @@
         <v>9</v>
       </c>
       <c r="C257" s="0" t="s">
+        <v>761</v>
+      </c>
+      <c r="D257" s="0" t="s">
+        <v>762</v>
+      </c>
+      <c r="E257" s="0" t="s">
         <v>763</v>
       </c>
-      <c r="D257" s="0" t="s">
-        <v>764</v>
-      </c>
-      <c r="E257" s="0" t="s">
-        <v>765</v>
-      </c>
       <c r="F257" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G257" s="0" t="s">
-        <v>759</v>
+        <v>14</v>
       </c>
       <c r="H257" s="0" t="s">
         <v>13</v>
@@ -9117,19 +9222,19 @@
         <v>9</v>
       </c>
       <c r="C258" s="0" t="s">
+        <v>764</v>
+      </c>
+      <c r="D258" s="0" t="s">
+        <v>765</v>
+      </c>
+      <c r="E258" s="0" t="s">
         <v>766</v>
       </c>
-      <c r="D258" s="0" t="s">
-        <v>767</v>
-      </c>
-      <c r="E258" s="0" t="s">
-        <v>768</v>
-      </c>
       <c r="F258" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G258" s="0" t="s">
-        <v>759</v>
+        <v>14</v>
       </c>
       <c r="H258" s="0" t="s">
         <v>13</v>
@@ -9143,19 +9248,19 @@
         <v>9</v>
       </c>
       <c r="C259" s="0" t="s">
+        <v>767</v>
+      </c>
+      <c r="D259" s="0" t="s">
+        <v>768</v>
+      </c>
+      <c r="E259" s="0" t="s">
         <v>769</v>
       </c>
-      <c r="D259" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E259" s="0" t="s">
-        <v>13</v>
-      </c>
       <c r="F259" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G259" s="0" t="s">
-        <v>759</v>
+        <v>770</v>
       </c>
       <c r="H259" s="0" t="s">
         <v>13</v>
@@ -9169,19 +9274,19 @@
         <v>9</v>
       </c>
       <c r="C260" s="0" t="s">
+        <v>771</v>
+      </c>
+      <c r="D260" s="0" t="s">
+        <v>772</v>
+      </c>
+      <c r="E260" s="0" t="s">
+        <v>773</v>
+      </c>
+      <c r="F260" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G260" s="0" t="s">
         <v>770</v>
-      </c>
-      <c r="D260" s="0" t="s">
-        <v>771</v>
-      </c>
-      <c r="E260" s="0" t="s">
-        <v>772</v>
-      </c>
-      <c r="F260" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G260" s="0" t="s">
-        <v>759</v>
       </c>
       <c r="H260" s="0" t="s">
         <v>13</v>
@@ -9195,19 +9300,19 @@
         <v>9</v>
       </c>
       <c r="C261" s="0" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="D261" s="0" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="E261" s="0" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="F261" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G261" s="0" t="s">
-        <v>759</v>
+        <v>770</v>
       </c>
       <c r="H261" s="0" t="s">
         <v>13</v>
@@ -9221,19 +9326,19 @@
         <v>9</v>
       </c>
       <c r="C262" s="0" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="D262" s="0" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="E262" s="0" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="F262" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G262" s="0" t="s">
-        <v>759</v>
+        <v>770</v>
       </c>
       <c r="H262" s="0" t="s">
         <v>13</v>
@@ -9247,19 +9352,19 @@
         <v>9</v>
       </c>
       <c r="C263" s="0" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="D263" s="0" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="E263" s="0" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="F263" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G263" s="0" t="s">
-        <v>759</v>
+        <v>770</v>
       </c>
       <c r="H263" s="0" t="s">
         <v>13</v>
@@ -9273,19 +9378,19 @@
         <v>9</v>
       </c>
       <c r="C264" s="0" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="D264" s="0" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="E264" s="0" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="F264" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G264" s="0" t="s">
-        <v>759</v>
+        <v>770</v>
       </c>
       <c r="H264" s="0" t="s">
         <v>13</v>
@@ -9299,21 +9404,333 @@
         <v>9</v>
       </c>
       <c r="C265" s="0" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="D265" s="0" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="E265" s="0" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="F265" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G265" s="0" t="s">
-        <v>759</v>
+        <v>770</v>
       </c>
       <c r="H265" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B266" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C266" s="0" t="s">
+        <v>789</v>
+      </c>
+      <c r="D266" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E266" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F266" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G266" s="0" t="s">
+        <v>770</v>
+      </c>
+      <c r="H266" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B267" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C267" s="0" t="s">
+        <v>790</v>
+      </c>
+      <c r="D267" s="0" t="s">
+        <v>791</v>
+      </c>
+      <c r="E267" s="0" t="s">
+        <v>792</v>
+      </c>
+      <c r="F267" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G267" s="0" t="s">
+        <v>770</v>
+      </c>
+      <c r="H267" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B268" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C268" s="0" t="s">
+        <v>793</v>
+      </c>
+      <c r="D268" s="0" t="s">
+        <v>794</v>
+      </c>
+      <c r="E268" s="0" t="s">
+        <v>795</v>
+      </c>
+      <c r="F268" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G268" s="0" t="s">
+        <v>770</v>
+      </c>
+      <c r="H268" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B269" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C269" s="0" t="s">
+        <v>796</v>
+      </c>
+      <c r="D269" s="0" t="s">
+        <v>797</v>
+      </c>
+      <c r="E269" s="0" t="s">
+        <v>798</v>
+      </c>
+      <c r="F269" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G269" s="0" t="s">
+        <v>770</v>
+      </c>
+      <c r="H269" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B270" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C270" s="0" t="s">
+        <v>799</v>
+      </c>
+      <c r="D270" s="0" t="s">
+        <v>800</v>
+      </c>
+      <c r="E270" s="0" t="s">
+        <v>801</v>
+      </c>
+      <c r="F270" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G270" s="0" t="s">
+        <v>770</v>
+      </c>
+      <c r="H270" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B271" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C271" s="0" t="s">
+        <v>802</v>
+      </c>
+      <c r="D271" s="0" t="s">
+        <v>803</v>
+      </c>
+      <c r="E271" s="0" t="s">
+        <v>804</v>
+      </c>
+      <c r="F271" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G271" s="0" t="s">
+        <v>770</v>
+      </c>
+      <c r="H271" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B272" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C272" s="0" t="s">
+        <v>805</v>
+      </c>
+      <c r="D272" s="0" t="s">
+        <v>806</v>
+      </c>
+      <c r="E272" s="0" t="s">
+        <v>807</v>
+      </c>
+      <c r="F272" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G272" s="0" t="s">
+        <v>770</v>
+      </c>
+      <c r="H272" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B273" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C273" s="0" t="s">
+        <v>808</v>
+      </c>
+      <c r="D273" s="0" t="s">
+        <v>809</v>
+      </c>
+      <c r="E273" s="0" t="s">
+        <v>810</v>
+      </c>
+      <c r="F273" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G273" s="0" t="s">
+        <v>770</v>
+      </c>
+      <c r="H273" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B274" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C274" s="0" t="s">
+        <v>811</v>
+      </c>
+      <c r="D274" s="0" t="s">
+        <v>812</v>
+      </c>
+      <c r="E274" s="0" t="s">
+        <v>813</v>
+      </c>
+      <c r="F274" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G274" s="0" t="s">
+        <v>770</v>
+      </c>
+      <c r="H274" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B275" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C275" s="0" t="s">
+        <v>814</v>
+      </c>
+      <c r="D275" s="0" t="s">
+        <v>815</v>
+      </c>
+      <c r="E275" s="0" t="s">
+        <v>816</v>
+      </c>
+      <c r="F275" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G275" s="0" t="s">
+        <v>770</v>
+      </c>
+      <c r="H275" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B276" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C276" s="0" t="s">
+        <v>817</v>
+      </c>
+      <c r="D276" s="0" t="s">
+        <v>818</v>
+      </c>
+      <c r="E276" s="0" t="s">
+        <v>819</v>
+      </c>
+      <c r="F276" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G276" s="0" t="s">
+        <v>770</v>
+      </c>
+      <c r="H276" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B277" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C277" s="0" t="s">
+        <v>820</v>
+      </c>
+      <c r="D277" s="0" t="s">
+        <v>821</v>
+      </c>
+      <c r="E277" s="0" t="s">
+        <v>822</v>
+      </c>
+      <c r="F277" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G277" s="0" t="s">
+        <v>770</v>
+      </c>
+      <c r="H277" s="0" t="s">
         <v>13</v>
       </c>
     </row>

--- a/updates/results/PolicyCompareAzureSecurityCenter.xlsx
+++ b/updates/results/PolicyCompareAzureSecurityCenter.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="823">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="826">
   <si>
     <t>comparePolicyDefinition</t>
   </si>
@@ -389,10 +389,10 @@
     <t>0961003e-5a0a-4549-abde-af6a37f2724d</t>
   </si>
   <si>
-    <t>By default, a virtual machine's OS and data disks are encrypted-at-rest using platform-managed keys. Temp disks, data caches and data flowing between compute and storage aren't encrypted. Disregard this recommendation if: 1. using encryption-at-host, or 2. server-side encryption on Managed Disks meets your security requirements. Learn more in: Server-side encryption of Azure Disk Storage: https://aka.ms/disksse, Different disk encryption offerings: https://aka.ms/diskencryptioncomparison</t>
-  </si>
-  <si>
-    <t>Virtual machines should encrypt temp disks, caches, and data flows between Compute and Storage resources</t>
+    <t>This policy definition is no longer the recommended way to achieve its intent. Instead of continuing to use this policy, we recommend you assign this replacement policies with policy IDs 3dc5edcd-002d-444c-b216-e123bbfa37c0 and ca88aadc-6e2b-416c-9de2-5a0f01d1693f. Learn more about policy definition deprecation at aka.ms/policydefdeprecation</t>
+  </si>
+  <si>
+    <t>[Deprecated]: Virtual machines should encrypt temp disks, caches, and data flows between Compute and Storage resources</t>
   </si>
   <si>
     <t>1a5b4dca-0b6f-4cf5-907c-56316bc1bf3d</t>
@@ -2481,6 +2481,15 @@
   </si>
   <si>
     <t>Synapse Workspaces should have Microsoft Entra-only authentication enabled</t>
+  </si>
+  <si>
+    <t>fa498b91-8a7e-4710-9578-da944c68d1fe</t>
+  </si>
+  <si>
+    <t>Disabling local authentication methods and allowing only Microsoft Entra Authentication improves security by ensuring that Azure PostgreSQL flexible server can exclusively be accessed by Microsoft Entra identities.</t>
+  </si>
+  <si>
+    <t>[Preview]: Azure PostgreSQL flexible server should have Microsoft Entra Only Authentication enabled</t>
   </si>
 </sst>
 </file>
@@ -2526,7 +2535,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H277"/>
+  <dimension ref="A1:H278"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3566,7 +3575,7 @@
         <v>13</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H40" s="0" t="s">
         <v>13</v>
@@ -9731,6 +9740,32 @@
         <v>770</v>
       </c>
       <c r="H277" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B278" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C278" s="0" t="s">
+        <v>823</v>
+      </c>
+      <c r="D278" s="0" t="s">
+        <v>824</v>
+      </c>
+      <c r="E278" s="0" t="s">
+        <v>825</v>
+      </c>
+      <c r="F278" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G278" s="0" t="s">
+        <v>770</v>
+      </c>
+      <c r="H278" s="0" t="s">
         <v>13</v>
       </c>
     </row>
